--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z270"/>
+  <dimension ref="A1:Z271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 30777-2023</t>
+          <t>A 31843-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45112</v>
+        <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -907,136 +907,136 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 30777-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Vågbandad barkbock
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31843-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44370</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 9930-2024</t>
+          <t>A 30754-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45363.57760416667</v>
+        <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1083,49 +1083,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 31714-2023</t>
+          <t>A 30666-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45117.83711805556</v>
+        <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1138,7 +1134,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1172,49 +1168,49 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 47239-2025</t>
+          <t>A 30671-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45930.42038194444</v>
+        <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1227,7 +1223,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1239,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1251,392 +1247,392 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 47239-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45930.42038194444</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 32859-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45839.58148148148</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 32503-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45838.46440972222</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 30653-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Tjäder</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 30662-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30785-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 30754-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1647,7 +1643,7 @@
         <v>45645.68797453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,14 +1721,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 30666-2023</t>
+          <t>A 9930-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45112</v>
+        <v>45363.57760416667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1741,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1779,49 +1775,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 30671-2023</t>
+          <t>A 30662-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1834,7 +1830,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1843,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1861,56 +1857,56 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30655-2023</t>
+          <t>A 31714-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45112.49369212963</v>
+        <v>45117.83711805556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1923,17 +1919,17 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -1947,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1957,308 +1953,312 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 30763-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30763-2023 artfynd.xlsx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30763-2023 karta.png", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30763-2023 FSC-klagomål.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30763-2023 FSC-klagomål mail.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30763-2023 tillsynsbegäran.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30763-2023 tillsynsbegäran mail.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30763-2023 prioriterade fågelarter.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 31742-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 30655-2023</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45112.49369212963</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Trädporella</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 31742-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 30763-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30763-2023 artfynd.xlsx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30763-2023 karta.png", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30763-2023 FSC-klagomål.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30763-2023 FSC-klagomål mail.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30763-2023 tillsynsbegäran.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30763-2023 tillsynsbegäran mail.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30763-2023 prioriterade fågelarter.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 32503-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45838.46440972222</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 32859-2025</t>
+          <t>A 30785-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45839.58148148148</v>
+        <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2309,27 +2309,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
         <v/>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3377,14 +3377,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32017-2021</t>
+          <t>A 22724-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44370.63815972222</v>
+        <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 22724-2021</t>
+          <t>A 32017-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44327</v>
+        <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 435-2025</t>
+          <t>A 69413-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45664.37454861111</v>
+        <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 28158-2024</t>
+          <t>A 48285-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45476.93028935185</v>
+        <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 69413-2021</t>
+          <t>A 39556-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44531.61189814815</v>
+        <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22541-2023</t>
+          <t>A 30633-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45071</v>
+        <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40202-2021</t>
+          <t>A 30772-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44418</v>
+        <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3776,14 +3776,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 48285-2021</t>
+          <t>A 30769-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44449.77408564815</v>
+        <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 36650-2025</t>
+          <t>A 30794-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45872.58658564815</v>
+        <v>45112.75039351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39556-2022</t>
+          <t>A 51229-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44818.56305555555</v>
+        <v>44868</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>5.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39188-2025</t>
+          <t>A 31889-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45888.67532407407</v>
+        <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50011-2023</t>
+          <t>A 4782-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45215</v>
+        <v>45328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46511-2023</t>
+          <t>A 50647-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45197</v>
+        <v>44459</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4118,14 +4118,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 67455-2021</t>
+          <t>A 6745-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44524.38003472222</v>
+        <v>44966</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12160-2024</t>
+          <t>A 18615-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45377.80496527778</v>
+        <v>45763.50521990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38108-2025</t>
+          <t>A 38074-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45882.5039699074</v>
+        <v>45160.78711805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4289,14 +4289,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30628-2023</t>
+          <t>A 4783-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45112.44275462963</v>
+        <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4346,14 +4346,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30643-2023</t>
+          <t>A 35526-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45112.47034722222</v>
+        <v>45147</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4403,14 +4403,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 47522-2024</t>
+          <t>A 31617-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45587.63065972222</v>
+        <v>44369.58694444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4422,13 +4422,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4465,14 +4460,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18615-2025</t>
+          <t>A 3237-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763.50521990741</v>
+        <v>44946.84690972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4485,7 +4480,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4522,14 +4517,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31717-2023</t>
+          <t>A 31724-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45117</v>
+        <v>45117.91390046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4542,7 +4537,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4579,14 +4574,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31719-2023</t>
+          <t>A 31726-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45117.8900462963</v>
+        <v>45117.92457175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4599,7 +4594,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4636,14 +4631,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30800-2023</t>
+          <t>A 61671-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45112.77375</v>
+        <v>44917.3327662037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4656,7 +4651,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4693,14 +4688,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24368-2022</t>
+          <t>A 25928-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44726.43189814815</v>
+        <v>45090.67364583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4713,7 +4708,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4750,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30650-2023</t>
+          <t>A 56334-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45112.47785879629</v>
+        <v>45624.80081018519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4770,7 +4765,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4807,14 +4802,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 65143-2023</t>
+          <t>A 25698-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45288</v>
+        <v>45803.66721064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4827,7 +4822,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4864,14 +4859,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31546-2022</t>
+          <t>A 25694-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44775</v>
+        <v>45803.66457175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4884,7 +4879,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4921,14 +4916,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50057-2023</t>
+          <t>A 25089-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45215</v>
+        <v>45800.31393518519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4941,7 +4936,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4978,14 +4973,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 54289-2022</t>
+          <t>A 61318-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44882</v>
+        <v>45264</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4998,7 +4993,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5035,14 +5030,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29658-2022</t>
+          <t>A 42483-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44754.67859953704</v>
+        <v>45180.82547453704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5055,7 +5050,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5092,14 +5087,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27498-2021</t>
+          <t>A 39188-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44351</v>
+        <v>45888.67532407407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5112,7 +5107,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5149,14 +5144,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25928-2023</t>
+          <t>A 9086-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45090.67364583333</v>
+        <v>45713.67104166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5169,7 +5164,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5206,14 +5201,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1922-2024</t>
+          <t>A 47522-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45308.43416666667</v>
+        <v>45587.63065972222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5225,8 +5220,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5263,14 +5263,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40276-2025</t>
+          <t>A 65143-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45895.35997685185</v>
+        <v>45288</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5282,13 +5282,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5325,14 +5320,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40774-2025</t>
+          <t>A 47265-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45897.42164351852</v>
+        <v>45586.80979166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5345,7 +5340,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5382,14 +5377,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5072-2023</t>
+          <t>A 40276-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44958.60896990741</v>
+        <v>45895.35997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5401,8 +5396,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5439,14 +5439,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 64005-2025</t>
+          <t>A 8570-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46021.41178240741</v>
+        <v>45709.64003472222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5496,14 +5496,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64003-2025</t>
+          <t>A 40774-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46021.40840277778</v>
+        <v>45897.42164351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5553,14 +5553,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 58139-2025</t>
+          <t>A 5072-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45982.62479166667</v>
+        <v>44958.60896990741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5610,14 +5610,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58137-2025</t>
+          <t>A 28073-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45982.62140046297</v>
+        <v>45476.58127314815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5667,14 +5667,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31617-2021</t>
+          <t>A 17925-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44369.58694444445</v>
+        <v>44683.57416666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5724,14 +5724,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52102-2023</t>
+          <t>A 54295-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45223</v>
+        <v>45232</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5781,14 +5781,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60792-2022</t>
+          <t>A 25938-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44914.42209490741</v>
+        <v>44344</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5838,14 +5838,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9401-2024</t>
+          <t>A 47980-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45359.42094907408</v>
+        <v>45204</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5895,14 +5895,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43292-2025</t>
+          <t>A 9401-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45910.61802083333</v>
+        <v>45359.42094907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5952,14 +5952,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35491-2025</t>
+          <t>A 29794-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45855.87664351852</v>
+        <v>45825.66684027778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6009,14 +6009,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 54287-2022</t>
+          <t>A 29306-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44882.37096064815</v>
+        <v>45824.45997685185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6066,14 +6066,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 59493-2025</t>
+          <t>A 35491-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45989.60912037037</v>
+        <v>45855.87664351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6123,14 +6123,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30769-2023</t>
+          <t>A 10918-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45112</v>
+        <v>45722.77650462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6180,14 +6180,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54659-2022</t>
+          <t>A 43292-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44883</v>
+        <v>45910.61802083333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6237,14 +6237,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30794-2023</t>
+          <t>A 9527-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45112.75039351852</v>
+        <v>44981</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6294,14 +6294,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31718-2023</t>
+          <t>A 9471-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45117.88568287037</v>
+        <v>45715.47013888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6351,14 +6351,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35526-2023</t>
+          <t>A 14032-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45147</v>
+        <v>45740.35876157408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6408,14 +6408,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28040-2024</t>
+          <t>A 45185-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45476.50533564815</v>
+        <v>45919.54019675926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6465,14 +6465,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22834-2024</t>
+          <t>A 3080-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45448.57018518518</v>
+        <v>45316</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6522,14 +6522,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4782-2024</t>
+          <t>A 31594-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45328</v>
+        <v>45833.70512731482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6579,14 +6579,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4783-2024</t>
+          <t>A 50981-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45328</v>
+        <v>45218.52822916667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6598,8 +6598,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6636,14 +6641,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 65118-2023</t>
+          <t>A 52102-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45288</v>
+        <v>45223</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6656,7 +6661,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6693,14 +6698,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59871-2025</t>
+          <t>A 50302-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45992.92416666666</v>
+        <v>45216</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6713,7 +6718,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6750,14 +6755,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60091-2025</t>
+          <t>A 31804-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45993.72268518519</v>
+        <v>45834.55309027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6770,7 +6775,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6807,14 +6812,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60092-2025</t>
+          <t>A 47279-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45993.72543981481</v>
+        <v>45930.47650462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6827,7 +6832,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6864,14 +6869,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3237-2023</t>
+          <t>A 47258-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44946.84690972222</v>
+        <v>45930.44646990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6884,7 +6889,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6921,14 +6926,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45185-2025</t>
+          <t>A 47723-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45919.54019675926</v>
+        <v>45931.62960648148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6941,7 +6946,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6978,14 +6983,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60089-2025</t>
+          <t>A 32509-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45993.72018518519</v>
+        <v>45838.4722800926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6998,7 +7003,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7035,14 +7040,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60093-2025</t>
+          <t>A 32862-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45993.72949074074</v>
+        <v>45839.5834837963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7055,7 +7060,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7092,14 +7097,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 32208-2023</t>
+          <t>A 59472-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45119</v>
+        <v>45254</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7112,7 +7117,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7149,14 +7154,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 56335-2024</t>
+          <t>A 9530-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45624.80724537037</v>
+        <v>44981</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7169,7 +7174,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7206,14 +7211,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 59872-2025</t>
+          <t>A 48212-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45992.93340277778</v>
+        <v>45933.49399305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7226,7 +7231,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7263,14 +7268,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60181-2025</t>
+          <t>A 32320-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45994.46494212963</v>
+        <v>45836.4041087963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7283,7 +7288,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>11.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7320,14 +7325,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11605-2024</t>
+          <t>A 32506-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45373.39921296296</v>
+        <v>45838.4687037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7340,7 +7345,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7377,14 +7382,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 70708-2021</t>
+          <t>A 47934-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44537</v>
+        <v>45932.55678240741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7397,7 +7402,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7434,14 +7439,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60376-2025</t>
+          <t>A 49460-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45995.36325231481</v>
+        <v>45939.31943287037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7454,7 +7459,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7491,14 +7496,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60380-2025</t>
+          <t>A 49269-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45995.36851851852</v>
+        <v>45938.50247685185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7511,7 +7516,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7548,14 +7553,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2497-2026</t>
+          <t>A 49277-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46037.40177083333</v>
+        <v>45938.50756944445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7568,7 +7573,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7605,14 +7610,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 1395-2024</t>
+          <t>A 30628-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45303</v>
+        <v>45112.44275462963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7625,7 +7630,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7662,14 +7667,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3080-2024</t>
+          <t>A 30643-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45316</v>
+        <v>45112.47034722222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7682,7 +7687,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7719,14 +7724,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47279-2025</t>
+          <t>A 22834-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45930.47650462963</v>
+        <v>45448.57018518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7739,7 +7744,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7776,14 +7781,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47258-2025</t>
+          <t>A 41910-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45930.44646990741</v>
+        <v>45561.54084490741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7796,7 +7801,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7833,14 +7838,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 60946-2025</t>
+          <t>A 11981-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45999.64741898148</v>
+        <v>45728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7853,7 +7858,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7890,14 +7895,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30633-2023</t>
+          <t>A 51613-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45112</v>
+        <v>45951.39907407408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7910,7 +7915,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7947,14 +7952,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 43398-2024</t>
+          <t>A 67455-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45568.61006944445</v>
+        <v>44524.38003472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7967,7 +7972,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8004,14 +8009,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 59517-2023</t>
+          <t>A 18305-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45254</v>
+        <v>45762.43462962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8024,7 +8029,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8061,14 +8066,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 23330-2024</t>
+          <t>A 58093-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45453.46866898148</v>
+        <v>45248</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,13 +8085,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8123,14 +8123,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47934-2025</t>
+          <t>A 54144-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45932.55678240741</v>
+        <v>44881</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47723-2025</t>
+          <t>A 52075-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45931.62960648148</v>
+        <v>45952.65550925926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 57036-2024</t>
+          <t>A 52108-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45629.2527662037</v>
+        <v>45952.6910300926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 36532-2024</t>
+          <t>A 52077-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45537.44701388889</v>
+        <v>45952.65769675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9159-2024</t>
+          <t>A 28158-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45358.39443287037</v>
+        <v>45476.93028935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11021-2022</t>
+          <t>A 52513-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44628.55136574074</v>
+        <v>45954.50944444445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50302-2023</t>
+          <t>A 435-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45216</v>
+        <v>45664.37454861111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8522,14 +8522,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48212-2025</t>
+          <t>A 52371-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45933.49399305556</v>
+        <v>45953.89262731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8579,14 +8579,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59816-2021</t>
+          <t>A 52511-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44494</v>
+        <v>45954.50719907408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8636,14 +8636,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4119-2026</t>
+          <t>A 52939-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46044.6099537037</v>
+        <v>45957.63912037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8655,13 +8655,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8698,14 +8693,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53055-2024</t>
+          <t>A 52943-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45611.46429398148</v>
+        <v>45957.64331018519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8718,7 +8713,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8755,14 +8750,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49277-2025</t>
+          <t>A 36650-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45938.50756944445</v>
+        <v>45872.58658564815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8775,7 +8770,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8812,14 +8807,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49269-2025</t>
+          <t>A 52942-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45938.50247685185</v>
+        <v>45957.64267361111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8832,7 +8827,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8869,14 +8864,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4588-2026</t>
+          <t>A 52370-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46048.34140046296</v>
+        <v>45953.88924768518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8889,7 +8884,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8926,14 +8921,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49460-2025</t>
+          <t>A 50057-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45939.31943287037</v>
+        <v>45215</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8946,7 +8941,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8983,14 +8978,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 4587-2026</t>
+          <t>A 46511-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46048.33873842593</v>
+        <v>45197</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,14 +9035,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31889-2023</t>
+          <t>A 28201-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45118</v>
+        <v>44355.6369675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9055,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>10.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9097,14 +9092,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 15112-2022</t>
+          <t>A 56452-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44658</v>
+        <v>44893.2884375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9117,7 +9112,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9154,14 +9149,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3238-2023</t>
+          <t>A 6653-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44946.84815972222</v>
+        <v>44602</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,14 +9206,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59472-2023</t>
+          <t>A 64207-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45254</v>
+        <v>44510.61469907407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9231,7 +9226,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9268,14 +9263,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6745-2023</t>
+          <t>A 2006-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44966</v>
+        <v>45308</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9283,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9325,14 +9320,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 6071-2026</t>
+          <t>A 24368-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46052.66287037037</v>
+        <v>44726.43189814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9340,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9382,14 +9377,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52075-2025</t>
+          <t>A 54783-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45952.65550925926</v>
+        <v>45966.61938657407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9402,7 +9397,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9439,14 +9434,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52108-2025</t>
+          <t>A 27103-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45952.6910300926</v>
+        <v>45471.4950462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9459,7 +9454,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9496,14 +9491,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52077-2025</t>
+          <t>A 55159-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45952.65769675926</v>
+        <v>45621.50773148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9516,7 +9511,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9553,14 +9548,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 51613-2025</t>
+          <t>A 12124-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45951.39907407408</v>
+        <v>45377</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,8 +9567,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9610,14 +9610,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6074-2026</t>
+          <t>A 38586-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46052.66378472222</v>
+        <v>45162.63375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9667,14 +9667,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 52370-2025</t>
+          <t>A 38108-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45953.88924768518</v>
+        <v>45882.5039699074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9724,14 +9724,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52511-2025</t>
+          <t>A 9159-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45954.50719907408</v>
+        <v>45358.39443287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9781,14 +9781,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9530-2023</t>
+          <t>A 56312-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44981</v>
+        <v>45974.62810185185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9838,14 +9838,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52371-2025</t>
+          <t>A 31746-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45953.89262731482</v>
+        <v>45117</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9895,14 +9895,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52513-2025</t>
+          <t>A 31546-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45954.50944444445</v>
+        <v>44775</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9952,14 +9952,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 22443-2023</t>
+          <t>A 56305-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45070</v>
+        <v>45974.61175925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10009,14 +10009,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 6103-2026</t>
+          <t>A 63725-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46052.9485300926</v>
+        <v>45276</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10066,14 +10066,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 10610-2025</t>
+          <t>A 59613-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45721.59978009259</v>
+        <v>45254.64126157408</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10123,14 +10123,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 6064-2025</t>
+          <t>A 64005-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45696.28527777778</v>
+        <v>46021.41178240741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10180,14 +10180,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 7339-2025</t>
+          <t>A 64003-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45703.51598379629</v>
+        <v>46021.40840277778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10237,14 +10237,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 52943-2025</t>
+          <t>A 62986-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45957.64331018519</v>
+        <v>45272</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10294,14 +10294,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54295-2023</t>
+          <t>A 59816-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45232</v>
+        <v>44494</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10351,14 +10351,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6104-2026</t>
+          <t>A 58137-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46052.94945601852</v>
+        <v>45982.62140046297</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10408,14 +10408,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 52939-2025</t>
+          <t>A 30650-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45957.63912037037</v>
+        <v>45112.47785879629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10465,14 +10465,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52942-2025</t>
+          <t>A 58139-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45957.64267361111</v>
+        <v>45982.62479166667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10522,14 +10522,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 30745-2023</t>
+          <t>A 30637-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45112</v>
+        <v>45112.46177083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10579,14 +10579,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 30801-2023</t>
+          <t>A 65118-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45112.78192129629</v>
+        <v>45288</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10636,14 +10636,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56331-2024</t>
+          <t>A 59493-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45624.79915509259</v>
+        <v>45989.60912037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10693,14 +10693,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 54783-2025</t>
+          <t>A 60089-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45966.61938657407</v>
+        <v>45993.72018518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10750,14 +10750,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 1921-2024</t>
+          <t>A 60093-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45308.43202546296</v>
+        <v>45993.72949074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10807,14 +10807,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 42250-2023</t>
+          <t>A 18613-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45180.36814814815</v>
+        <v>45763.49810185185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10864,14 +10864,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 12124-2024</t>
+          <t>A 18614-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45377</v>
+        <v>45763.50244212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10883,13 +10883,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>2.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10926,14 +10921,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 30637-2023</t>
+          <t>A 60091-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45112.46177083333</v>
+        <v>45993.72268518519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10946,7 +10941,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10983,14 +10978,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 56305-2025</t>
+          <t>A 60092-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45974.61175925926</v>
+        <v>45993.72543981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11003,7 +10998,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11040,14 +11035,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56312-2025</t>
+          <t>A 59871-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45974.62810185185</v>
+        <v>45992.92416666666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11060,7 +11055,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11097,14 +11092,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51564-2024</t>
+          <t>A 54289-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45604.62042824074</v>
+        <v>44882</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11117,7 +11112,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11154,14 +11149,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11239-2023</t>
+          <t>A 59872-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44992</v>
+        <v>45992.93340277778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11174,7 +11169,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11211,14 +11206,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 25938-2021</t>
+          <t>A 32208-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44344</v>
+        <v>45119</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11231,7 +11226,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11268,14 +11263,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 31746-2023</t>
+          <t>A 42250-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45117</v>
+        <v>45180.36814814815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11288,7 +11283,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11325,14 +11320,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 18613-2025</t>
+          <t>A 42256-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45763.49810185185</v>
+        <v>45180</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11345,7 +11340,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11382,14 +11377,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 18614-2025</t>
+          <t>A 60380-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45763.50244212963</v>
+        <v>45995.36851851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11402,7 +11397,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>9.699999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11439,14 +11434,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36131-2024</t>
+          <t>A 1921-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45534.33863425926</v>
+        <v>45308.43202546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11459,7 +11454,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11496,14 +11491,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 31712-2023</t>
+          <t>A 2497-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45117.8322337963</v>
+        <v>46037.40177083333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11553,14 +11548,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 31715-2023</t>
+          <t>A 60181-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45117.84797453704</v>
+        <v>45994.46494212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11573,7 +11568,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>12.4</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11610,14 +11605,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31745-2023</t>
+          <t>A 60376-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45117</v>
+        <v>45995.36325231481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11630,7 +11625,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11667,14 +11662,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 31711-2023</t>
+          <t>A 27498-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45117.82019675926</v>
+        <v>44351</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11687,7 +11682,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11724,14 +11719,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31727-2023</t>
+          <t>A 60946-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45117</v>
+        <v>45999.64741898148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11744,7 +11739,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11781,14 +11776,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 31728-2023</t>
+          <t>A 11795-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45117</v>
+        <v>44994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11838,14 +11833,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 47264-2024</t>
+          <t>A 31711-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45586.8034837963</v>
+        <v>45117.82019675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11858,7 +11853,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11895,14 +11890,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 51314-2023</t>
+          <t>A 31727-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45219</v>
+        <v>45117</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11915,7 +11910,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11952,14 +11947,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 47265-2024</t>
+          <t>A 31728-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45586.80979166667</v>
+        <v>45117</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12009,14 +12004,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48354-2024</t>
+          <t>A 11605-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45590.56171296296</v>
+        <v>45373.39921296296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12029,7 +12024,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12066,14 +12061,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42483-2023</t>
+          <t>A 53055-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45180.82547453704</v>
+        <v>45611.46429398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12086,7 +12081,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12123,14 +12118,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50647-2021</t>
+          <t>A 4119-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44459</v>
+        <v>46044.6099537037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12142,8 +12137,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12180,14 +12180,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 6653-2022</t>
+          <t>A 4587-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44602</v>
+        <v>46048.33873842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12237,14 +12237,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 47980-2023</t>
+          <t>A 4588-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45204</v>
+        <v>46048.34140046296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12294,14 +12294,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 8570-2025</t>
+          <t>A 30745-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45709.64003472222</v>
+        <v>45112</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12351,14 +12351,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16534-2024</t>
+          <t>A 29658-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45408.43065972222</v>
+        <v>44754.67859953704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12408,14 +12408,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 18337-2023</t>
+          <t>A 57036-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45041</v>
+        <v>45629.2527662037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12465,14 +12465,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 31724-2023</t>
+          <t>A 6074-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45117.91390046296</v>
+        <v>46052.66378472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12522,14 +12522,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 31726-2023</t>
+          <t>A 16534-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45117.92457175926</v>
+        <v>45408.43065972222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12579,14 +12579,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 17925-2022</t>
+          <t>A 6103-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44683.57416666667</v>
+        <v>46052.9485300926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12636,14 +12636,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21751-2022</t>
+          <t>A 6104-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44708.43361111111</v>
+        <v>46052.94945601852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12693,14 +12693,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30792-2023</t>
+          <t>A 6071-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45112.72848379629</v>
+        <v>46052.66287037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12750,14 +12750,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7046-2025</t>
+          <t>A 7339-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45701.6434375</v>
+        <v>45703.51598379629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12807,14 +12807,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 42256-2023</t>
+          <t>A 10610-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45180</v>
+        <v>45721.59978009259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12864,14 +12864,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 41910-2024</t>
+          <t>A 6064-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45561.54084490741</v>
+        <v>45696.28527777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12921,14 +12921,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 62986-2023</t>
+          <t>A 36131-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45272</v>
+        <v>45534.33863425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12978,14 +12978,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 28201-2021</t>
+          <t>A 54287-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44355.6369675926</v>
+        <v>44882.37096064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>10.5</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13035,14 +13035,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15969-2025</t>
+          <t>A 50011-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45749.54825231482</v>
+        <v>45215</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>7.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13092,14 +13092,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 59613-2023</t>
+          <t>A 15112-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45254.64126157408</v>
+        <v>44658</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13149,14 +13149,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 61318-2023</t>
+          <t>A 7546-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45264</v>
+        <v>46059.67181712963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13206,14 +13206,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55159-2024</t>
+          <t>A 1922-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45621.50773148148</v>
+        <v>45308.43416666667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13263,14 +13263,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 48513-2021</t>
+          <t>A 61334-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44449</v>
+        <v>44915</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13320,14 +13320,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 54144-2022</t>
+          <t>A 51564-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44881</v>
+        <v>45604.62042824074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13377,14 +13377,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 2006-2024</t>
+          <t>A 35491-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45308</v>
+        <v>45146</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13430,18 +13430,38 @@
         <v>0</v>
       </c>
       <c r="R215" s="2" t="inlineStr"/>
+      <c r="U215">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="V215">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="W215">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="X215">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="Y215">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61671-2022</t>
+          <t>A 7046-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44917.3327662037</v>
+        <v>45701.6434375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13454,7 +13474,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13491,14 +13511,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 51229-2022</t>
+          <t>A 30760-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44868</v>
+        <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13511,7 +13531,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13548,14 +13568,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61334-2022</t>
+          <t>A 30762-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44915</v>
+        <v>45112</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13568,7 +13588,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13605,14 +13625,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 30793-2023</t>
+          <t>A 56331-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45112.74090277778</v>
+        <v>45624.79915509259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13625,7 +13645,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13662,14 +13682,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 30795-2023</t>
+          <t>A 51314-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45112.75636574074</v>
+        <v>45219</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13682,7 +13702,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13719,14 +13739,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 30724-2023</t>
+          <t>A 3238-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45112</v>
+        <v>44946.84815972222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13739,7 +13759,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13776,14 +13796,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54311-2022</t>
+          <t>A 12160-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44882.41185185185</v>
+        <v>45377.80496527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13796,7 +13816,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13833,14 +13853,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58010-2022</t>
+          <t>A 40202-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44900</v>
+        <v>44418</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13853,7 +13873,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13890,14 +13910,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58011-2022</t>
+          <t>A 54659-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44900</v>
+        <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13910,7 +13930,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13947,14 +13967,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56334-2024</t>
+          <t>A 31718-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45624.80081018519</v>
+        <v>45117.88568287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13967,7 +13987,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14004,14 +14024,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 61026-2022</t>
+          <t>A 36532-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44914.8635300926</v>
+        <v>45537.44701388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14024,7 +14044,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14061,14 +14081,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 63725-2023</t>
+          <t>A 43398-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45276</v>
+        <v>45568.61006944445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14081,7 +14101,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14118,14 +14138,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 9527-2023</t>
+          <t>A 54311-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44981</v>
+        <v>44882.41185185185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14138,7 +14158,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14175,14 +14195,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 30760-2023</t>
+          <t>A 22443-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45112</v>
+        <v>45070</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14195,7 +14215,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14232,14 +14252,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 30762-2023</t>
+          <t>A 60792-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45112</v>
+        <v>44914.42209490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14252,7 +14272,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14289,14 +14309,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38586-2023</t>
+          <t>A 15969-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45162.63375</v>
+        <v>45749.54825231482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14309,7 +14329,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14346,14 +14366,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 30772-2023</t>
+          <t>A 61026-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45112</v>
+        <v>44914.8635300926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14366,7 +14386,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14403,14 +14423,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 11795-2023</t>
+          <t>A 47264-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44994</v>
+        <v>45586.8034837963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14423,7 +14443,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14460,14 +14480,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 35491-2023</t>
+          <t>A 22541-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45146</v>
+        <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14480,7 +14500,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14513,38 +14533,18 @@
         <v>0</v>
       </c>
       <c r="R234" s="2" t="inlineStr"/>
-      <c r="U234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="V234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="W234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="X234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="Y234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 18305-2025</t>
+          <t>A 21751-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45762.43462962963</v>
+        <v>44708.43361111111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14594,14 +14594,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 52100-2023</t>
+          <t>A 1395-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45223</v>
+        <v>45303</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14658,7 +14658,7 @@
         <v>45310</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14708,14 +14708,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 38074-2023</t>
+          <t>A 30793-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45160.78711805555</v>
+        <v>45112.74090277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14765,14 +14765,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 50981-2023</t>
+          <t>A 30795-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45218.52822916667</v>
+        <v>45112.75636574074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,13 +14784,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14827,14 +14822,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 56452-2022</t>
+          <t>A 30800-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44893.2884375</v>
+        <v>45112.77375</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14847,7 +14842,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14884,14 +14879,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 58093-2023</t>
+          <t>A 52100-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45248</v>
+        <v>45223</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14904,7 +14899,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14941,14 +14936,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 64207-2021</t>
+          <t>A 28040-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44510.61469907407</v>
+        <v>45476.50533564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14961,7 +14956,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14998,14 +14993,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 27103-2024</t>
+          <t>A 48513-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45471.4950462963</v>
+        <v>44449</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15018,7 +15013,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15055,14 +15050,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 57443-2024</t>
+          <t>A 18337-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45629.8953587963</v>
+        <v>45041</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15075,7 +15070,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15112,14 +15107,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 21573-2025</t>
+          <t>A 11021-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45782.82457175926</v>
+        <v>44628.55136574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15132,7 +15127,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15169,14 +15164,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 21575-2025</t>
+          <t>A 11239-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45782.8308912037</v>
+        <v>44992</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15189,7 +15184,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15226,14 +15221,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 21878-2025</t>
+          <t>A 31717-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45784.40392361111</v>
+        <v>45117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15246,7 +15241,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15283,14 +15278,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 23906-2024</t>
+          <t>A 31719-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45455.80586805556</v>
+        <v>45117.8900462963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15303,7 +15298,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15340,14 +15335,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 21574-2025</t>
+          <t>A 31745-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45782.82858796296</v>
+        <v>45117</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15360,7 +15355,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15397,14 +15392,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 23907-2024</t>
+          <t>A 56335-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45455.80972222222</v>
+        <v>45624.80724537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15417,7 +15412,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15454,14 +15449,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 22424-2025</t>
+          <t>A 30801-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45786.56738425926</v>
+        <v>45112.78192129629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15474,7 +15469,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15511,14 +15506,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 43938-2024</t>
+          <t>A 70708-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45572.46334490741</v>
+        <v>44537</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15531,7 +15526,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15568,14 +15563,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 23311-2025</t>
+          <t>A 31712-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45791.60857638889</v>
+        <v>45117.8322337963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15588,7 +15583,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15625,14 +15620,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 25089-2025</t>
+          <t>A 31715-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45800.31393518519</v>
+        <v>45117.84797453704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15645,7 +15640,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.9</v>
+        <v>12.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15682,14 +15677,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 25694-2025</t>
+          <t>A 58010-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45803.66457175926</v>
+        <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15702,7 +15697,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15739,14 +15734,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 25698-2025</t>
+          <t>A 58011-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45803.66721064815</v>
+        <v>44900</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15759,7 +15754,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15796,14 +15791,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 9086-2025</t>
+          <t>A 59517-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45713.67104166667</v>
+        <v>45254</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15816,7 +15811,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15853,14 +15848,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 28073-2024</t>
+          <t>A 30724-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45476.58127314815</v>
+        <v>45112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15873,7 +15868,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15910,14 +15905,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 29306-2025</t>
+          <t>A 48354-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45824.45997685185</v>
+        <v>45590.56171296296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15930,7 +15925,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15967,14 +15962,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 29794-2025</t>
+          <t>A 30792-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45825.66684027778</v>
+        <v>45112.72848379629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15987,7 +15982,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16024,14 +16019,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 14032-2025</t>
+          <t>A 57443-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45740.35876157408</v>
+        <v>45629.8953587963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16044,7 +16039,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16081,14 +16076,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 10918-2025</t>
+          <t>A 23330-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45722.77650462963</v>
+        <v>45453.46866898148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,8 +16095,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16138,14 +16138,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 9471-2025</t>
+          <t>A 21573-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45715.47013888889</v>
+        <v>45782.82457175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16195,14 +16195,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 31804-2025</t>
+          <t>A 21575-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45834.55309027778</v>
+        <v>45782.8308912037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16252,14 +16252,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 31594-2025</t>
+          <t>A 21574-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45833.70512731482</v>
+        <v>45782.82858796296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16309,14 +16309,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 32509-2025</t>
+          <t>A 23906-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45838.4722800926</v>
+        <v>45455.80586805556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16366,14 +16366,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 32506-2025</t>
+          <t>A 23907-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45838.4687037037</v>
+        <v>45455.80972222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16423,14 +16423,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 32320-2025</t>
+          <t>A 21878-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45836.4041087963</v>
+        <v>45784.40392361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>11.7</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16480,14 +16480,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 32862-2025</t>
+          <t>A 43938-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45839.5834837963</v>
+        <v>45572.46334490741</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16534,17 +16534,17 @@
       </c>
       <c r="R269" s="2" t="inlineStr"/>
     </row>
-    <row r="270">
+    <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 11981-2025</t>
+          <t>A 22424-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45728</v>
+        <v>45786.56738425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16590,6 +16590,63 @@
         <v>0</v>
       </c>
       <c r="R270" s="2" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>A 23311-2025</t>
+        </is>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>45791.60857638889</v>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45930.42038194444</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45839.58148148148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45838.46440972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45645.68797453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45363.57760416667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45117.83711805556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112.49369212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>45112.75039351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44868</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44459</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44966</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45763.50521990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>45160.78711805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45147</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44369.58694444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>44946.84690972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45117.91390046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45117.92457175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>44917.3327662037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45090.67364583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>45624.80081018519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45803.66721064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45803.66457175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45800.31393518519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45264</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45180.82547453704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>45888.67532407407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>45713.67104166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45587.63065972222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45288</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>45586.80979166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45895.35997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45709.64003472222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>45897.42164351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44958.60896990741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45476.58127314815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44683.57416666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>45232</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44344</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>45204</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45359.42094907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45825.66684027778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45824.45997685185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>45855.87664351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45722.77650462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45910.61802083333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44981</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45715.47013888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45740.35876157408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>45919.54019675926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>45316</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45833.70512731482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45218.52822916667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45223</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45216</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>45834.55309027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45930.47650462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45930.44646990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>45931.62960648148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45838.4722800926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45839.5834837963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45254</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>44981</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45933.49399305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45836.4041087963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45838.4687037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45932.55678240741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45939.31943287037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45938.50247685185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45938.50756944445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45112.44275462963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45112.47034722222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45448.57018518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45561.54084490741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45951.39907407408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>44524.38003472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45762.43462962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45248</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44881</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45952.65550925926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45952.6910300926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45952.65769675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45476.93028935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45954.50944444445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45664.37454861111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45953.89262731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45954.50719907408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45957.63912037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45957.64331018519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45872.58658564815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45957.64267361111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45953.88924768518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45215</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45197</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44355.6369675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44893.2884375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>44602</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44510.61469907407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45308</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44726.43189814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45966.61938657407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45471.4950462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45621.50773148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45377</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45162.63375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>45882.5039699074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45358.39443287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45974.62810185185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45117</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44775</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45974.61175925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>45276</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45254.64126157408</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>46021.41178240741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>46021.40840277778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>45272</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44494</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>45982.62140046297</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45112.47785879629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>45982.62479166667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>45112.46177083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>45288</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>45989.60912037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>45993.72949074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>45763.49810185185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>45763.50244212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>45993.72268518519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>45993.72543981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45992.92416666666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44882</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>45992.93340277778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>45119</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45180.36814814815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>45180</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45995.36851851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45308.43202546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>46037.40177083333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>45994.46494212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>45995.36325231481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44351</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45999.64741898148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45117.82019675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>45117</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>45117</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45373.39921296296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>45611.46429398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>46044.6099537037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>46048.33873842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>46048.34140046296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>45112</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44754.67859953704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>45629.2527662037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>46052.66378472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>45408.43065972222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>46052.9485300926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>46052.94945601852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>46052.66287037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>45703.51598379629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>45721.59978009259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>45696.28527777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>45534.33863425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44882.37096064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>45215</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44658</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>46059.67181712963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>45308.43416666667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44915</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45604.62042824074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45146</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>45701.6434375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45112</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45624.79915509259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45219</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44946.84815972222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>45377.80496527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44418</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45117.88568287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45537.44701388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45568.61006944445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44882.41185185185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45070</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44914.42209490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45749.54825231482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>44914.8635300926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45586.8034837963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>44708.43361111111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>45303</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45310</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45112.74090277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>45112.75636574074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>45112.77375</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>45223</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>45476.50533564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44449</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>45041</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44628.55136574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44992</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>45117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>45117.8900462963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>45117</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>45624.80724537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>45112.78192129629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44537</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>45117.8322337963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>45117.84797453704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44900</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45254</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45590.56171296296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>45112.72848379629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>45629.8953587963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45453.46866898148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45782.82457175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45782.8308912037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45782.82858796296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45455.80586805556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45455.80972222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45784.40392361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45572.46334490741</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45786.56738425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>45791.60857638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45930.42038194444</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45839.58148148148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45838.46440972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45645.68797453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45363.57760416667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45117.83711805556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112.49369212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>45112.75039351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44868</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44459</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44966</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45763.50521990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>45160.78711805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45147</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44369.58694444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>44946.84690972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45117.91390046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45117.92457175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>44917.3327662037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45090.67364583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>45624.80081018519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45803.66721064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45803.66457175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45800.31393518519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45264</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45180.82547453704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>45888.67532407407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>45713.67104166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45587.63065972222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45288</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>45586.80979166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45895.35997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45709.64003472222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>45897.42164351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44958.60896990741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45476.58127314815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44683.57416666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>45232</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44344</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>45204</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45359.42094907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45825.66684027778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45824.45997685185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>45855.87664351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45722.77650462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45910.61802083333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44981</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45715.47013888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45740.35876157408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>45919.54019675926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>45316</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45833.70512731482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45218.52822916667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45223</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45216</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>45834.55309027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45930.47650462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45930.44646990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>45931.62960648148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45838.4722800926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45839.5834837963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45254</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>44981</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45933.49399305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45836.4041087963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45838.4687037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45932.55678240741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45939.31943287037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45938.50247685185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45938.50756944445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45112.44275462963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45112.47034722222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45448.57018518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45561.54084490741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45951.39907407408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>44524.38003472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45762.43462962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45248</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44881</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45952.65550925926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45952.6910300926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45952.65769675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45476.93028935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45954.50944444445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45664.37454861111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45953.89262731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45954.50719907408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45957.63912037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45957.64331018519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45872.58658564815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45957.64267361111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45953.88924768518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45215</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45197</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44355.6369675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44893.2884375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>44602</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44510.61469907407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45308</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44726.43189814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45966.61938657407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45471.4950462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45621.50773148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45377</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45162.63375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>45882.5039699074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45358.39443287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45974.62810185185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45117</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44775</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45974.61175925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>45276</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45254.64126157408</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>46021.41178240741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>46021.40840277778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>45272</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44494</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>45982.62140046297</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45112.47785879629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>45982.62479166667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>45112.46177083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>45288</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>45989.60912037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>45993.72949074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>45763.49810185185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>45763.50244212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>45993.72268518519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>45993.72543981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45992.92416666666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44882</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>45992.93340277778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>45119</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45180.36814814815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>45180</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45995.36851851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45308.43202546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>46037.40177083333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>45994.46494212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>45995.36325231481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44351</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45999.64741898148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45117.82019675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>45117</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>45117</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45373.39921296296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>45611.46429398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>46044.6099537037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>46048.33873842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>46048.34140046296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>45112</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44754.67859953704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>45629.2527662037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>46052.66378472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>45408.43065972222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>46052.9485300926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>46052.94945601852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>46052.66287037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>45703.51598379629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>45721.59978009259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>45696.28527777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>45534.33863425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44882.37096064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>45215</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44658</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>46059.67181712963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>45308.43416666667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44915</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45604.62042824074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45146</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>45701.6434375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45112</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45624.79915509259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45219</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44946.84815972222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>45377.80496527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44418</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45117.88568287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45537.44701388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45568.61006944445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44882.41185185185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45070</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44914.42209490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45749.54825231482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>44914.8635300926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45586.8034837963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45071</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>44708.43361111111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>45303</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45310</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45112.74090277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>45112.75636574074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>45112.77375</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>45223</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>45476.50533564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44449</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>45041</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44628.55136574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44992</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>45117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>45117.8900462963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>45117</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>45624.80724537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>45112.78192129629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44537</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>45117.8322337963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>45117.84797453704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44900</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45254</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45590.56171296296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>45112.72848379629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>45629.8953587963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45453.46866898148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45782.82457175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45782.8308912037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45782.82858796296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45455.80586805556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45455.80972222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45784.40392361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45572.46334490741</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45786.56738425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>45791.60857638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 30777-2023</t>
+          <t>A 31843-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45112</v>
+        <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -907,136 +907,136 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 30777-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Vågbandad barkbock
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31843-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44370</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 9930-2024</t>
+          <t>A 30754-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45363.57760416667</v>
+        <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1083,49 +1083,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 31714-2023</t>
+          <t>A 30785-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45117.83711805556</v>
+        <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1138,7 +1134,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1147,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1162,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1172,49 +1168,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 32503-2025</t>
+          <t>A 30666-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45838.46440972222</v>
+        <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1227,17 +1219,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1251,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1261,374 +1253,382 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 30671-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 47239-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45930.42038194444</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 32859-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45839.58148148148</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 32503-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45838.46440972222</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Fällmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 30785-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 32859-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45839.58148148148</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 61244-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45645.68797453704</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Grönhjon</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 47239-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45930.42038194444</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1721,14 +1721,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 30662-2023</t>
+          <t>A 61244-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45112</v>
+        <v>45645.68797453704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1775,223 +1775,223 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Grönhjon</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 9930-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45363.57760416667</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 30662-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 30754-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 30666-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 30671-2023</t>
+          <t>A 31714-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45112</v>
+        <v>45117.83711805556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2031,56 +2031,56 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 30655-2023</t>
+          <t>A 30763-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45112.49369212963</v>
+        <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2093,17 +2093,17 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2127,31 +2127,35 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Trädporella</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30763-2023 artfynd.xlsx", "A 30763-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30763-2023 karta.png", "A 30763-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30763-2023 FSC-klagomål.docx", "A 30763-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30763-2023 FSC-klagomål mail.docx", "A 30763-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30763-2023 tillsynsbegäran.docx", "A 30763-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30763-2023 tillsynsbegäran mail.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30763-2023 prioriterade fågelarter.docx", "A 30763-2023")</f>
         <v/>
       </c>
     </row>
@@ -2165,7 +2169,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,14 +2251,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 30763-2023</t>
+          <t>A 30655-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45112</v>
+        <v>45112.49369212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2267,16 +2271,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2291,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2301,35 +2305,31 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trädporella</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30763-2023 artfynd.xlsx", "A 30763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30763-2023 karta.png", "A 30763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30763-2023 FSC-klagomål.docx", "A 30763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30763-2023 FSC-klagomål mail.docx", "A 30763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30763-2023 tillsynsbegäran.docx", "A 30763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30763-2023 tillsynsbegäran mail.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30763-2023 prioriterade fågelarter.docx", "A 30763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
         <v/>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3662,14 +3662,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 50011-2023</t>
+          <t>A 40276-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45215</v>
+        <v>45895.35997685185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,8 +3681,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3719,14 +3724,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46511-2023</t>
+          <t>A 30633-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45197</v>
+        <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3739,7 +3744,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,14 +3781,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12160-2024</t>
+          <t>A 31889-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45377.80496527778</v>
+        <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3796,7 +3801,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3833,14 +3838,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50057-2023</t>
+          <t>A 30772-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45215</v>
+        <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3853,7 +3858,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3890,14 +3895,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29658-2022</t>
+          <t>A 4782-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44754.67859953704</v>
+        <v>45328</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3910,7 +3915,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3947,14 +3952,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27498-2021</t>
+          <t>A 31717-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44351</v>
+        <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3967,7 +3972,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4004,14 +4009,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31617-2021</t>
+          <t>A 31719-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44369.58694444445</v>
+        <v>45117.8900462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4024,7 +4029,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4061,14 +4066,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52102-2023</t>
+          <t>A 40774-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45223</v>
+        <v>45897.42164351852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4081,7 +4086,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4118,14 +4123,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60792-2022</t>
+          <t>A 25928-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44914.42209490741</v>
+        <v>45090.67364583333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4138,7 +4143,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4175,14 +4180,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9401-2024</t>
+          <t>A 30769-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45359.42094907408</v>
+        <v>45112</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4195,7 +4200,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,14 +4237,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 54287-2022</t>
+          <t>A 30794-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44882.37096064815</v>
+        <v>45112.75039351852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4252,7 +4257,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4289,14 +4294,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30769-2023</t>
+          <t>A 51229-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45112</v>
+        <v>44868</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4309,7 +4314,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4346,14 +4351,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 54659-2022</t>
+          <t>A 31745-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44883</v>
+        <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4371,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4403,14 +4408,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30794-2023</t>
+          <t>A 50647-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45112.75039351852</v>
+        <v>44459</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,14 +4465,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31718-2023</t>
+          <t>A 56335-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45117.88568287037</v>
+        <v>45624.80724537037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4480,7 +4485,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4517,14 +4522,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4782-2024</t>
+          <t>A 30801-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45328</v>
+        <v>45112.78192129629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4537,7 +4542,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4574,14 +4579,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4783-2024</t>
+          <t>A 6745-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45328</v>
+        <v>44966</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4594,7 +4599,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4631,14 +4636,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35526-2023</t>
+          <t>A 70708-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45147</v>
+        <v>44537</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4651,7 +4656,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4688,14 +4693,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28040-2024</t>
+          <t>A 31712-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45476.50533564815</v>
+        <v>45117.8322337963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4708,7 +4713,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4745,14 +4750,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22834-2024</t>
+          <t>A 31715-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45448.57018518518</v>
+        <v>45117.84797453704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4765,7 +4770,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>12.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4802,14 +4807,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3237-2023</t>
+          <t>A 39188-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44946.84690972222</v>
+        <v>45888.67532407407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4822,7 +4827,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4859,14 +4864,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32208-2023</t>
+          <t>A 18615-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45119</v>
+        <v>45763.50521990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4879,7 +4884,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4916,14 +4921,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11605-2024</t>
+          <t>A 47522-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45373.39921296296</v>
+        <v>45587.63065972222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4935,8 +4940,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4973,14 +4983,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 70708-2021</t>
+          <t>A 58010-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44537</v>
+        <v>44900</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4993,7 +5003,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5030,14 +5040,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30633-2023</t>
+          <t>A 58011-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45112</v>
+        <v>44900</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5050,7 +5060,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5087,14 +5097,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1395-2024</t>
+          <t>A 65143-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45303</v>
+        <v>45288</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5107,7 +5117,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5144,14 +5154,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23330-2024</t>
+          <t>A 38074-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45453.46866898148</v>
+        <v>45160.78711805555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5163,13 +5173,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5206,14 +5211,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36532-2024</t>
+          <t>A 59517-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45537.44701388889</v>
+        <v>45254</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5226,7 +5231,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5263,14 +5268,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9159-2024</t>
+          <t>A 30724-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45358.39443287037</v>
+        <v>45112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5283,7 +5288,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5320,14 +5325,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57036-2024</t>
+          <t>A 4783-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45629.2527662037</v>
+        <v>45328</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5340,7 +5345,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5377,14 +5382,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50302-2023</t>
+          <t>A 48354-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45216</v>
+        <v>45590.56171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5397,7 +5402,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5434,14 +5439,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11021-2022</t>
+          <t>A 30792-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44628.55136574074</v>
+        <v>45112.72848379629</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5454,7 +5459,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5491,14 +5496,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53055-2024</t>
+          <t>A 57443-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45611.46429398148</v>
+        <v>45629.8953587963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5511,7 +5516,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5548,14 +5553,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3080-2024</t>
+          <t>A 23330-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45316</v>
+        <v>45453.46866898148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5567,8 +5572,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5605,14 +5615,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31889-2023</t>
+          <t>A 31617-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45118</v>
+        <v>44369.58694444445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5625,7 +5635,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5662,14 +5672,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29306-2025</t>
+          <t>A 35526-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45824.45997685185</v>
+        <v>45147</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5682,7 +5692,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5719,14 +5729,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15112-2022</t>
+          <t>A 21573-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44658</v>
+        <v>45782.82457175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5739,7 +5749,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5776,14 +5786,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3238-2023</t>
+          <t>A 21575-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44946.84815972222</v>
+        <v>45782.8308912037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5796,7 +5806,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5833,14 +5843,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59472-2023</t>
+          <t>A 21574-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45254</v>
+        <v>45782.82858796296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5863,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5890,14 +5900,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29794-2025</t>
+          <t>A 23906-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45825.66684027778</v>
+        <v>45455.80586805556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5947,14 +5957,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14032-2025</t>
+          <t>A 23907-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45740.35876157408</v>
+        <v>45455.80972222222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5967,7 +5977,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6004,14 +6014,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10918-2025</t>
+          <t>A 21878-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45722.77650462963</v>
+        <v>45784.40392361111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6024,7 +6034,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6061,14 +6071,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9471-2025</t>
+          <t>A 3237-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45715.47013888889</v>
+        <v>44946.84690972222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6081,7 +6091,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6118,14 +6128,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9530-2023</t>
+          <t>A 31724-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44981</v>
+        <v>45117.91390046296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6138,7 +6148,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6175,14 +6185,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39188-2025</t>
+          <t>A 31726-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45888.67532407407</v>
+        <v>45117.92457175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6195,7 +6205,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6232,14 +6242,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22443-2023</t>
+          <t>A 43938-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45070</v>
+        <v>45572.46334490741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6252,7 +6262,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6289,14 +6299,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31804-2025</t>
+          <t>A 35491-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45834.55309027778</v>
+        <v>45855.87664351852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6309,7 +6319,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6346,14 +6356,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54295-2023</t>
+          <t>A 22424-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45232</v>
+        <v>45786.56738425926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6366,7 +6376,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6403,14 +6413,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31594-2025</t>
+          <t>A 61671-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45833.70512731482</v>
+        <v>44917.3327662037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6423,7 +6433,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6460,14 +6470,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32509-2025</t>
+          <t>A 43292-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45838.4722800926</v>
+        <v>45910.61802083333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6480,7 +6490,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6517,14 +6527,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47522-2024</t>
+          <t>A 23311-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45587.63065972222</v>
+        <v>45791.60857638889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,13 +6546,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6579,14 +6584,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32506-2025</t>
+          <t>A 56334-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45838.4687037037</v>
+        <v>45624.80081018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6599,7 +6604,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6636,14 +6641,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 65143-2023</t>
+          <t>A 61318-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45288</v>
+        <v>45264</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6656,7 +6661,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6693,14 +6698,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32320-2025</t>
+          <t>A 45185-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45836.4041087963</v>
+        <v>45919.54019675926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6713,7 +6718,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.7</v>
+        <v>3.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6750,14 +6755,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30745-2023</t>
+          <t>A 42483-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45112</v>
+        <v>45180.82547453704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6770,7 +6775,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6807,14 +6812,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30801-2023</t>
+          <t>A 25698-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45112.78192129629</v>
+        <v>45803.66721064815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6827,7 +6832,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6864,14 +6869,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32862-2025</t>
+          <t>A 25694-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45839.5834837963</v>
+        <v>45803.66457175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6884,7 +6889,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6921,14 +6926,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56331-2024</t>
+          <t>A 47265-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45624.79915509259</v>
+        <v>45586.80979166667</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6941,7 +6946,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6978,14 +6983,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40276-2025</t>
+          <t>A 25089-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45895.35997685185</v>
+        <v>45800.31393518519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,13 +7002,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,14 +7040,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40774-2025</t>
+          <t>A 8570-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45897.42164351852</v>
+        <v>45709.64003472222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7097,14 +7097,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11981-2025</t>
+          <t>A 5072-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45728</v>
+        <v>44958.60896990741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7154,14 +7154,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 30637-2023</t>
+          <t>A 17925-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45112.46177083333</v>
+        <v>44683.57416666667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7211,14 +7211,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51564-2024</t>
+          <t>A 54295-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45604.62042824074</v>
+        <v>45232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7268,14 +7268,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 435-2025</t>
+          <t>A 9086-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45664.37454861111</v>
+        <v>45713.67104166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7325,14 +7325,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28158-2024</t>
+          <t>A 25938-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45476.93028935185</v>
+        <v>44344</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43292-2025</t>
+          <t>A 47980-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45910.61802083333</v>
+        <v>45204</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35491-2025</t>
+          <t>A 9401-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45855.87664351852</v>
+        <v>45359.42094907408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36650-2025</t>
+          <t>A 28073-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45872.58658564815</v>
+        <v>45476.58127314815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 25938-2021</t>
+          <t>A 9527-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44344</v>
+        <v>44981</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31746-2023</t>
+          <t>A 29794-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45117</v>
+        <v>45825.66684027778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 31711-2023</t>
+          <t>A 29306-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45117.82019675926</v>
+        <v>45824.45997685185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31727-2023</t>
+          <t>A 10918-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45117</v>
+        <v>45722.77650462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31728-2023</t>
+          <t>A 9471-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45117</v>
+        <v>45715.47013888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 45185-2025</t>
+          <t>A 14032-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45919.54019675926</v>
+        <v>45740.35876157408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7895,14 +7895,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38108-2025</t>
+          <t>A 3080-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45882.5039699074</v>
+        <v>45316</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7952,14 +7952,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51314-2023</t>
+          <t>A 50981-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45219</v>
+        <v>45218.52822916667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7971,8 +7971,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8009,14 +8014,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 31546-2022</t>
+          <t>A 47279-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44775</v>
+        <v>45930.47650462963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +8034,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8066,14 +8071,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50647-2021</t>
+          <t>A 31594-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44459</v>
+        <v>45833.70512731482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8091,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8123,14 +8128,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47980-2023</t>
+          <t>A 52102-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45204</v>
+        <v>45223</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8148,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8180,14 +8185,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 8570-2025</t>
+          <t>A 47258-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45709.64003472222</v>
+        <v>45930.44646990741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8205,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8237,14 +8242,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47279-2025</t>
+          <t>A 50302-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45930.47650462963</v>
+        <v>45216</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8262,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8294,14 +8299,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 25928-2023</t>
+          <t>A 47723-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45090.67364583333</v>
+        <v>45931.62960648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8319,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8351,14 +8356,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47258-2025</t>
+          <t>A 31804-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45930.44646990741</v>
+        <v>45834.55309027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8376,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8408,14 +8413,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 18337-2023</t>
+          <t>A 48212-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45041</v>
+        <v>45933.49399305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8428,7 +8433,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8465,14 +8470,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47934-2025</t>
+          <t>A 32509-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45932.55678240741</v>
+        <v>45838.4722800926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8485,7 +8490,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8522,14 +8527,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 22541-2023</t>
+          <t>A 47934-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45071</v>
+        <v>45932.55678240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8542,7 +8547,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8579,14 +8584,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47723-2025</t>
+          <t>A 32862-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45931.62960648148</v>
+        <v>45839.5834837963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8599,7 +8604,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8636,14 +8641,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40202-2021</t>
+          <t>A 32320-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44418</v>
+        <v>45836.4041087963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8656,7 +8661,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8693,14 +8698,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48212-2025</t>
+          <t>A 32506-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45933.49399305556</v>
+        <v>45838.4687037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8713,7 +8718,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8750,14 +8755,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 67455-2021</t>
+          <t>A 49460-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44524.38003472222</v>
+        <v>45939.31943287037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8770,7 +8775,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8807,14 +8812,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49277-2025</t>
+          <t>A 59472-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45938.50756944445</v>
+        <v>45254</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8827,7 +8832,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8871,7 +8876,7 @@
         <v>45938.50247685185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,14 +8926,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 30628-2023</t>
+          <t>A 9530-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45112.44275462963</v>
+        <v>44981</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8941,7 +8946,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8978,14 +8983,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30643-2023</t>
+          <t>A 49277-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45112.47034722222</v>
+        <v>45938.50756944445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +9003,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9035,14 +9040,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49460-2025</t>
+          <t>A 11981-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45939.31943287037</v>
+        <v>45728</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9055,7 +9060,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9092,14 +9097,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 18615-2025</t>
+          <t>A 30628-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45763.50521990741</v>
+        <v>45112.44275462963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9112,7 +9117,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9149,14 +9154,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31717-2023</t>
+          <t>A 30643-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45117</v>
+        <v>45112.47034722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9169,7 +9174,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9206,14 +9211,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31719-2023</t>
+          <t>A 22834-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45117.8900462963</v>
+        <v>45448.57018518518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9231,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9263,14 +9268,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 30800-2023</t>
+          <t>A 41910-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45112.77375</v>
+        <v>45561.54084490741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9283,7 +9288,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9320,14 +9325,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 24368-2022</t>
+          <t>A 28158-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44726.43189814815</v>
+        <v>45476.93028935185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9340,7 +9345,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>6.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9377,14 +9382,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30650-2023</t>
+          <t>A 435-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45112.47785879629</v>
+        <v>45664.37454861111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9397,7 +9402,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9434,14 +9439,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52075-2025</t>
+          <t>A 67455-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45952.65550925926</v>
+        <v>44524.38003472222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9454,7 +9459,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9491,14 +9496,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52108-2025</t>
+          <t>A 18305-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45952.6910300926</v>
+        <v>45762.43462962963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9511,7 +9516,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9548,14 +9553,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52077-2025</t>
+          <t>A 58093-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45952.65769675926</v>
+        <v>45248</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9568,7 +9573,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9605,14 +9610,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 51613-2025</t>
+          <t>A 54144-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45951.39907407408</v>
+        <v>44881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9625,7 +9630,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9662,14 +9667,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54289-2022</t>
+          <t>A 36650-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44882</v>
+        <v>45872.58658564815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9682,7 +9687,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9719,14 +9724,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52370-2025</t>
+          <t>A 50057-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45953.88924768518</v>
+        <v>45215</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9739,7 +9744,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9776,14 +9781,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52511-2025</t>
+          <t>A 46511-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45954.50719907408</v>
+        <v>45197</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9796,7 +9801,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9833,14 +9838,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52371-2025</t>
+          <t>A 51613-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45953.89262731482</v>
+        <v>45951.39907407408</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9853,7 +9858,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9890,14 +9895,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52513-2025</t>
+          <t>A 28201-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45954.50944444445</v>
+        <v>44355.6369675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9910,7 +9915,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.3</v>
+        <v>10.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9947,14 +9952,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1922-2024</t>
+          <t>A 38108-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45308.43416666667</v>
+        <v>45882.5039699074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9967,7 +9972,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10004,14 +10009,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 52943-2025</t>
+          <t>A 56452-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45957.64331018519</v>
+        <v>44893.2884375</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10024,7 +10029,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10061,14 +10066,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 52939-2025</t>
+          <t>A 6653-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45957.63912037037</v>
+        <v>44602</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10081,7 +10086,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10118,14 +10123,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 52942-2025</t>
+          <t>A 52075-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45957.64267361111</v>
+        <v>45952.65550925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10175,14 +10180,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 5072-2023</t>
+          <t>A 52108-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44958.60896990741</v>
+        <v>45952.6910300926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10195,7 +10200,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10232,14 +10237,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 65118-2023</t>
+          <t>A 64207-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45288</v>
+        <v>44510.61469907407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10252,7 +10257,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10289,14 +10294,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56335-2024</t>
+          <t>A 52077-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45624.80724537037</v>
+        <v>45952.65769675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10309,7 +10314,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10346,14 +10351,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 43398-2024</t>
+          <t>A 2006-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45568.61006944445</v>
+        <v>45308</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10366,7 +10371,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10403,14 +10408,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59517-2023</t>
+          <t>A 24368-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45254</v>
+        <v>44726.43189814815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10423,7 +10428,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10460,14 +10465,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 54783-2025</t>
+          <t>A 52513-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45966.61938657407</v>
+        <v>45954.50944444445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10480,7 +10485,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10517,14 +10522,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 59816-2021</t>
+          <t>A 52371-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44494</v>
+        <v>45953.89262731482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10537,7 +10542,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10574,14 +10579,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12124-2024</t>
+          <t>A 52511-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45377</v>
+        <v>45954.50719907408</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10593,13 +10598,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10636,14 +10636,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6745-2023</t>
+          <t>A 52939-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44966</v>
+        <v>45957.63912037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10693,14 +10693,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56305-2025</t>
+          <t>A 27103-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45974.61175925926</v>
+        <v>45471.4950462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10750,14 +10750,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 1921-2024</t>
+          <t>A 52943-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45308.43202546296</v>
+        <v>45957.64331018519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10807,14 +10807,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 42250-2023</t>
+          <t>A 31546-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45180.36814814815</v>
+        <v>44775</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10864,14 +10864,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56312-2025</t>
+          <t>A 52942-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45974.62810185185</v>
+        <v>45957.64267361111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10921,14 +10921,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 11239-2023</t>
+          <t>A 55159-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44992</v>
+        <v>45621.50773148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10978,14 +10978,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 64005-2025</t>
+          <t>A 52370-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46021.41178240741</v>
+        <v>45953.88924768518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11035,14 +11035,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 64003-2025</t>
+          <t>A 38586-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46021.40840277778</v>
+        <v>45162.63375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11092,14 +11092,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 58139-2025</t>
+          <t>A 9159-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45982.62479166667</v>
+        <v>45358.39443287037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11149,14 +11149,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58137-2025</t>
+          <t>A 31746-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45982.62140046297</v>
+        <v>45117</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11206,14 +11206,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 18613-2025</t>
+          <t>A 63725-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45763.49810185185</v>
+        <v>45276</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11263,14 +11263,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 18614-2025</t>
+          <t>A 59613-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45763.50244212963</v>
+        <v>45254.64126157408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11320,14 +11320,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 36131-2024</t>
+          <t>A 54783-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45534.33863425926</v>
+        <v>45966.61938657407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11377,14 +11377,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 31712-2023</t>
+          <t>A 12124-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45117.8322337963</v>
+        <v>45377</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11396,8 +11396,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11434,14 +11439,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 31715-2023</t>
+          <t>A 62986-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45117.84797453704</v>
+        <v>45272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11454,7 +11459,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>12.4</v>
+        <v>7.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11491,14 +11496,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 31745-2023</t>
+          <t>A 59816-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45117</v>
+        <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11511,7 +11516,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11548,14 +11553,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47264-2024</t>
+          <t>A 56312-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45586.8034837963</v>
+        <v>45974.62810185185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11568,7 +11573,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11605,14 +11610,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47265-2024</t>
+          <t>A 56305-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45586.80979166667</v>
+        <v>45974.61175925926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11625,7 +11630,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11662,14 +11667,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 48354-2024</t>
+          <t>A 30650-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45590.56171296296</v>
+        <v>45112.47785879629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11682,7 +11687,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11719,14 +11724,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 42483-2023</t>
+          <t>A 30637-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45180.82547453704</v>
+        <v>45112.46177083333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11739,7 +11744,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11776,14 +11781,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59493-2025</t>
+          <t>A 58137-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45989.60912037037</v>
+        <v>45982.62140046297</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11796,7 +11801,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11833,14 +11838,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 6653-2022</t>
+          <t>A 65118-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44602</v>
+        <v>45288</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11853,7 +11858,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11890,14 +11895,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 59871-2025</t>
+          <t>A 58139-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45992.92416666666</v>
+        <v>45982.62479166667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11910,7 +11915,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11947,14 +11952,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60091-2025</t>
+          <t>A 18613-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45993.72268518519</v>
+        <v>45763.49810185185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11967,7 +11972,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12004,14 +12009,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 60092-2025</t>
+          <t>A 18614-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45993.72543981481</v>
+        <v>45763.50244212963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12024,7 +12029,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12061,14 +12066,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 16534-2024</t>
+          <t>A 54289-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45408.43065972222</v>
+        <v>44882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12081,7 +12086,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12118,14 +12123,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 60089-2025</t>
+          <t>A 59493-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45993.72018518519</v>
+        <v>45989.60912037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12138,7 +12143,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12175,14 +12180,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 60093-2025</t>
+          <t>A 32208-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45993.72949074074</v>
+        <v>45119</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12195,7 +12200,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12232,14 +12237,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59872-2025</t>
+          <t>A 60089-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45992.93340277778</v>
+        <v>45993.72018518519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12252,7 +12257,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12289,14 +12294,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60181-2025</t>
+          <t>A 60093-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45994.46494212963</v>
+        <v>45993.72949074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12309,7 +12314,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12346,14 +12351,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 60376-2025</t>
+          <t>A 42250-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45995.36325231481</v>
+        <v>45180.36814814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12366,7 +12371,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12403,14 +12408,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 60380-2025</t>
+          <t>A 42256-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45995.36851851852</v>
+        <v>45180</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12423,7 +12428,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12460,14 +12465,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2497-2026</t>
+          <t>A 60091-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46037.40177083333</v>
+        <v>45993.72268518519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12480,7 +12485,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12517,14 +12522,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60946-2025</t>
+          <t>A 60092-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45999.64741898148</v>
+        <v>45993.72543981481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12537,7 +12542,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12574,14 +12579,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 31724-2023</t>
+          <t>A 59871-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45117.91390046296</v>
+        <v>45992.92416666666</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12594,7 +12599,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12631,14 +12636,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 31726-2023</t>
+          <t>A 1921-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45117.92457175926</v>
+        <v>45308.43202546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12651,7 +12656,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12688,14 +12693,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 17925-2022</t>
+          <t>A 59872-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44683.57416666667</v>
+        <v>45992.93340277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12708,7 +12713,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12745,14 +12750,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21751-2022</t>
+          <t>A 60380-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44708.43361111111</v>
+        <v>45995.36851851852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12765,7 +12770,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12802,14 +12807,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 30792-2023</t>
+          <t>A 27498-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45112.72848379629</v>
+        <v>44351</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12859,14 +12864,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 7046-2025</t>
+          <t>A 2497-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45701.6434375</v>
+        <v>46037.40177083333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12879,7 +12884,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12916,14 +12921,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 42256-2023</t>
+          <t>A 60181-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45180</v>
+        <v>45994.46494212963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12936,7 +12941,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12973,14 +12978,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 41910-2024</t>
+          <t>A 11795-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45561.54084490741</v>
+        <v>44994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12993,7 +12998,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13030,14 +13035,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 62986-2023</t>
+          <t>A 60376-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45272</v>
+        <v>45995.36325231481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13050,7 +13055,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13087,14 +13092,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 4119-2026</t>
+          <t>A 60946-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46044.6099537037</v>
+        <v>45999.64741898148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13106,13 +13111,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13149,14 +13149,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 4588-2026</t>
+          <t>A 31711-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46048.34140046296</v>
+        <v>45117.82019675926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13206,14 +13206,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 4587-2026</t>
+          <t>A 31727-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46048.33873842593</v>
+        <v>45117</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13263,14 +13263,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 28201-2021</t>
+          <t>A 31728-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44355.6369675926</v>
+        <v>45117</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>10.5</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13320,14 +13320,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 15969-2025</t>
+          <t>A 11605-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45749.54825231482</v>
+        <v>45373.39921296296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13377,14 +13377,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 59613-2023</t>
+          <t>A 53055-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45254.64126157408</v>
+        <v>45611.46429398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13434,14 +13434,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 6071-2026</t>
+          <t>A 30745-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46052.66287037037</v>
+        <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13491,14 +13491,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6074-2026</t>
+          <t>A 4119-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46052.66378472222</v>
+        <v>46044.6099537037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13510,8 +13510,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13548,14 +13553,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61318-2023</t>
+          <t>A 29658-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45264</v>
+        <v>44754.67859953704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13568,7 +13573,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13605,14 +13610,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 6103-2026</t>
+          <t>A 4587-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46052.9485300926</v>
+        <v>46048.33873842593</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13625,7 +13630,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13662,14 +13667,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 10610-2025</t>
+          <t>A 4588-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45721.59978009259</v>
+        <v>46048.34140046296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13682,7 +13687,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13719,14 +13724,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 6064-2025</t>
+          <t>A 57036-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45696.28527777778</v>
+        <v>45629.2527662037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13739,7 +13744,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13776,14 +13781,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 7339-2025</t>
+          <t>A 16534-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45703.51598379629</v>
+        <v>45408.43065972222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13796,7 +13801,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13833,14 +13838,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 6104-2026</t>
+          <t>A 6074-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46052.94945601852</v>
+        <v>46052.66378472222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13890,14 +13895,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 55159-2024</t>
+          <t>A 36131-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45621.50773148148</v>
+        <v>45534.33863425926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13910,7 +13915,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13947,14 +13952,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7546-2026</t>
+          <t>A 54287-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46059.67181712963</v>
+        <v>44882.37096064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13967,7 +13972,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14004,14 +14009,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 48513-2021</t>
+          <t>A 50011-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44449</v>
+        <v>45215</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14024,7 +14029,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14061,14 +14066,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 54144-2022</t>
+          <t>A 15112-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44881</v>
+        <v>44658</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14081,7 +14086,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14118,14 +14123,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2006-2024</t>
+          <t>A 6103-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45308</v>
+        <v>46052.9485300926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14138,7 +14143,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14175,14 +14180,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 61671-2022</t>
+          <t>A 6104-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44917.3327662037</v>
+        <v>46052.94945601852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14195,7 +14200,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14232,14 +14237,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 51229-2022</t>
+          <t>A 6071-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44868</v>
+        <v>46052.66287037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14252,7 +14257,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14289,14 +14294,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61334-2022</t>
+          <t>A 7339-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44915</v>
+        <v>45703.51598379629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14309,7 +14314,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14346,14 +14351,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 30793-2023</t>
+          <t>A 1922-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45112.74090277778</v>
+        <v>45308.43416666667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14366,7 +14371,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14403,14 +14408,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 30795-2023</t>
+          <t>A 10610-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45112.75636574074</v>
+        <v>45721.59978009259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14423,7 +14428,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14460,14 +14465,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 30724-2023</t>
+          <t>A 6064-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45112</v>
+        <v>45696.28527777778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14480,7 +14485,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14517,14 +14522,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 54311-2022</t>
+          <t>A 61334-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44882.41185185185</v>
+        <v>44915</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14537,7 +14542,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14574,14 +14579,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 58010-2022</t>
+          <t>A 51564-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44900</v>
+        <v>45604.62042824074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14594,7 +14599,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14631,14 +14636,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 58011-2022</t>
+          <t>A 35491-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44900</v>
+        <v>45146</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14651,7 +14656,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14684,18 +14689,38 @@
         <v>0</v>
       </c>
       <c r="R237" s="2" t="inlineStr"/>
+      <c r="U237">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="V237">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="W237">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="X237">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="Y237">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 56334-2024</t>
+          <t>A 7546-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45624.80081018519</v>
+        <v>46059.67181712963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14708,7 +14733,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14745,14 +14770,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 61026-2022</t>
+          <t>A 7046-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44914.8635300926</v>
+        <v>45701.6434375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14765,7 +14790,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14802,14 +14827,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 63725-2023</t>
+          <t>A 30760-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45276</v>
+        <v>45112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14822,7 +14847,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14859,14 +14884,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 9527-2023</t>
+          <t>A 30762-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44981</v>
+        <v>45112</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14879,7 +14904,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14916,14 +14941,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 30760-2023</t>
+          <t>A 64003-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45112</v>
+        <v>46021.40840277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14936,7 +14961,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14973,14 +14998,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 30762-2023</t>
+          <t>A 64005-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45112</v>
+        <v>46021.41178240741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14993,7 +15018,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15030,14 +15055,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 38586-2023</t>
+          <t>A 56331-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45162.63375</v>
+        <v>45624.79915509259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15050,7 +15075,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15087,14 +15112,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 30772-2023</t>
+          <t>A 51314-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45112</v>
+        <v>45219</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15107,7 +15132,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15144,14 +15169,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11795-2023</t>
+          <t>A 3238-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44994</v>
+        <v>44946.84815972222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15164,7 +15189,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15201,14 +15226,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 35491-2023</t>
+          <t>A 12160-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45146</v>
+        <v>45377.80496527778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15221,7 +15246,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15254,38 +15279,18 @@
         <v>0</v>
       </c>
       <c r="R247" s="2" t="inlineStr"/>
-      <c r="U247">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="V247">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="W247">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="X247">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="Y247">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 18305-2025</t>
+          <t>A 40202-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45762.43462962963</v>
+        <v>44418</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15298,7 +15303,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15335,14 +15340,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 52100-2023</t>
+          <t>A 54659-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45223</v>
+        <v>44883</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15355,7 +15360,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15392,14 +15397,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 2398-2024</t>
+          <t>A 31718-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45310</v>
+        <v>45117.88568287037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15412,7 +15417,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15449,14 +15454,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 38074-2023</t>
+          <t>A 36532-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45160.78711805555</v>
+        <v>45537.44701388889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15469,7 +15474,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15506,14 +15511,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 50981-2023</t>
+          <t>A 43398-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45218.52822916667</v>
+        <v>45568.61006944445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15525,13 +15530,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15568,14 +15568,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 56452-2022</t>
+          <t>A 54311-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44893.2884375</v>
+        <v>44882.41185185185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15625,14 +15625,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 58093-2023</t>
+          <t>A 22443-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45248</v>
+        <v>45070</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15682,14 +15682,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 64207-2021</t>
+          <t>A 60792-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44510.61469907407</v>
+        <v>44914.42209490741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15739,14 +15739,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 27103-2024</t>
+          <t>A 15969-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45471.4950462963</v>
+        <v>45749.54825231482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15796,14 +15796,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 57443-2024</t>
+          <t>A 61026-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45629.8953587963</v>
+        <v>44914.8635300926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15853,14 +15853,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 21573-2025</t>
+          <t>A 47264-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45782.82457175926</v>
+        <v>45586.8034837963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15910,14 +15910,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 21575-2025</t>
+          <t>A 22541-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45782.8308912037</v>
+        <v>45071</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15967,14 +15967,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 21878-2025</t>
+          <t>A 21751-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45784.40392361111</v>
+        <v>44708.43361111111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16024,14 +16024,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 23906-2024</t>
+          <t>A 1395-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45455.80586805556</v>
+        <v>45303</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16081,14 +16081,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 21574-2025</t>
+          <t>A 2398-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45782.82858796296</v>
+        <v>45310</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16138,14 +16138,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 23907-2024</t>
+          <t>A 30793-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45455.80972222222</v>
+        <v>45112.74090277778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16195,14 +16195,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 22424-2025</t>
+          <t>A 30795-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45786.56738425926</v>
+        <v>45112.75636574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16252,14 +16252,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 43938-2024</t>
+          <t>A 30800-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45572.46334490741</v>
+        <v>45112.77375</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16309,14 +16309,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23311-2025</t>
+          <t>A 52100-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45791.60857638889</v>
+        <v>45223</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16366,14 +16366,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 25089-2025</t>
+          <t>A 28040-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45800.31393518519</v>
+        <v>45476.50533564815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16423,14 +16423,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 25694-2025</t>
+          <t>A 48513-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45803.66457175926</v>
+        <v>44449</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16480,14 +16480,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 25698-2025</t>
+          <t>A 18337-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45803.66721064815</v>
+        <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16537,14 +16537,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 9086-2025</t>
+          <t>A 11021-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45713.67104166667</v>
+        <v>44628.55136574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16594,14 +16594,14 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 28073-2024</t>
+          <t>A 11239-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45476.58127314815</v>
+        <v>44992</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>7.4</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31843-2021</t>
+          <t>A 30777-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44370</v>
+        <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -907,136 +907,136 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Vågbandad barkbock
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31843-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44370</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 30777-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Vågbandad barkbock
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 30754-2023</t>
+          <t>A 31714-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45112</v>
+        <v>45117.83711805556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,17 +1049,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1083,915 +1083,919 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 30653-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 30662-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 9930-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45363.57760416667</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 30754-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Havstulpanlav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 30785-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>3.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 30666-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>1.1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 30671-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>4.9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 47239-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45930.42038194444</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H11" t="n">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 32503-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45838.46440972222</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 30655-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45112.49369212963</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Trädporella</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 32859-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45839.58148148148</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 32859-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45839.58148148148</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 32503-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45838.46440972222</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 30653-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Tjäder</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 61244-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45645.68797453704</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Grönhjon</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 9930-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45363.57760416667</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 30662-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 31714-2023</t>
+          <t>A 31742-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45117.83711805556</v>
+        <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2008,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2042,31 +2046,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
         <v/>
       </c>
     </row>
@@ -2080,7 +2084,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2162,14 +2166,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 31742-2023</t>
+          <t>A 61244-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45117</v>
+        <v>45645.68797453704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2182,10 +2186,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2216,49 +2220,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönhjon</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 30655-2023</t>
+          <t>A 47239-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45112.49369212963</v>
+        <v>45930.42038194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2305,31 +2305,31 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Trädporella</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
         <v/>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,14 +2797,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30179-2021</t>
+          <t>A 35089-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44363</v>
+        <v>44383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2816,13 +2816,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2859,14 +2854,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 61943-2021</t>
+          <t>A 32014-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44502.41795138889</v>
+        <v>44370.63486111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2879,7 +2874,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2916,14 +2911,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35089-2021</t>
+          <t>A 30179-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44383</v>
+        <v>44363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,8 +2930,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,14 +3030,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22114-2021</t>
+          <t>A 3360-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44323.72275462963</v>
+        <v>44585</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3087,14 +3087,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 68882-2021</t>
+          <t>A 30177-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44530.44055555556</v>
+        <v>44363</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,8 +3106,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3144,14 +3149,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17990-2022</t>
+          <t>A 61943-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44683</v>
+        <v>44502.41795138889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3164,7 +3169,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3201,14 +3206,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30177-2021</t>
+          <t>A 22114-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44363</v>
+        <v>44323.72275462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,13 +3225,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32014-2021</t>
+          <t>A 22724-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44370.63486111111</v>
+        <v>44327</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3320,14 +3320,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3360-2022</t>
+          <t>A 32017-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44585</v>
+        <v>44370.63815972222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22724-2021</t>
+          <t>A 54287-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44327</v>
+        <v>44882.37096064815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32017-2021</t>
+          <t>A 48285-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44370.63815972222</v>
+        <v>44449.77408564815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3548,14 +3548,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 48285-2021</t>
+          <t>A 18615-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44449.77408564815</v>
+        <v>45763.50521990741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39556-2022</t>
+          <t>A 30769-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44818.56305555555</v>
+        <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40276-2025</t>
+          <t>A 54659-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45895.35997685185</v>
+        <v>44883</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3681,13 +3681,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3724,14 +3719,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30633-2023</t>
+          <t>A 30794-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45112</v>
+        <v>45112.75039351852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3781,14 +3776,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 31889-2023</t>
+          <t>A 31718-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45118</v>
+        <v>45117.88568287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3801,7 +3796,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3838,14 +3833,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30772-2023</t>
+          <t>A 31717-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45112</v>
+        <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3858,7 +3853,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3895,14 +3890,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 4782-2024</t>
+          <t>A 31719-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45328</v>
+        <v>45117.8900462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3915,7 +3910,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3952,14 +3947,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31717-2023</t>
+          <t>A 35526-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45117</v>
+        <v>45147</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3972,7 +3967,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4009,14 +4004,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31719-2023</t>
+          <t>A 28040-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45117.8900462963</v>
+        <v>45476.50533564815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4029,7 +4024,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4066,14 +4061,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40774-2025</t>
+          <t>A 30800-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45897.42164351852</v>
+        <v>45112.77375</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4086,7 +4081,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4123,14 +4118,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 25928-2023</t>
+          <t>A 22834-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45090.67364583333</v>
+        <v>45448.57018518518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4143,7 +4138,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4180,14 +4175,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30769-2023</t>
+          <t>A 39556-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45112</v>
+        <v>44818.56305555555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4200,7 +4195,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4237,14 +4232,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30794-2023</t>
+          <t>A 4782-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45112.75039351852</v>
+        <v>45328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4257,7 +4252,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4294,14 +4289,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51229-2022</t>
+          <t>A 4783-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44868</v>
+        <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4314,7 +4309,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4351,14 +4346,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31745-2023</t>
+          <t>A 24368-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45117</v>
+        <v>44726.43189814815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4371,7 +4366,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4408,14 +4403,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50647-2021</t>
+          <t>A 50011-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44459</v>
+        <v>45215</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4428,7 +4423,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>7.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4465,14 +4460,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56335-2024</t>
+          <t>A 30650-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45624.80724537037</v>
+        <v>45112.47785879629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4485,7 +4480,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4522,14 +4517,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30801-2023</t>
+          <t>A 46511-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45112.78192129629</v>
+        <v>45197</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4542,7 +4537,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4579,14 +4574,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6745-2023</t>
+          <t>A 3237-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44966</v>
+        <v>44946.84690972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4599,7 +4594,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4636,14 +4631,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 70708-2021</t>
+          <t>A 12160-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44537</v>
+        <v>45377.80496527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4656,7 +4651,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4693,14 +4688,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31712-2023</t>
+          <t>A 32208-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45117.8322337963</v>
+        <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4713,7 +4708,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4750,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31715-2023</t>
+          <t>A 68882-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45117.84797453704</v>
+        <v>44530.44055555556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4770,7 +4765,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>12.4</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4807,14 +4802,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39188-2025</t>
+          <t>A 54289-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45888.67532407407</v>
+        <v>44882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4827,7 +4822,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4864,14 +4859,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18615-2025</t>
+          <t>A 11605-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45763.50521990741</v>
+        <v>45373.39921296296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4884,7 +4879,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4921,14 +4916,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47522-2024</t>
+          <t>A 70708-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45587.63065972222</v>
+        <v>44537</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4940,13 +4935,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4983,14 +4973,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58010-2022</t>
+          <t>A 50057-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44900</v>
+        <v>45215</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5003,7 +4993,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5040,14 +5030,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58011-2022</t>
+          <t>A 29658-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44900</v>
+        <v>44754.67859953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5060,7 +5050,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5097,14 +5087,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 65143-2023</t>
+          <t>A 1922-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45288</v>
+        <v>45308.43416666667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5117,7 +5107,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5154,14 +5144,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38074-2023</t>
+          <t>A 1395-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45160.78711805555</v>
+        <v>45303</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5174,7 +5164,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5211,14 +5201,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59517-2023</t>
+          <t>A 27498-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45254</v>
+        <v>44351</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5231,7 +5221,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5268,14 +5258,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30724-2023</t>
+          <t>A 3080-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45112</v>
+        <v>45316</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5288,7 +5278,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5325,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4783-2024</t>
+          <t>A 5072-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45328</v>
+        <v>44958.60896990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5345,7 +5335,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5382,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48354-2024</t>
+          <t>A 30633-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45590.56171296296</v>
+        <v>45112</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5402,7 +5392,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5439,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30792-2023</t>
+          <t>A 23330-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45112.72848379629</v>
+        <v>45453.46866898148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5458,8 +5448,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5496,14 +5491,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57443-2024</t>
+          <t>A 65118-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45629.8953587963</v>
+        <v>45288</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5516,7 +5511,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5553,14 +5548,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23330-2024</t>
+          <t>A 56335-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45453.46866898148</v>
+        <v>45624.80724537037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5572,13 +5567,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5615,14 +5605,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31617-2021</t>
+          <t>A 57036-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44369.58694444445</v>
+        <v>45629.2527662037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5635,7 +5625,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5672,14 +5662,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35526-2023</t>
+          <t>A 43398-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45147</v>
+        <v>45568.61006944445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5692,7 +5682,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5729,14 +5719,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 21573-2025</t>
+          <t>A 36532-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45782.82457175926</v>
+        <v>45537.44701388889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5749,7 +5739,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5786,14 +5776,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21575-2025</t>
+          <t>A 59517-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45782.8308912037</v>
+        <v>45254</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5806,7 +5796,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5843,14 +5833,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 21574-2025</t>
+          <t>A 9159-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45782.82858796296</v>
+        <v>45358.39443287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5863,7 +5853,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5900,14 +5890,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23906-2024</t>
+          <t>A 17990-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45455.80586805556</v>
+        <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5920,7 +5910,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5957,14 +5947,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23907-2024</t>
+          <t>A 11021-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45455.80972222222</v>
+        <v>44628.55136574074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5967,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6014,14 +6004,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 21878-2025</t>
+          <t>A 31617-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45784.40392361111</v>
+        <v>44369.58694444445</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6024,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6071,14 +6061,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3237-2023</t>
+          <t>A 52102-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44946.84690972222</v>
+        <v>45223</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6081,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6128,14 +6118,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31724-2023</t>
+          <t>A 50302-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45117.91390046296</v>
+        <v>45216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6138,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6185,14 +6175,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31726-2023</t>
+          <t>A 59816-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45117.92457175926</v>
+        <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6195,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6242,14 +6232,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43938-2024</t>
+          <t>A 53055-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45572.46334490741</v>
+        <v>45611.46429398148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6252,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6299,14 +6289,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35491-2025</t>
+          <t>A 6745-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45855.87664351852</v>
+        <v>44966</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6319,7 +6309,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6356,14 +6346,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 22424-2025</t>
+          <t>A 60792-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45786.56738425926</v>
+        <v>44914.42209490741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6376,7 +6366,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6413,14 +6403,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61671-2022</t>
+          <t>A 9401-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44917.3327662037</v>
+        <v>45359.42094907408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6433,7 +6423,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6470,14 +6460,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43292-2025</t>
+          <t>A 31889-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45910.61802083333</v>
+        <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6490,7 +6480,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6527,14 +6517,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 23311-2025</t>
+          <t>A 25698-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45791.60857638889</v>
+        <v>45803.66721064815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6547,7 +6537,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6584,14 +6574,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56334-2024</t>
+          <t>A 1921-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45624.80081018519</v>
+        <v>45308.43202546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6604,7 +6594,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6641,14 +6631,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61318-2023</t>
+          <t>A 42250-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45264</v>
+        <v>45180.36814814815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6661,7 +6651,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6698,14 +6688,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45185-2025</t>
+          <t>A 15112-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45919.54019675926</v>
+        <v>44658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6718,7 +6708,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6755,14 +6745,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42483-2023</t>
+          <t>A 3238-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45180.82547453704</v>
+        <v>44946.84815972222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6775,7 +6765,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6812,14 +6802,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25698-2025</t>
+          <t>A 59472-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45803.66721064815</v>
+        <v>45254</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6832,7 +6822,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6869,14 +6859,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25694-2025</t>
+          <t>A 9086-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45803.66457175926</v>
+        <v>45713.67104166667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6889,7 +6879,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6926,14 +6916,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 47265-2024</t>
+          <t>A 9530-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45586.80979166667</v>
+        <v>44981</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6946,7 +6936,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6983,14 +6973,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25089-2025</t>
+          <t>A 11239-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45800.31393518519</v>
+        <v>44992</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7003,7 +6993,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,14 +7030,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8570-2025</t>
+          <t>A 22443-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45709.64003472222</v>
+        <v>45070</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7060,7 +7050,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7097,14 +7087,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 5072-2023</t>
+          <t>A 54295-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44958.60896990741</v>
+        <v>45232</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7117,7 +7107,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7154,14 +7144,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 17925-2022</t>
+          <t>A 54144-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44683.57416666667</v>
+        <v>44881</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7174,7 +7164,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7211,14 +7201,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 54295-2023</t>
+          <t>A 18613-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45232</v>
+        <v>45763.49810185185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7221,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7268,14 +7258,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9086-2025</t>
+          <t>A 28073-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45713.67104166667</v>
+        <v>45476.58127314815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7288,7 +7278,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7325,14 +7315,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25938-2021</t>
+          <t>A 18614-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44344</v>
+        <v>45763.50244212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7335,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7382,14 +7372,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47980-2023</t>
+          <t>A 36131-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45204</v>
+        <v>45534.33863425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7392,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7439,14 +7429,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9401-2024</t>
+          <t>A 31712-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45359.42094907408</v>
+        <v>45117.8322337963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7449,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7486,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28073-2024</t>
+          <t>A 31715-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45476.58127314815</v>
+        <v>45117.84797453704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7506,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.4</v>
+        <v>12.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7543,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9527-2023</t>
+          <t>A 31745-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44981</v>
+        <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7563,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7600,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 29794-2025</t>
+          <t>A 30745-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45825.66684027778</v>
+        <v>45112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7620,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7667,14 +7657,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 29306-2025</t>
+          <t>A 30801-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45824.45997685185</v>
+        <v>45112.78192129629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7677,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7724,14 +7714,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10918-2025</t>
+          <t>A 56331-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45722.77650462963</v>
+        <v>45624.79915509259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7734,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7781,14 +7771,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9471-2025</t>
+          <t>A 29306-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45715.47013888889</v>
+        <v>45824.45997685185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7791,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7838,14 +7828,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 14032-2025</t>
+          <t>A 47264-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45740.35876157408</v>
+        <v>45586.8034837963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7858,7 +7848,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7895,14 +7885,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3080-2024</t>
+          <t>A 29794-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45316</v>
+        <v>45825.66684027778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7905,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7952,14 +7942,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50981-2023</t>
+          <t>A 47265-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45218.52822916667</v>
+        <v>45586.80979166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7971,13 +7961,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8014,14 +7999,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47279-2025</t>
+          <t>A 14032-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45930.47650462963</v>
+        <v>45740.35876157408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8034,7 +8019,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8071,14 +8056,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31594-2025</t>
+          <t>A 48354-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45833.70512731482</v>
+        <v>45590.56171296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8091,7 +8076,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8128,14 +8113,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 52102-2023</t>
+          <t>A 10918-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45223</v>
+        <v>45722.77650462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8148,7 +8133,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8185,14 +8170,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47258-2025</t>
+          <t>A 9471-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45930.44646990741</v>
+        <v>45715.47013888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8205,7 +8190,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8242,14 +8227,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50302-2023</t>
+          <t>A 42483-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45216</v>
+        <v>45180.82547453704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8262,7 +8247,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8299,14 +8284,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47723-2025</t>
+          <t>A 6653-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45931.62960648148</v>
+        <v>44602</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8319,7 +8304,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8356,14 +8341,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31804-2025</t>
+          <t>A 2006-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45834.55309027778</v>
+        <v>45308</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,14 +8398,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48212-2025</t>
+          <t>A 61671-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45933.49399305556</v>
+        <v>44917.3327662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8433,7 +8418,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8470,14 +8455,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32509-2025</t>
+          <t>A 31804-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45838.4722800926</v>
+        <v>45834.55309027778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8490,7 +8475,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8527,14 +8512,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47934-2025</t>
+          <t>A 31594-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45932.55678240741</v>
+        <v>45833.70512731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8547,7 +8532,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8584,14 +8569,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32862-2025</t>
+          <t>A 32509-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45839.5834837963</v>
+        <v>45838.4722800926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8604,7 +8589,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8641,14 +8626,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32320-2025</t>
+          <t>A 16534-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45836.4041087963</v>
+        <v>45408.43065972222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8661,7 +8646,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>11.7</v>
+        <v>4.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8705,7 +8690,7 @@
         <v>45838.4687037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,14 +8740,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49460-2025</t>
+          <t>A 30637-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45939.31943287037</v>
+        <v>45112.46177083333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8775,7 +8760,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8812,14 +8797,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 59472-2023</t>
+          <t>A 51229-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45254</v>
+        <v>44868</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8832,7 +8817,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8869,14 +8854,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49269-2025</t>
+          <t>A 32320-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45938.50247685185</v>
+        <v>45836.4041087963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8889,7 +8874,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.4</v>
+        <v>11.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8926,14 +8911,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 9530-2023</t>
+          <t>A 32862-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44981</v>
+        <v>45839.5834837963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8946,7 +8931,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8983,14 +8968,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 49277-2025</t>
+          <t>A 51564-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45938.50756944445</v>
+        <v>45604.62042824074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9003,7 +8988,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9040,14 +9025,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 11981-2025</t>
+          <t>A 61334-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45728</v>
+        <v>44915</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9045,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9097,14 +9082,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30628-2023</t>
+          <t>A 30793-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45112.44275462963</v>
+        <v>45112.74090277778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9117,7 +9102,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9154,14 +9139,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30643-2023</t>
+          <t>A 30795-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45112.47034722222</v>
+        <v>45112.75636574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9174,7 +9159,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9211,14 +9196,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 22834-2024</t>
+          <t>A 30724-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45448.57018518518</v>
+        <v>45112</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9231,7 +9216,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9268,14 +9253,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 41910-2024</t>
+          <t>A 31724-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45561.54084490741</v>
+        <v>45117.91390046296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9273,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9325,14 +9310,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 28158-2024</t>
+          <t>A 31726-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45476.93028935185</v>
+        <v>45117.92457175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9330,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9382,14 +9367,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 435-2025</t>
+          <t>A 17925-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45664.37454861111</v>
+        <v>44683.57416666667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9402,7 +9387,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9439,14 +9424,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 67455-2021</t>
+          <t>A 21751-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44524.38003472222</v>
+        <v>44708.43361111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9459,7 +9444,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9496,14 +9481,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18305-2025</t>
+          <t>A 30792-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45762.43462962963</v>
+        <v>45112.72848379629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9516,7 +9501,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9553,14 +9538,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58093-2023</t>
+          <t>A 54311-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45248</v>
+        <v>44882.41185185185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9573,7 +9558,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9610,14 +9595,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54144-2022</t>
+          <t>A 7046-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44881</v>
+        <v>45701.6434375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9630,7 +9615,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9667,14 +9652,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 36650-2025</t>
+          <t>A 58010-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45872.58658564815</v>
+        <v>44900</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9687,7 +9672,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9724,14 +9709,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 50057-2023</t>
+          <t>A 58011-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45215</v>
+        <v>44900</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9744,7 +9729,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9781,14 +9766,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46511-2023</t>
+          <t>A 42256-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45197</v>
+        <v>45180</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9801,7 +9786,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9838,14 +9823,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 51613-2025</t>
+          <t>A 41910-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45951.39907407408</v>
+        <v>45561.54084490741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9858,7 +9843,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9895,14 +9880,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 28201-2021</t>
+          <t>A 56334-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44355.6369675926</v>
+        <v>45624.80081018519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9915,7 +9900,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>10.5</v>
+        <v>0.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9952,14 +9937,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38108-2025</t>
+          <t>A 62986-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45882.5039699074</v>
+        <v>45272</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9972,7 +9957,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.6</v>
+        <v>7.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10009,14 +9994,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56452-2022</t>
+          <t>A 61026-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44893.2884375</v>
+        <v>44914.8635300926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10029,7 +10014,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10066,14 +10051,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 6653-2022</t>
+          <t>A 11981-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44602</v>
+        <v>45728</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10086,7 +10071,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10123,14 +10108,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 52075-2025</t>
+          <t>A 25938-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45952.65550925926</v>
+        <v>44344</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10143,7 +10128,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10180,14 +10165,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 52108-2025</t>
+          <t>A 31746-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45952.6910300926</v>
+        <v>45117</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10200,7 +10185,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10237,14 +10222,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 64207-2021</t>
+          <t>A 31711-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44510.61469907407</v>
+        <v>45117.82019675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10257,7 +10242,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10294,14 +10279,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 52077-2025</t>
+          <t>A 31727-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45952.65769675926</v>
+        <v>45117</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10314,7 +10299,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10351,14 +10336,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2006-2024</t>
+          <t>A 31728-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45308</v>
+        <v>45117</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10371,7 +10356,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10408,14 +10393,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 24368-2022</t>
+          <t>A 63725-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44726.43189814815</v>
+        <v>45276</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10428,7 +10413,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10465,14 +10450,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52513-2025</t>
+          <t>A 435-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45954.50944444445</v>
+        <v>45664.37454861111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10485,7 +10470,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10522,14 +10507,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 52371-2025</t>
+          <t>A 28158-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45953.89262731482</v>
+        <v>45476.93028935185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10542,7 +10527,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10579,14 +10564,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 52511-2025</t>
+          <t>A 28201-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45954.50719907408</v>
+        <v>44355.6369675926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10599,7 +10584,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10636,14 +10621,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 52939-2025</t>
+          <t>A 51314-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45957.63912037037</v>
+        <v>45219</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10656,7 +10641,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10693,14 +10678,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 27103-2024</t>
+          <t>A 50647-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45471.4950462963</v>
+        <v>44459</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10713,7 +10698,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10750,14 +10735,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 52943-2025</t>
+          <t>A 15969-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45957.64331018519</v>
+        <v>45749.54825231482</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10770,7 +10755,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10807,14 +10792,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 31546-2022</t>
+          <t>A 36650-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44775</v>
+        <v>45872.58658564815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10827,7 +10812,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10864,14 +10849,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 52942-2025</t>
+          <t>A 47980-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45957.64267361111</v>
+        <v>45204</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10884,7 +10869,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10921,14 +10906,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55159-2024</t>
+          <t>A 9527-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45621.50773148148</v>
+        <v>44981</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10941,7 +10926,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10978,14 +10963,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52370-2025</t>
+          <t>A 59613-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45953.88924768518</v>
+        <v>45254.64126157408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10998,7 +10983,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11035,14 +11020,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 38586-2023</t>
+          <t>A 8570-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45162.63375</v>
+        <v>45709.64003472222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11055,7 +11040,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11092,14 +11077,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 9159-2024</t>
+          <t>A 18337-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45358.39443287037</v>
+        <v>45041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11112,7 +11097,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11149,14 +11134,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 31746-2023</t>
+          <t>A 61318-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45117</v>
+        <v>45264</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11169,7 +11154,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11206,14 +11191,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 63725-2023</t>
+          <t>A 38108-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45276</v>
+        <v>45882.5039699074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11226,7 +11211,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11263,14 +11248,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59613-2023</t>
+          <t>A 22541-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45254.64126157408</v>
+        <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11283,7 +11268,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11320,14 +11305,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 54783-2025</t>
+          <t>A 40202-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45966.61938657407</v>
+        <v>44418</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11340,7 +11325,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11377,14 +11362,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 12124-2024</t>
+          <t>A 31546-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45377</v>
+        <v>44775</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11396,13 +11381,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11439,14 +11419,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62986-2023</t>
+          <t>A 30760-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45272</v>
+        <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11459,7 +11439,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11496,14 +11476,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59816-2021</t>
+          <t>A 30762-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44494</v>
+        <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11516,7 +11496,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11553,14 +11533,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 56312-2025</t>
+          <t>A 67455-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45974.62810185185</v>
+        <v>44524.38003472222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11573,7 +11553,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11610,14 +11590,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56305-2025</t>
+          <t>A 55159-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45974.61175925926</v>
+        <v>45621.50773148148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11630,7 +11610,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11667,14 +11647,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 30650-2023</t>
+          <t>A 30628-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45112.47785879629</v>
+        <v>45112.44275462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11687,7 +11667,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11724,14 +11704,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 30637-2023</t>
+          <t>A 30643-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45112.46177083333</v>
+        <v>45112.47034722222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11744,7 +11724,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11781,14 +11761,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58137-2025</t>
+          <t>A 25928-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45982.62140046297</v>
+        <v>45090.67364583333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11801,7 +11781,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11838,14 +11818,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 65118-2023</t>
+          <t>A 39188-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45288</v>
+        <v>45888.67532407407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11858,7 +11838,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11895,14 +11875,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58139-2025</t>
+          <t>A 38586-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45982.62479166667</v>
+        <v>45162.63375</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11915,7 +11895,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11952,14 +11932,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 18613-2025</t>
+          <t>A 48513-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45763.49810185185</v>
+        <v>44449</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11972,7 +11952,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12009,14 +11989,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 18614-2025</t>
+          <t>A 47522-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45763.50244212963</v>
+        <v>45587.63065972222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12028,8 +12008,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>9.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12066,14 +12051,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54289-2022</t>
+          <t>A 30772-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44882</v>
+        <v>45112</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12086,7 +12071,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12123,14 +12108,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 59493-2025</t>
+          <t>A 65143-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45989.60912037037</v>
+        <v>45288</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12143,7 +12128,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12180,14 +12165,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 32208-2023</t>
+          <t>A 11795-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45119</v>
+        <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12200,7 +12185,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12237,14 +12222,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 60089-2025</t>
+          <t>A 35491-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45993.72018518519</v>
+        <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12257,7 +12242,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12290,18 +12275,38 @@
         <v>0</v>
       </c>
       <c r="R195" s="2" t="inlineStr"/>
+      <c r="U195">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="V195">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="W195">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="X195">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="Y195">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60093-2025</t>
+          <t>A 18305-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45993.72949074074</v>
+        <v>45762.43462962963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12314,7 +12319,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12351,14 +12356,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 42250-2023</t>
+          <t>A 40276-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45180.36814814815</v>
+        <v>45895.35997685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12370,8 +12375,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12408,14 +12418,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 42256-2023</t>
+          <t>A 40774-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45180</v>
+        <v>45897.42164351852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12428,7 +12438,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12465,14 +12475,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60091-2025</t>
+          <t>A 52100-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45993.72268518519</v>
+        <v>45223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12522,14 +12532,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60092-2025</t>
+          <t>A 2398-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45993.72543981481</v>
+        <v>45310</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12542,7 +12552,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12579,14 +12589,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59871-2025</t>
+          <t>A 38074-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45992.92416666666</v>
+        <v>45160.78711805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12599,7 +12609,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12636,14 +12646,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 1921-2024</t>
+          <t>A 50981-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45308.43202546296</v>
+        <v>45218.52822916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12655,8 +12665,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12693,14 +12708,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59872-2025</t>
+          <t>A 56452-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45992.93340277778</v>
+        <v>44893.2884375</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12713,7 +12728,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12750,14 +12765,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 60380-2025</t>
+          <t>A 58093-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45995.36851851852</v>
+        <v>45248</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12770,7 +12785,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12807,14 +12822,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 27498-2021</t>
+          <t>A 43292-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44351</v>
+        <v>45910.61802083333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12827,7 +12842,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12864,14 +12879,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2497-2026</t>
+          <t>A 64207-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46037.40177083333</v>
+        <v>44510.61469907407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12884,7 +12899,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12921,14 +12936,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60181-2025</t>
+          <t>A 35491-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45994.46494212963</v>
+        <v>45855.87664351852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12941,7 +12956,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12978,14 +12993,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11795-2023</t>
+          <t>A 27103-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44994</v>
+        <v>45471.4950462963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13035,14 +13050,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 60376-2025</t>
+          <t>A 57443-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45995.36325231481</v>
+        <v>45629.8953587963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13055,7 +13070,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13092,14 +13107,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 60946-2025</t>
+          <t>A 45185-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45999.64741898148</v>
+        <v>45919.54019675926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13112,7 +13127,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13149,14 +13164,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 31711-2023</t>
+          <t>A 47279-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45117.82019675926</v>
+        <v>45930.47650462963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13169,7 +13184,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13206,14 +13221,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 31727-2023</t>
+          <t>A 47258-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45117</v>
+        <v>45930.44646990741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13226,7 +13241,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13263,14 +13278,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 31728-2023</t>
+          <t>A 21573-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45117</v>
+        <v>45782.82457175926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13283,7 +13298,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13320,14 +13335,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 11605-2024</t>
+          <t>A 21575-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45373.39921296296</v>
+        <v>45782.8308912037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13340,7 +13355,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13377,14 +13392,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 53055-2024</t>
+          <t>A 21878-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45611.46429398148</v>
+        <v>45784.40392361111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13397,7 +13412,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13434,14 +13449,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 30745-2023</t>
+          <t>A 23906-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45112</v>
+        <v>45455.80586805556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13454,7 +13469,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13491,14 +13506,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4119-2026</t>
+          <t>A 21574-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46044.6099537037</v>
+        <v>45782.82858796296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13510,13 +13525,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13553,14 +13563,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 29658-2022</t>
+          <t>A 47934-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44754.67859953704</v>
+        <v>45932.55678240741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13573,7 +13583,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13610,14 +13620,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 4587-2026</t>
+          <t>A 23907-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46048.33873842593</v>
+        <v>45455.80972222222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13630,7 +13640,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13667,14 +13677,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4588-2026</t>
+          <t>A 47723-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46048.34140046296</v>
+        <v>45931.62960648148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13687,7 +13697,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13724,14 +13734,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 57036-2024</t>
+          <t>A 48212-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45629.2527662037</v>
+        <v>45933.49399305556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13744,7 +13754,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13781,14 +13791,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 16534-2024</t>
+          <t>A 22424-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45408.43065972222</v>
+        <v>45786.56738425926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13801,7 +13811,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13838,14 +13848,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 6074-2026</t>
+          <t>A 49277-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46052.66378472222</v>
+        <v>45938.50756944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13858,7 +13868,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13895,14 +13905,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 36131-2024</t>
+          <t>A 49269-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45534.33863425926</v>
+        <v>45938.50247685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13915,7 +13925,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13952,14 +13962,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 54287-2022</t>
+          <t>A 49460-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44882.37096064815</v>
+        <v>45939.31943287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13972,7 +13982,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14009,14 +14019,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 50011-2023</t>
+          <t>A 43938-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45215</v>
+        <v>45572.46334490741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14029,7 +14039,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.5</v>
+        <v>0.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14066,14 +14076,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 15112-2022</t>
+          <t>A 23311-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44658</v>
+        <v>45791.60857638889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14086,7 +14096,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14123,14 +14133,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 6103-2026</t>
+          <t>A 52075-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46052.9485300926</v>
+        <v>45952.65550925926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14143,7 +14153,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14180,14 +14190,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 6104-2026</t>
+          <t>A 52108-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46052.94945601852</v>
+        <v>45952.6910300926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14200,7 +14210,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14237,14 +14247,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 6071-2026</t>
+          <t>A 52077-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46052.66287037037</v>
+        <v>45952.65769675926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14257,7 +14267,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14294,14 +14304,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 7339-2025</t>
+          <t>A 51613-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45703.51598379629</v>
+        <v>45951.39907407408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14314,7 +14324,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14351,14 +14361,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 1922-2024</t>
+          <t>A 52370-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45308.43416666667</v>
+        <v>45953.88924768518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14371,7 +14381,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14408,14 +14418,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 10610-2025</t>
+          <t>A 52511-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45721.59978009259</v>
+        <v>45954.50719907408</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14428,7 +14438,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14465,14 +14475,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 6064-2025</t>
+          <t>A 52371-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45696.28527777778</v>
+        <v>45953.89262731482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14485,7 +14495,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14522,14 +14532,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 61334-2022</t>
+          <t>A 52513-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44915</v>
+        <v>45954.50944444445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14542,7 +14552,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14579,14 +14589,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 51564-2024</t>
+          <t>A 52943-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45604.62042824074</v>
+        <v>45957.64331018519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14599,7 +14609,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14636,14 +14646,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 35491-2023</t>
+          <t>A 52939-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45146</v>
+        <v>45957.63912037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14656,7 +14666,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14689,38 +14699,18 @@
         <v>0</v>
       </c>
       <c r="R237" s="2" t="inlineStr"/>
-      <c r="U237">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="V237">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="W237">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="X237">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="Y237">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 7546-2026</t>
+          <t>A 52942-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46059.67181712963</v>
+        <v>45957.64267361111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14733,7 +14723,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14770,14 +14760,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7046-2025</t>
+          <t>A 54783-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45701.6434375</v>
+        <v>45966.61938657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14790,7 +14780,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14827,14 +14817,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 30760-2023</t>
+          <t>A 25089-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45112</v>
+        <v>45800.31393518519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14847,7 +14837,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14884,14 +14874,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 30762-2023</t>
+          <t>A 25694-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45112</v>
+        <v>45803.66457175926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14904,7 +14894,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14941,14 +14931,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 64003-2025</t>
+          <t>A 12124-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46021.40840277778</v>
+        <v>45377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14960,8 +14950,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14998,14 +14993,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 64005-2025</t>
+          <t>A 56305-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46021.41178240741</v>
+        <v>45974.61175925926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15018,7 +15013,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15055,14 +15050,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 56331-2024</t>
+          <t>A 56312-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45624.79915509259</v>
+        <v>45974.62810185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15075,7 +15070,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15112,14 +15107,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 51314-2023</t>
+          <t>A 58139-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45219</v>
+        <v>45982.62479166667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15132,7 +15127,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15169,14 +15164,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 3238-2023</t>
+          <t>A 58137-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44946.84815972222</v>
+        <v>45982.62140046297</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15189,7 +15184,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15226,14 +15221,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 12160-2024</t>
+          <t>A 59493-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45377.80496527778</v>
+        <v>45989.60912037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15246,7 +15241,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15283,14 +15278,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 40202-2021</t>
+          <t>A 59871-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44418</v>
+        <v>45992.92416666666</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15303,7 +15298,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15340,14 +15335,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 54659-2022</t>
+          <t>A 60091-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44883</v>
+        <v>45993.72268518519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15360,7 +15355,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15397,14 +15392,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 31718-2023</t>
+          <t>A 60092-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45117.88568287037</v>
+        <v>45993.72543981481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15417,7 +15412,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15454,14 +15449,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 36532-2024</t>
+          <t>A 60089-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45537.44701388889</v>
+        <v>45993.72018518519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15474,7 +15469,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15511,14 +15506,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 43398-2024</t>
+          <t>A 60093-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45568.61006944445</v>
+        <v>45993.72949074074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15531,7 +15526,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15568,14 +15563,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 54311-2022</t>
+          <t>A 59872-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44882.41185185185</v>
+        <v>45992.93340277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15588,7 +15583,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15625,14 +15620,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 22443-2023</t>
+          <t>A 60181-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45070</v>
+        <v>45994.46494212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15645,7 +15640,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15682,14 +15677,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 60792-2022</t>
+          <t>A 60376-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44914.42209490741</v>
+        <v>45995.36325231481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15702,7 +15697,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15739,14 +15734,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 15969-2025</t>
+          <t>A 60380-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45749.54825231482</v>
+        <v>45995.36851851852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15759,7 +15754,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15796,14 +15791,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 61026-2022</t>
+          <t>A 2497-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44914.8635300926</v>
+        <v>46037.40177083333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15816,7 +15811,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15853,14 +15848,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 47264-2024</t>
+          <t>A 60946-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45586.8034837963</v>
+        <v>45999.64741898148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15873,7 +15868,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15910,14 +15905,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 22541-2023</t>
+          <t>A 4119-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45071</v>
+        <v>46044.6099537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,8 +15924,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15967,14 +15967,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 21751-2022</t>
+          <t>A 4588-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44708.43361111111</v>
+        <v>46048.34140046296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16024,14 +16024,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 1395-2024</t>
+          <t>A 4587-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45303</v>
+        <v>46048.33873842593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16081,14 +16081,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 2398-2024</t>
+          <t>A 6071-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45310</v>
+        <v>46052.66287037037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16138,14 +16138,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 30793-2023</t>
+          <t>A 6074-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45112.74090277778</v>
+        <v>46052.66378472222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16195,14 +16195,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 30795-2023</t>
+          <t>A 6103-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45112.75636574074</v>
+        <v>46052.9485300926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16252,14 +16252,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 30800-2023</t>
+          <t>A 10610-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45112.77375</v>
+        <v>45721.59978009259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16309,14 +16309,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 52100-2023</t>
+          <t>A 6064-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45223</v>
+        <v>45696.28527777778</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16366,14 +16366,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 28040-2024</t>
+          <t>A 7339-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45476.50533564815</v>
+        <v>45703.51598379629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16423,14 +16423,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 48513-2021</t>
+          <t>A 6104-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44449</v>
+        <v>46052.94945601852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16480,14 +16480,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 18337-2023</t>
+          <t>A 7546-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45041</v>
+        <v>46059.67181712963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16537,14 +16537,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 11021-2022</t>
+          <t>A 64003-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44628.55136574074</v>
+        <v>46021.40840277778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16594,14 +16594,14 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 11239-2023</t>
+          <t>A 64005-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44992</v>
+        <v>46021.41178240741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,14 +1114,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 30666-2023</t>
+          <t>A 32859-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45112</v>
+        <v>45839.58148148148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1168,308 +1168,308 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 32503-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45838.46440972222</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 30666-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 30671-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>4.9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 32859-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45839.58148148148</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 32503-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45838.46440972222</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 30653-2023</t>
+          <t>A 47239-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45112</v>
+        <v>45930.42038194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1516,123 +1516,123 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 30653-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Tjäder</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 47239-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45930.42038194444</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45645.68797453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45363.57760416667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45117.83711805556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112.49369212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3776,14 +3776,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 4782-2024</t>
+          <t>A 31889-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45328</v>
+        <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 31889-2023</t>
+          <t>A 4782-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45118</v>
+        <v>45328</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>44868</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3947,14 +3947,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 50647-2021</t>
+          <t>A 30769-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44459</v>
+        <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30769-2023</t>
+          <t>A 30794-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45112</v>
+        <v>45112.75039351852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30794-2023</t>
+          <t>A 50647-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45112.75039351852</v>
+        <v>44459</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44966</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,14 +4175,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18615-2025</t>
+          <t>A 38074-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45763.50521990741</v>
+        <v>45160.78711805555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38074-2023</t>
+          <t>A 18615-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45160.78711805555</v>
+        <v>45763.50521990741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,14 +4346,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31617-2021</t>
+          <t>A 23311-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44369.58694444445</v>
+        <v>45791.60857638889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4403,14 +4403,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35526-2023</t>
+          <t>A 25928-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45147</v>
+        <v>45090.67364583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4460,14 +4460,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3237-2023</t>
+          <t>A 31617-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44946.84690972222</v>
+        <v>44369.58694444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31724-2023</t>
+          <t>A 35526-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45117.91390046296</v>
+        <v>45147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4574,14 +4574,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31726-2023</t>
+          <t>A 39188-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45117.92457175926</v>
+        <v>45888.67532407407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61671-2022</t>
+          <t>A 3237-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44917.3327662037</v>
+        <v>44946.84690972222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4688,14 +4688,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7546-2026</t>
+          <t>A 31724-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46059.67181712963</v>
+        <v>45117.91390046296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4745,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25928-2023</t>
+          <t>A 31726-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45090.67364583333</v>
+        <v>45117.92457175926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4802,14 +4802,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 64003-2025</t>
+          <t>A 4119-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46021.40840277778</v>
+        <v>46044.6099537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4821,8 +4821,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4859,14 +4864,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25698-2025</t>
+          <t>A 47522-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45803.66721064815</v>
+        <v>45587.63065972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4878,8 +4883,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4916,14 +4926,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 64005-2025</t>
+          <t>A 65143-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46021.41178240741</v>
+        <v>45288</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4936,7 +4946,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4973,14 +4983,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25694-2025</t>
+          <t>A 61671-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45803.66457175926</v>
+        <v>44917.3327662037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4993,7 +5003,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5030,14 +5040,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25089-2025</t>
+          <t>A 25698-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45800.31393518519</v>
+        <v>45803.66721064815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5050,7 +5060,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5087,14 +5097,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56334-2024</t>
+          <t>A 40276-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45624.80081018519</v>
+        <v>45895.35997685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5106,8 +5116,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5144,14 +5159,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61318-2023</t>
+          <t>A 25694-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45264</v>
+        <v>45803.66457175926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5164,7 +5179,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5201,14 +5216,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39188-2025</t>
+          <t>A 25089-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45888.67532407407</v>
+        <v>45800.31393518519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5221,7 +5236,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5258,14 +5273,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9086-2025</t>
+          <t>A 40774-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45713.67104166667</v>
+        <v>45897.42164351852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5278,7 +5293,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5315,14 +5330,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42483-2023</t>
+          <t>A 56334-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45180.82547453704</v>
+        <v>45624.80081018519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5335,7 +5350,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5372,14 +5387,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28073-2024</t>
+          <t>A 9086-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45476.58127314815</v>
+        <v>45713.67104166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5392,7 +5407,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5429,14 +5444,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47265-2024</t>
+          <t>A 4587-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45586.80979166667</v>
+        <v>46048.33873842593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5449,7 +5464,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5486,14 +5501,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47522-2024</t>
+          <t>A 4588-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45587.63065972222</v>
+        <v>46048.34140046296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5505,13 +5520,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5548,14 +5558,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8570-2025</t>
+          <t>A 61318-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45709.64003472222</v>
+        <v>45264</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5568,7 +5578,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5605,14 +5615,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29794-2025</t>
+          <t>A 28073-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45825.66684027778</v>
+        <v>45476.58127314815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5625,7 +5635,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5662,14 +5672,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5072-2023</t>
+          <t>A 42483-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44958.60896990741</v>
+        <v>45180.82547453704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5682,7 +5692,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5719,14 +5729,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 65143-2023</t>
+          <t>A 29794-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45288</v>
+        <v>45825.66684027778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5739,7 +5749,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5776,14 +5786,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 17925-2022</t>
+          <t>A 47265-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44683.57416666667</v>
+        <v>45586.80979166667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5796,7 +5806,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5833,14 +5843,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29306-2025</t>
+          <t>A 35491-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45824.45997685185</v>
+        <v>45855.87664351852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5863,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5890,14 +5900,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54295-2023</t>
+          <t>A 29306-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45232</v>
+        <v>45824.45997685185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5910,7 +5920,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,7 +5964,7 @@
         <v>45722.77650462963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6004,14 +6014,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 9471-2025</t>
+          <t>A 43292-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45715.47013888889</v>
+        <v>45910.61802083333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6024,7 +6034,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6061,14 +6071,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14032-2025</t>
+          <t>A 8570-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45740.35876157408</v>
+        <v>45709.64003472222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6118,14 +6128,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40276-2025</t>
+          <t>A 9471-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45895.35997685185</v>
+        <v>45715.47013888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6137,13 +6147,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6180,14 +6185,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25938-2021</t>
+          <t>A 14032-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44344</v>
+        <v>45740.35876157408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6200,7 +6205,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6237,14 +6242,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47980-2023</t>
+          <t>A 5072-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45204</v>
+        <v>44958.60896990741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6257,7 +6262,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6294,14 +6299,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9401-2024</t>
+          <t>A 17925-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45359.42094907408</v>
+        <v>44683.57416666667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6314,7 +6319,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6358,7 +6363,7 @@
         <v>45833.70512731482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,14 +6413,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31804-2025</t>
+          <t>A 54295-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45834.55309027778</v>
+        <v>45232</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6428,7 +6433,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6465,14 +6470,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40774-2025</t>
+          <t>A 45185-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45897.42164351852</v>
+        <v>45919.54019675926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6485,7 +6490,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6522,14 +6527,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32509-2025</t>
+          <t>A 25938-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45838.4722800926</v>
+        <v>44344</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6542,7 +6547,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6579,14 +6584,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32862-2025</t>
+          <t>A 47980-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45839.5834837963</v>
+        <v>45204</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6599,7 +6604,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6636,14 +6641,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9527-2023</t>
+          <t>A 9401-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44981</v>
+        <v>45359.42094907408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,14 +6698,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32320-2025</t>
+          <t>A 6074-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45836.4041087963</v>
+        <v>46052.66378472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6713,7 +6718,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.7</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6750,14 +6755,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 32506-2025</t>
+          <t>A 31804-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45838.4687037037</v>
+        <v>45834.55309027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6770,7 +6775,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6807,14 +6812,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3080-2024</t>
+          <t>A 32509-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45316</v>
+        <v>45838.4722800926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6827,7 +6832,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6864,14 +6869,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50981-2023</t>
+          <t>A 32862-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45218.52822916667</v>
+        <v>45839.5834837963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6883,13 +6888,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6926,14 +6926,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52102-2023</t>
+          <t>A 32320-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45223</v>
+        <v>45836.4041087963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6983,14 +6983,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50302-2023</t>
+          <t>A 32506-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45216</v>
+        <v>45838.4687037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,14 +7040,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11981-2025</t>
+          <t>A 9527-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45728</v>
+        <v>44981</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7097,14 +7097,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28158-2024</t>
+          <t>A 6103-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45476.93028935185</v>
+        <v>46052.9485300926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7154,14 +7154,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 435-2025</t>
+          <t>A 6104-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45664.37454861111</v>
+        <v>46052.94945601852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7211,14 +7211,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 59472-2023</t>
+          <t>A 47279-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45254</v>
+        <v>45930.47650462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7268,14 +7268,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9530-2023</t>
+          <t>A 47258-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44981</v>
+        <v>45930.44646990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7325,14 +7325,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36650-2025</t>
+          <t>A 47723-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45872.58658564815</v>
+        <v>45931.62960648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35491-2025</t>
+          <t>A 48212-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45855.87664351852</v>
+        <v>45933.49399305556</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43292-2025</t>
+          <t>A 11981-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45910.61802083333</v>
+        <v>45728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30628-2023</t>
+          <t>A 47934-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45112.44275462963</v>
+        <v>45932.55678240741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30643-2023</t>
+          <t>A 3080-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45112.47034722222</v>
+        <v>45316</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38108-2025</t>
+          <t>A 50981-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45882.5039699074</v>
+        <v>45218.52822916667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7629,8 +7629,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7667,14 +7672,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 22834-2024</t>
+          <t>A 49460-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45448.57018518518</v>
+        <v>45939.31943287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7692,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7724,14 +7729,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41910-2024</t>
+          <t>A 49269-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45561.54084490741</v>
+        <v>45938.50247685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7749,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7781,14 +7786,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 67455-2021</t>
+          <t>A 52102-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44524.38003472222</v>
+        <v>45223</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,14 +7843,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31546-2022</t>
+          <t>A 50302-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44775</v>
+        <v>45216</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,14 +7900,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 18305-2025</t>
+          <t>A 49277-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45762.43462962963</v>
+        <v>45938.50756944445</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7920,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7952,14 +7957,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58093-2023</t>
+          <t>A 28158-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45248</v>
+        <v>45476.93028935185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7972,7 +7977,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8009,14 +8014,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45185-2025</t>
+          <t>A 435-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45919.54019675926</v>
+        <v>45664.37454861111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +8034,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8066,14 +8071,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 54144-2022</t>
+          <t>A 36650-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44881</v>
+        <v>45872.58658564815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8091,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8123,14 +8128,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 50057-2023</t>
+          <t>A 6071-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45215</v>
+        <v>46052.66287037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8148,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8180,14 +8185,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46511-2023</t>
+          <t>A 7339-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45197</v>
+        <v>45703.51598379629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8205,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8237,14 +8242,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47279-2025</t>
+          <t>A 59472-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45930.47650462963</v>
+        <v>45254</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8262,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8294,14 +8299,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28201-2021</t>
+          <t>A 51613-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44355.6369675926</v>
+        <v>45951.39907407408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8319,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.5</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8351,14 +8356,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56452-2022</t>
+          <t>A 9530-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44893.2884375</v>
+        <v>44981</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8376,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8408,14 +8413,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6653-2022</t>
+          <t>A 52075-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44602</v>
+        <v>45952.65550925926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8428,7 +8433,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8465,14 +8470,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47258-2025</t>
+          <t>A 52108-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45930.44646990741</v>
+        <v>45952.6910300926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8485,7 +8490,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8522,14 +8527,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47723-2025</t>
+          <t>A 52077-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45931.62960648148</v>
+        <v>45952.65769675926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8542,7 +8547,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8579,14 +8584,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 64207-2021</t>
+          <t>A 52513-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44510.61469907407</v>
+        <v>45954.50944444445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8599,7 +8604,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8636,14 +8641,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2006-2024</t>
+          <t>A 52371-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45308</v>
+        <v>45953.89262731482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8656,7 +8661,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8693,14 +8698,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 24368-2022</t>
+          <t>A 52511-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44726.43189814815</v>
+        <v>45954.50719907408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8713,7 +8718,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8750,14 +8755,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 48212-2025</t>
+          <t>A 38108-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45933.49399305556</v>
+        <v>45882.5039699074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8770,7 +8775,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8807,14 +8812,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47934-2025</t>
+          <t>A 52939-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45932.55678240741</v>
+        <v>45957.63912037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8827,7 +8832,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8864,14 +8869,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27103-2024</t>
+          <t>A 52943-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45471.4950462963</v>
+        <v>45957.64331018519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8884,7 +8889,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8921,14 +8926,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49460-2025</t>
+          <t>A 10610-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45939.31943287037</v>
+        <v>45721.59978009259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8941,7 +8946,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8978,14 +8983,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55159-2024</t>
+          <t>A 6064-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45621.50773148148</v>
+        <v>45696.28527777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +9003,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9035,14 +9040,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49269-2025</t>
+          <t>A 52942-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45938.50247685185</v>
+        <v>45957.64267361111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9055,7 +9060,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9092,14 +9097,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 38586-2023</t>
+          <t>A 52370-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45162.63375</v>
+        <v>45953.88924768518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9112,7 +9117,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9149,14 +9154,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49277-2025</t>
+          <t>A 31546-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45938.50756944445</v>
+        <v>44775</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9169,7 +9174,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9206,14 +9211,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 9159-2024</t>
+          <t>A 7546-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45358.39443287037</v>
+        <v>46059.67181712963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9231,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9263,14 +9268,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 31746-2023</t>
+          <t>A 64003-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45117</v>
+        <v>46021.40840277778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9283,7 +9288,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9320,14 +9325,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 63725-2023</t>
+          <t>A 54783-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45276</v>
+        <v>45966.61938657407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9340,7 +9345,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9377,14 +9382,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 59613-2023</t>
+          <t>A 30628-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45254.64126157408</v>
+        <v>45112.44275462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9397,7 +9402,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9434,14 +9439,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62986-2023</t>
+          <t>A 30643-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45272</v>
+        <v>45112.47034722222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9454,7 +9459,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9491,14 +9496,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 59816-2021</t>
+          <t>A 64005-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44494</v>
+        <v>46021.41178240741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9511,7 +9516,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9548,14 +9553,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 30650-2023</t>
+          <t>A 22834-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45112.47785879629</v>
+        <v>45448.57018518518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9568,7 +9573,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9605,14 +9610,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 51613-2025</t>
+          <t>A 41910-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45951.39907407408</v>
+        <v>45561.54084490741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9625,7 +9630,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9662,14 +9667,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 30637-2023</t>
+          <t>A 67455-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45112.46177083333</v>
+        <v>44524.38003472222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9682,7 +9687,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9719,14 +9724,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52075-2025</t>
+          <t>A 56312-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45952.65550925926</v>
+        <v>45974.62810185185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9739,7 +9744,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9776,14 +9781,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52108-2025</t>
+          <t>A 18305-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45952.6910300926</v>
+        <v>45762.43462962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9796,7 +9801,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9833,14 +9838,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52077-2025</t>
+          <t>A 58093-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45952.65769675926</v>
+        <v>45248</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9853,7 +9858,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9890,14 +9895,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 65118-2023</t>
+          <t>A 54144-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45288</v>
+        <v>44881</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9910,7 +9915,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9947,14 +9952,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52513-2025</t>
+          <t>A 56305-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45954.50944444445</v>
+        <v>45974.61175925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9967,7 +9972,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10004,14 +10009,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 52371-2025</t>
+          <t>A 58137-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45953.89262731482</v>
+        <v>45982.62140046297</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10024,7 +10029,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10061,14 +10066,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 52511-2025</t>
+          <t>A 50057-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45954.50719907408</v>
+        <v>45215</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10081,7 +10086,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10118,14 +10123,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 52939-2025</t>
+          <t>A 46511-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45957.63912037037</v>
+        <v>45197</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10138,7 +10143,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10175,14 +10180,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 52943-2025</t>
+          <t>A 58139-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45957.64331018519</v>
+        <v>45982.62479166667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10195,7 +10200,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10232,14 +10237,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 52942-2025</t>
+          <t>A 12124-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45957.64267361111</v>
+        <v>45377</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10251,8 +10256,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10289,14 +10299,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 52370-2025</t>
+          <t>A 28201-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45953.88924768518</v>
+        <v>44355.6369675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10309,7 +10319,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.3</v>
+        <v>10.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10346,14 +10356,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 18613-2025</t>
+          <t>A 56452-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45763.49810185185</v>
+        <v>44893.2884375</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10366,7 +10376,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10403,14 +10413,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18614-2025</t>
+          <t>A 6653-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45763.50244212963</v>
+        <v>44602</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10423,7 +10433,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>9.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10460,14 +10470,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 54289-2022</t>
+          <t>A 64207-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44882</v>
+        <v>44510.61469907407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10480,7 +10490,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10517,14 +10527,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32208-2023</t>
+          <t>A 2006-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45119</v>
+        <v>45308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10537,7 +10547,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10574,14 +10584,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 42250-2023</t>
+          <t>A 24368-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45180.36814814815</v>
+        <v>44726.43189814815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10594,7 +10604,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10631,14 +10641,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 42256-2023</t>
+          <t>A 59493-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45180</v>
+        <v>45989.60912037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10651,7 +10661,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10688,14 +10698,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1921-2024</t>
+          <t>A 27103-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45308.43202546296</v>
+        <v>45471.4950462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10745,14 +10755,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 54783-2025</t>
+          <t>A 60089-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45966.61938657407</v>
+        <v>45993.72018518519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10765,7 +10775,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10802,14 +10812,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 27498-2021</t>
+          <t>A 60093-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44351</v>
+        <v>45993.72949074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10822,7 +10832,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10859,14 +10869,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 11795-2023</t>
+          <t>A 55159-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44994</v>
+        <v>45621.50773148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10879,7 +10889,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10916,14 +10926,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 12124-2024</t>
+          <t>A 60091-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45377</v>
+        <v>45993.72268518519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10935,13 +10945,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10978,14 +10983,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 31711-2023</t>
+          <t>A 60092-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45117.82019675926</v>
+        <v>45993.72543981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10998,7 +11003,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11035,14 +11040,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 31727-2023</t>
+          <t>A 59871-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45117</v>
+        <v>45992.92416666666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11055,7 +11060,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11092,14 +11097,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 31728-2023</t>
+          <t>A 38586-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45117</v>
+        <v>45162.63375</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11149,14 +11154,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11605-2024</t>
+          <t>A 59872-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45373.39921296296</v>
+        <v>45992.93340277778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11169,7 +11174,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11206,14 +11211,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56312-2025</t>
+          <t>A 9159-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45974.62810185185</v>
+        <v>45358.39443287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11226,7 +11231,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11263,14 +11268,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 53055-2024</t>
+          <t>A 60380-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45611.46429398148</v>
+        <v>45995.36851851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11283,7 +11288,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11320,14 +11325,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56305-2025</t>
+          <t>A 31746-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45974.61175925926</v>
+        <v>45117</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11340,7 +11345,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11377,14 +11382,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 30745-2023</t>
+          <t>A 2497-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45112</v>
+        <v>46037.40177083333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11397,7 +11402,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11434,14 +11439,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 58137-2025</t>
+          <t>A 60181-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45982.62140046297</v>
+        <v>45994.46494212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11491,14 +11496,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 29658-2022</t>
+          <t>A 63725-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44754.67859953704</v>
+        <v>45276</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11511,7 +11516,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11548,14 +11553,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 58139-2025</t>
+          <t>A 60376-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45982.62479166667</v>
+        <v>45995.36325231481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11568,7 +11573,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11605,14 +11610,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57036-2024</t>
+          <t>A 59613-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45629.2527662037</v>
+        <v>45254.64126157408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11625,7 +11630,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11662,14 +11667,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 16534-2024</t>
+          <t>A 60946-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45408.43065972222</v>
+        <v>45999.64741898148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11682,7 +11687,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11719,14 +11724,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59493-2025</t>
+          <t>A 62986-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45989.60912037037</v>
+        <v>45272</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11739,7 +11744,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11776,14 +11781,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 60089-2025</t>
+          <t>A 59816-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45993.72018518519</v>
+        <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11796,7 +11801,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11833,14 +11838,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 60093-2025</t>
+          <t>A 30650-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45993.72949074074</v>
+        <v>45112.47785879629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11853,7 +11858,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11890,14 +11895,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 60091-2025</t>
+          <t>A 30637-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45993.72268518519</v>
+        <v>45112.46177083333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11910,7 +11915,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11947,14 +11952,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60092-2025</t>
+          <t>A 65118-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45993.72543981481</v>
+        <v>45288</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11967,7 +11972,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12004,14 +12009,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59871-2025</t>
+          <t>A 18613-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45992.92416666666</v>
+        <v>45763.49810185185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12024,7 +12029,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12061,14 +12066,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59872-2025</t>
+          <t>A 18614-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45992.93340277778</v>
+        <v>45763.50244212963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12081,7 +12086,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12118,14 +12123,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36131-2024</t>
+          <t>A 54289-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45534.33863425926</v>
+        <v>44882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12138,7 +12143,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12175,14 +12180,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 54287-2022</t>
+          <t>A 32208-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44882.37096064815</v>
+        <v>45119</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12195,7 +12200,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12232,14 +12237,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50011-2023</t>
+          <t>A 42250-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45215</v>
+        <v>45180.36814814815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12252,7 +12257,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12289,14 +12294,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60380-2025</t>
+          <t>A 42256-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45995.36851851852</v>
+        <v>45180</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12309,7 +12314,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12346,14 +12351,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15112-2022</t>
+          <t>A 1921-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44658</v>
+        <v>45308.43202546296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12366,7 +12371,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12403,14 +12408,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2497-2026</t>
+          <t>A 27498-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46037.40177083333</v>
+        <v>44351</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12423,7 +12428,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12460,14 +12465,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60181-2025</t>
+          <t>A 11795-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45994.46494212963</v>
+        <v>44994</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12480,7 +12485,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12517,14 +12522,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60376-2025</t>
+          <t>A 31711-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45995.36325231481</v>
+        <v>45117.82019675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12537,7 +12542,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12574,14 +12579,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 60946-2025</t>
+          <t>A 31727-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45999.64741898148</v>
+        <v>45117</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12594,7 +12599,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12631,14 +12636,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 1922-2024</t>
+          <t>A 31728-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45308.43416666667</v>
+        <v>45117</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12651,7 +12656,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12688,14 +12693,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 61334-2022</t>
+          <t>A 11605-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44915</v>
+        <v>45373.39921296296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12708,7 +12713,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12745,14 +12750,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 51564-2024</t>
+          <t>A 53055-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45604.62042824074</v>
+        <v>45611.46429398148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12765,7 +12770,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12802,723 +12807,718 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
+          <t>A 30745-2023</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206" ht="15" customHeight="1">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>A 29658-2022</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>44754.67859953704</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" s="2" t="inlineStr"/>
+    </row>
+    <row r="207" ht="15" customHeight="1">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>A 57036-2024</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>45629.2527662037</v>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" s="2" t="inlineStr"/>
+    </row>
+    <row r="208" ht="15" customHeight="1">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>A 16534-2024</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>45408.43065972222</v>
+      </c>
+      <c r="C208" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" s="2" t="inlineStr"/>
+    </row>
+    <row r="209" ht="15" customHeight="1">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>A 36131-2024</t>
+        </is>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>45534.33863425926</v>
+      </c>
+      <c r="C209" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" s="2" t="inlineStr"/>
+    </row>
+    <row r="210" ht="15" customHeight="1">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>A 54287-2022</t>
+        </is>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>44882.37096064815</v>
+      </c>
+      <c r="C210" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" s="2" t="inlineStr"/>
+    </row>
+    <row r="211" ht="15" customHeight="1">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>A 50011-2023</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C211" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" s="2" t="inlineStr"/>
+    </row>
+    <row r="212" ht="15" customHeight="1">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>A 15112-2022</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C212" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" s="2" t="inlineStr"/>
+    </row>
+    <row r="213" ht="15" customHeight="1">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>A 1922-2024</t>
+        </is>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>45308.43416666667</v>
+      </c>
+      <c r="C213" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" s="2" t="inlineStr"/>
+    </row>
+    <row r="214" ht="15" customHeight="1">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>A 61334-2022</t>
+        </is>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C214" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" s="2" t="inlineStr"/>
+    </row>
+    <row r="215" ht="15" customHeight="1">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>A 51564-2024</t>
+        </is>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>45604.62042824074</v>
+      </c>
+      <c r="C215" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" s="2" t="inlineStr"/>
+    </row>
+    <row r="216" ht="15" customHeight="1">
+      <c r="A216" t="inlineStr">
+        <is>
           <t>A 35491-2023</t>
         </is>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B216" s="1" t="n">
         <v>45146</v>
       </c>
-      <c r="C205" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
+      <c r="C216" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
         <v>3.5</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0</v>
-      </c>
-      <c r="L205" t="n">
-        <v>0</v>
-      </c>
-      <c r="M205" t="n">
-        <v>0</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0</v>
-      </c>
-      <c r="P205" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q205" t="n">
-        <v>0</v>
-      </c>
-      <c r="R205" s="2" t="inlineStr"/>
-      <c r="U205">
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" s="2" t="inlineStr"/>
+      <c r="U216">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
         <v/>
       </c>
-      <c r="V205">
+      <c r="V216">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
         <v/>
       </c>
-      <c r="W205">
+      <c r="W216">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
         <v/>
       </c>
-      <c r="X205">
+      <c r="X216">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
         <v/>
       </c>
-      <c r="Y205">
+      <c r="Y216">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>A 7046-2025</t>
-        </is>
-      </c>
-      <c r="B206" s="1" t="n">
-        <v>45701.6434375</v>
-      </c>
-      <c r="C206" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L206" t="n">
-        <v>0</v>
-      </c>
-      <c r="M206" t="n">
-        <v>0</v>
-      </c>
-      <c r="N206" t="n">
-        <v>0</v>
-      </c>
-      <c r="O206" t="n">
-        <v>0</v>
-      </c>
-      <c r="P206" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q206" t="n">
-        <v>0</v>
-      </c>
-      <c r="R206" s="2" t="inlineStr"/>
-    </row>
-    <row r="207" ht="15" customHeight="1">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>A 30760-2023</t>
-        </is>
-      </c>
-      <c r="B207" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C207" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0</v>
-      </c>
-      <c r="L207" t="n">
-        <v>0</v>
-      </c>
-      <c r="M207" t="n">
-        <v>0</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0</v>
-      </c>
-      <c r="O207" t="n">
-        <v>0</v>
-      </c>
-      <c r="P207" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q207" t="n">
-        <v>0</v>
-      </c>
-      <c r="R207" s="2" t="inlineStr"/>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>A 30762-2023</t>
-        </is>
-      </c>
-      <c r="B208" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C208" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0</v>
-      </c>
-      <c r="L208" t="n">
-        <v>0</v>
-      </c>
-      <c r="M208" t="n">
-        <v>0</v>
-      </c>
-      <c r="N208" t="n">
-        <v>0</v>
-      </c>
-      <c r="O208" t="n">
-        <v>0</v>
-      </c>
-      <c r="P208" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q208" t="n">
-        <v>0</v>
-      </c>
-      <c r="R208" s="2" t="inlineStr"/>
-    </row>
-    <row r="209" ht="15" customHeight="1">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>A 4119-2026</t>
-        </is>
-      </c>
-      <c r="B209" s="1" t="n">
-        <v>46044.6099537037</v>
-      </c>
-      <c r="C209" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0</v>
-      </c>
-      <c r="L209" t="n">
-        <v>0</v>
-      </c>
-      <c r="M209" t="n">
-        <v>0</v>
-      </c>
-      <c r="N209" t="n">
-        <v>0</v>
-      </c>
-      <c r="O209" t="n">
-        <v>0</v>
-      </c>
-      <c r="P209" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q209" t="n">
-        <v>0</v>
-      </c>
-      <c r="R209" s="2" t="inlineStr"/>
-    </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>A 4587-2026</t>
-        </is>
-      </c>
-      <c r="B210" s="1" t="n">
-        <v>46048.33873842593</v>
-      </c>
-      <c r="C210" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0</v>
-      </c>
-      <c r="L210" t="n">
-        <v>0</v>
-      </c>
-      <c r="M210" t="n">
-        <v>0</v>
-      </c>
-      <c r="N210" t="n">
-        <v>0</v>
-      </c>
-      <c r="O210" t="n">
-        <v>0</v>
-      </c>
-      <c r="P210" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q210" t="n">
-        <v>0</v>
-      </c>
-      <c r="R210" s="2" t="inlineStr"/>
-    </row>
-    <row r="211" ht="15" customHeight="1">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>A 4588-2026</t>
-        </is>
-      </c>
-      <c r="B211" s="1" t="n">
-        <v>46048.34140046296</v>
-      </c>
-      <c r="C211" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0</v>
-      </c>
-      <c r="L211" t="n">
-        <v>0</v>
-      </c>
-      <c r="M211" t="n">
-        <v>0</v>
-      </c>
-      <c r="N211" t="n">
-        <v>0</v>
-      </c>
-      <c r="O211" t="n">
-        <v>0</v>
-      </c>
-      <c r="P211" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q211" t="n">
-        <v>0</v>
-      </c>
-      <c r="R211" s="2" t="inlineStr"/>
-    </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>A 56331-2024</t>
-        </is>
-      </c>
-      <c r="B212" s="1" t="n">
-        <v>45624.79915509259</v>
-      </c>
-      <c r="C212" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G212" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>0</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0</v>
-      </c>
-      <c r="L212" t="n">
-        <v>0</v>
-      </c>
-      <c r="M212" t="n">
-        <v>0</v>
-      </c>
-      <c r="N212" t="n">
-        <v>0</v>
-      </c>
-      <c r="O212" t="n">
-        <v>0</v>
-      </c>
-      <c r="P212" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q212" t="n">
-        <v>0</v>
-      </c>
-      <c r="R212" s="2" t="inlineStr"/>
-    </row>
-    <row r="213" ht="15" customHeight="1">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>A 51314-2023</t>
-        </is>
-      </c>
-      <c r="B213" s="1" t="n">
-        <v>45219</v>
-      </c>
-      <c r="C213" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G213" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0</v>
-      </c>
-      <c r="L213" t="n">
-        <v>0</v>
-      </c>
-      <c r="M213" t="n">
-        <v>0</v>
-      </c>
-      <c r="N213" t="n">
-        <v>0</v>
-      </c>
-      <c r="O213" t="n">
-        <v>0</v>
-      </c>
-      <c r="P213" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q213" t="n">
-        <v>0</v>
-      </c>
-      <c r="R213" s="2" t="inlineStr"/>
-    </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>A 3238-2023</t>
-        </is>
-      </c>
-      <c r="B214" s="1" t="n">
-        <v>44946.84815972222</v>
-      </c>
-      <c r="C214" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G214" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0</v>
-      </c>
-      <c r="L214" t="n">
-        <v>0</v>
-      </c>
-      <c r="M214" t="n">
-        <v>0</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0</v>
-      </c>
-      <c r="P214" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q214" t="n">
-        <v>0</v>
-      </c>
-      <c r="R214" s="2" t="inlineStr"/>
-    </row>
-    <row r="215" ht="15" customHeight="1">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>A 6074-2026</t>
-        </is>
-      </c>
-      <c r="B215" s="1" t="n">
-        <v>46052.66378472222</v>
-      </c>
-      <c r="C215" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>0</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0</v>
-      </c>
-      <c r="L215" t="n">
-        <v>0</v>
-      </c>
-      <c r="M215" t="n">
-        <v>0</v>
-      </c>
-      <c r="N215" t="n">
-        <v>0</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0</v>
-      </c>
-      <c r="P215" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q215" t="n">
-        <v>0</v>
-      </c>
-      <c r="R215" s="2" t="inlineStr"/>
-    </row>
-    <row r="216" ht="15" customHeight="1">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>A 6103-2026</t>
-        </is>
-      </c>
-      <c r="B216" s="1" t="n">
-        <v>46052.9485300926</v>
-      </c>
-      <c r="C216" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0</v>
-      </c>
-      <c r="L216" t="n">
-        <v>0</v>
-      </c>
-      <c r="M216" t="n">
-        <v>0</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0</v>
-      </c>
-      <c r="P216" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q216" t="n">
-        <v>0</v>
-      </c>
-      <c r="R216" s="2" t="inlineStr"/>
-    </row>
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6104-2026</t>
+          <t>A 7046-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46052.94945601852</v>
+        <v>45701.6434375</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13568,14 +13568,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 6071-2026</t>
+          <t>A 30760-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46052.66287037037</v>
+        <v>45112</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13625,14 +13625,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 7339-2025</t>
+          <t>A 30762-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45703.51598379629</v>
+        <v>45112</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13682,14 +13682,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 12160-2024</t>
+          <t>A 56331-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45377.80496527778</v>
+        <v>45624.79915509259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13739,14 +13739,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 40202-2021</t>
+          <t>A 51314-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44418</v>
+        <v>45219</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13796,14 +13796,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54659-2022</t>
+          <t>A 3238-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44883</v>
+        <v>44946.84815972222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13853,14 +13853,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10610-2025</t>
+          <t>A 12160-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45721.59978009259</v>
+        <v>45377.80496527778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13910,14 +13910,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6064-2025</t>
+          <t>A 40202-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45696.28527777778</v>
+        <v>44418</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13967,14 +13967,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 31718-2023</t>
+          <t>A 54659-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45117.88568287037</v>
+        <v>44883</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14024,14 +14024,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 36532-2024</t>
+          <t>A 31718-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45537.44701388889</v>
+        <v>45117.88568287037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14081,14 +14081,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 43398-2024</t>
+          <t>A 36532-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45568.61006944445</v>
+        <v>45537.44701388889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14138,14 +14138,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 54311-2022</t>
+          <t>A 43398-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44882.41185185185</v>
+        <v>45568.61006944445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14195,14 +14195,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 22443-2023</t>
+          <t>A 54311-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45070</v>
+        <v>44882.41185185185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14252,14 +14252,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 60792-2022</t>
+          <t>A 22443-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44914.42209490741</v>
+        <v>45070</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14309,14 +14309,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 15969-2025</t>
+          <t>A 60792-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45749.54825231482</v>
+        <v>44914.42209490741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14366,14 +14366,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 61026-2022</t>
+          <t>A 15969-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44914.8635300926</v>
+        <v>45749.54825231482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14423,14 +14423,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 47264-2024</t>
+          <t>A 61026-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45586.8034837963</v>
+        <v>44914.8635300926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14480,14 +14480,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 22541-2023</t>
+          <t>A 47264-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45071</v>
+        <v>45586.8034837963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14537,14 +14537,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21751-2022</t>
+          <t>A 22541-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44708.43361111111</v>
+        <v>45071</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14594,14 +14594,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 1395-2024</t>
+          <t>A 21751-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45303</v>
+        <v>44708.43361111111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14651,14 +14651,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2398-2024</t>
+          <t>A 1395-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45310</v>
+        <v>45303</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14708,14 +14708,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 30793-2023</t>
+          <t>A 2398-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45112.74090277778</v>
+        <v>45310</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14765,14 +14765,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 30795-2023</t>
+          <t>A 30793-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45112.75636574074</v>
+        <v>45112.74090277778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14822,14 +14822,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 30800-2023</t>
+          <t>A 30795-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45112.77375</v>
+        <v>45112.75636574074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14879,14 +14879,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 52100-2023</t>
+          <t>A 30800-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45223</v>
+        <v>45112.77375</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14936,14 +14936,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 28040-2024</t>
+          <t>A 52100-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45476.50533564815</v>
+        <v>45223</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14993,14 +14993,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 48513-2021</t>
+          <t>A 28040-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44449</v>
+        <v>45476.50533564815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15050,14 +15050,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 18337-2023</t>
+          <t>A 48513-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45041</v>
+        <v>44449</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15107,14 +15107,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 11021-2022</t>
+          <t>A 18337-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44628.55136574074</v>
+        <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15164,14 +15164,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11239-2023</t>
+          <t>A 11021-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44992</v>
+        <v>44628.55136574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15221,14 +15221,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 31717-2023</t>
+          <t>A 11239-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45117</v>
+        <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15278,14 +15278,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 31719-2023</t>
+          <t>A 31717-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45117.8900462963</v>
+        <v>45117</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15335,14 +15335,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 31745-2023</t>
+          <t>A 31719-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45117</v>
+        <v>45117.8900462963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15392,14 +15392,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56335-2024</t>
+          <t>A 31745-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45624.80724537037</v>
+        <v>45117</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15449,14 +15449,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 30801-2023</t>
+          <t>A 56335-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45112.78192129629</v>
+        <v>45624.80724537037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15506,14 +15506,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 70708-2021</t>
+          <t>A 30801-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44537</v>
+        <v>45112.78192129629</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15563,14 +15563,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 31712-2023</t>
+          <t>A 70708-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45117.8322337963</v>
+        <v>44537</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15620,14 +15620,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 31715-2023</t>
+          <t>A 31712-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45117.84797453704</v>
+        <v>45117.8322337963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>12.4</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15677,14 +15677,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 58010-2022</t>
+          <t>A 31715-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44900</v>
+        <v>45117.84797453704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.1</v>
+        <v>12.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15734,14 +15734,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 58011-2022</t>
+          <t>A 58010-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
         <v>44900</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15791,14 +15791,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 59517-2023</t>
+          <t>A 58011-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45254</v>
+        <v>44900</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15848,14 +15848,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 30724-2023</t>
+          <t>A 59517-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45112</v>
+        <v>45254</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15905,14 +15905,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 48354-2024</t>
+          <t>A 30724-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45590.56171296296</v>
+        <v>45112</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15962,14 +15962,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 30792-2023</t>
+          <t>A 48354-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45112.72848379629</v>
+        <v>45590.56171296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16019,14 +16019,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 57443-2024</t>
+          <t>A 30792-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45629.8953587963</v>
+        <v>45112.72848379629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16076,14 +16076,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 23330-2024</t>
+          <t>A 57443-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45453.46866898148</v>
+        <v>45629.8953587963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16095,13 +16095,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16138,14 +16133,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 21573-2025</t>
+          <t>A 23330-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45782.82457175926</v>
+        <v>45453.46866898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,8 +16152,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16195,14 +16195,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 21575-2025</t>
+          <t>A 21573-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45782.8308912037</v>
+        <v>45782.82457175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16252,14 +16252,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 21574-2025</t>
+          <t>A 21575-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45782.82858796296</v>
+        <v>45782.8308912037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16309,14 +16309,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23906-2024</t>
+          <t>A 21574-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45455.80586805556</v>
+        <v>45782.82858796296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16366,14 +16366,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 23907-2024</t>
+          <t>A 23906-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45455.80972222222</v>
+        <v>45455.80586805556</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16423,14 +16423,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 21878-2025</t>
+          <t>A 23907-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45784.40392361111</v>
+        <v>45455.80972222222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16480,14 +16480,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 43938-2024</t>
+          <t>A 21878-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45572.46334490741</v>
+        <v>45784.40392361111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16537,14 +16537,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 22424-2025</t>
+          <t>A 43938-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45786.56738425926</v>
+        <v>45572.46334490741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16594,14 +16594,14 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 23311-2025</t>
+          <t>A 22424-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45791.60857638889</v>
+        <v>45786.56738425926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,14 +1114,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 32859-2025</t>
+          <t>A 47239-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45839.58148148148</v>
+        <v>45930.42038194444</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1172,378 +1172,378 @@
         </is>
       </c>
       <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 32859-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45839.58148148148</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 32503-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45838.46440972222</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>0.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Fällmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 30666-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>1.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 30671-2023</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>4.9</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 47239-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45930.42038194444</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45645.68797453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45363.57760416667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45117.83711805556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112.49369212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>45328</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44868</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45112.75039351852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44459</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44966</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,14 +4175,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38074-2023</t>
+          <t>A 18615-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45160.78711805555</v>
+        <v>45763.50521990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 18615-2025</t>
+          <t>A 23907-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45763.50521990741</v>
+        <v>45455.80972222222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4289,14 +4289,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4783-2024</t>
+          <t>A 21878-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45328</v>
+        <v>45784.40392361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4346,14 +4346,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 23311-2025</t>
+          <t>A 38074-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45791.60857638889</v>
+        <v>45160.78711805555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4403,14 +4403,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25928-2023</t>
+          <t>A 43938-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45090.67364583333</v>
+        <v>45572.46334490741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4460,14 +4460,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31617-2021</t>
+          <t>A 25928-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44369.58694444445</v>
+        <v>45090.67364583333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35526-2023</t>
+          <t>A 22424-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45147</v>
+        <v>45786.56738425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4574,14 +4574,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39188-2025</t>
+          <t>A 4783-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45888.67532407407</v>
+        <v>45328</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3237-2023</t>
+          <t>A 23311-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44946.84690972222</v>
+        <v>45791.60857638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4688,14 +4688,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31724-2023</t>
+          <t>A 39188-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45117.91390046296</v>
+        <v>45888.67532407407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4745,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31726-2023</t>
+          <t>A 56312-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45117.92457175926</v>
+        <v>45974.62810185185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4802,14 +4802,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4119-2026</t>
+          <t>A 47522-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46044.6099537037</v>
+        <v>45587.63065972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4864,14 +4864,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47522-2024</t>
+          <t>A 31617-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45587.63065972222</v>
+        <v>44369.58694444445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4883,13 +4883,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4933,7 +4928,7 @@
         <v>45288</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,14 +4978,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61671-2022</t>
+          <t>A 35526-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44917.3327662037</v>
+        <v>45147</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5003,7 +4998,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5040,14 +5035,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25698-2025</t>
+          <t>A 40276-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45803.66721064815</v>
+        <v>45895.35997685185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5059,8 +5054,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>4.7</v>
+        <v>7.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5097,14 +5097,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40276-2025</t>
+          <t>A 56305-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45895.35997685185</v>
+        <v>45974.61175925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5116,13 +5116,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5159,14 +5154,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25694-2025</t>
+          <t>A 40774-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45803.66457175926</v>
+        <v>45897.42164351852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5179,7 +5174,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5216,14 +5211,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25089-2025</t>
+          <t>A 25698-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45800.31393518519</v>
+        <v>45803.66721064815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5236,7 +5231,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5273,14 +5268,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40774-2025</t>
+          <t>A 3237-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45897.42164351852</v>
+        <v>44946.84690972222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5293,7 +5288,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5330,14 +5325,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56334-2024</t>
+          <t>A 25694-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45624.80081018519</v>
+        <v>45803.66457175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5350,7 +5345,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5387,14 +5382,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9086-2025</t>
+          <t>A 31724-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45713.67104166667</v>
+        <v>45117.91390046296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5407,7 +5402,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5444,14 +5439,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4587-2026</t>
+          <t>A 31726-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46048.33873842593</v>
+        <v>45117.92457175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5464,7 +5459,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5501,14 +5496,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 4588-2026</t>
+          <t>A 25089-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46048.34140046296</v>
+        <v>45800.31393518519</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5521,7 +5516,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5558,14 +5553,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61318-2023</t>
+          <t>A 61671-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45264</v>
+        <v>44917.3327662037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5578,7 +5573,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5615,14 +5610,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28073-2024</t>
+          <t>A 56334-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45476.58127314815</v>
+        <v>45624.80081018519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5635,7 +5630,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.4</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5672,14 +5667,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42483-2023</t>
+          <t>A 9086-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45180.82547453704</v>
+        <v>45713.67104166667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5692,7 +5687,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5729,14 +5724,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29794-2025</t>
+          <t>A 35491-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45825.66684027778</v>
+        <v>45855.87664351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5749,7 +5744,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5786,14 +5781,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47265-2024</t>
+          <t>A 43292-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45586.80979166667</v>
+        <v>45910.61802083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5806,7 +5801,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5843,14 +5838,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35491-2025</t>
+          <t>A 28073-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45855.87664351852</v>
+        <v>45476.58127314815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5863,7 +5858,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5900,14 +5895,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29306-2025</t>
+          <t>A 61318-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45824.45997685185</v>
+        <v>45264</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5920,7 +5915,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5957,14 +5952,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10918-2025</t>
+          <t>A 42483-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45722.77650462963</v>
+        <v>45180.82547453704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5972,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6014,14 +6009,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43292-2025</t>
+          <t>A 45185-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45910.61802083333</v>
+        <v>45919.54019675926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6029,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6071,14 +6066,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8570-2025</t>
+          <t>A 58137-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45709.64003472222</v>
+        <v>45982.62140046297</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6086,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6128,14 +6123,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9471-2025</t>
+          <t>A 29794-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45715.47013888889</v>
+        <v>45825.66684027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6143,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6185,14 +6180,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14032-2025</t>
+          <t>A 29306-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45740.35876157408</v>
+        <v>45824.45997685185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6200,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6242,14 +6237,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5072-2023</t>
+          <t>A 47265-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44958.60896990741</v>
+        <v>45586.80979166667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6257,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6299,14 +6294,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17925-2022</t>
+          <t>A 10918-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44683.57416666667</v>
+        <v>45722.77650462963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6319,7 +6314,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6356,14 +6351,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31594-2025</t>
+          <t>A 8570-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45833.70512731482</v>
+        <v>45709.64003472222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6376,7 +6371,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6413,14 +6408,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 54295-2023</t>
+          <t>A 9471-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45232</v>
+        <v>45715.47013888889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6433,7 +6428,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6470,14 +6465,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 45185-2025</t>
+          <t>A 14032-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45919.54019675926</v>
+        <v>45740.35876157408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6490,7 +6485,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6527,14 +6522,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25938-2021</t>
+          <t>A 58139-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44344</v>
+        <v>45982.62479166667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6547,7 +6542,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6584,14 +6579,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47980-2023</t>
+          <t>A 5072-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45204</v>
+        <v>44958.60896990741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6604,7 +6599,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6641,14 +6636,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9401-2024</t>
+          <t>A 17925-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45359.42094907408</v>
+        <v>44683.57416666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6661,7 +6656,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6698,14 +6693,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6074-2026</t>
+          <t>A 31594-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46052.66378472222</v>
+        <v>45833.70512731482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6718,7 +6713,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6755,14 +6750,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31804-2025</t>
+          <t>A 54295-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45834.55309027778</v>
+        <v>45232</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6775,7 +6770,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6812,14 +6807,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 32509-2025</t>
+          <t>A 47279-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45838.4722800926</v>
+        <v>45930.47650462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6832,7 +6827,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6869,14 +6864,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32862-2025</t>
+          <t>A 47258-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45839.5834837963</v>
+        <v>45930.44646990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6889,7 +6884,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6926,14 +6921,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32320-2025</t>
+          <t>A 25938-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45836.4041087963</v>
+        <v>44344</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6946,7 +6941,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>11.7</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6983,14 +6978,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32506-2025</t>
+          <t>A 47723-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45838.4687037037</v>
+        <v>45931.62960648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7003,7 +6998,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,14 +7035,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 9527-2023</t>
+          <t>A 47980-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44981</v>
+        <v>45204</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7060,7 +7055,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7097,14 +7092,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6103-2026</t>
+          <t>A 9401-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46052.9485300926</v>
+        <v>45359.42094907408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7117,7 +7112,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7154,14 +7149,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6104-2026</t>
+          <t>A 31804-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46052.94945601852</v>
+        <v>45834.55309027778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7174,7 +7169,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7211,14 +7206,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47279-2025</t>
+          <t>A 48212-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45930.47650462963</v>
+        <v>45933.49399305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7226,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7268,14 +7263,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47258-2025</t>
+          <t>A 47934-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45930.44646990741</v>
+        <v>45932.55678240741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7288,7 +7283,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7325,14 +7320,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47723-2025</t>
+          <t>A 32509-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45931.62960648148</v>
+        <v>45838.4722800926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7340,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7382,14 +7377,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48212-2025</t>
+          <t>A 32862-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45933.49399305556</v>
+        <v>45839.5834837963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7397,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7439,14 +7434,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11981-2025</t>
+          <t>A 32320-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45728</v>
+        <v>45836.4041087963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7454,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>11.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7491,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47934-2025</t>
+          <t>A 32506-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45932.55678240741</v>
+        <v>45838.4687037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7511,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7548,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3080-2024</t>
+          <t>A 49460-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45316</v>
+        <v>45939.31943287037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7568,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7605,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50981-2023</t>
+          <t>A 49269-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45218.52822916667</v>
+        <v>45938.50247685185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7629,13 +7624,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7672,14 +7662,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49460-2025</t>
+          <t>A 9527-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45939.31943287037</v>
+        <v>44981</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7692,7 +7682,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7729,14 +7719,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49269-2025</t>
+          <t>A 49277-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45938.50247685185</v>
+        <v>45938.50756944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7749,7 +7739,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7786,14 +7776,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 52102-2023</t>
+          <t>A 3080-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45223</v>
+        <v>45316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7806,7 +7796,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7843,14 +7833,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50302-2023</t>
+          <t>A 50981-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45216</v>
+        <v>45218.52822916667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,8 +7852,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7900,14 +7895,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 49277-2025</t>
+          <t>A 11981-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45938.50756944445</v>
+        <v>45728</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7920,7 +7915,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7957,14 +7952,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28158-2024</t>
+          <t>A 52102-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45476.93028935185</v>
+        <v>45223</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7977,7 +7972,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8014,14 +8009,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 435-2025</t>
+          <t>A 50302-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45664.37454861111</v>
+        <v>45216</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8034,7 +8029,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8071,14 +8066,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 36650-2025</t>
+          <t>A 51613-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45872.58658564815</v>
+        <v>45951.39907407408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8091,7 +8086,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8128,14 +8123,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 6071-2026</t>
+          <t>A 52075-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46052.66287037037</v>
+        <v>45952.65550925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8148,7 +8143,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8185,14 +8180,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7339-2025</t>
+          <t>A 52108-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45703.51598379629</v>
+        <v>45952.6910300926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8205,7 +8200,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8242,14 +8237,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59472-2023</t>
+          <t>A 52077-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45254</v>
+        <v>45952.65769675926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8262,7 +8257,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8299,14 +8294,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 51613-2025</t>
+          <t>A 52513-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45951.39907407408</v>
+        <v>45954.50944444445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8319,7 +8314,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8356,14 +8351,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9530-2023</t>
+          <t>A 52371-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44981</v>
+        <v>45953.89262731482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8376,7 +8371,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8413,14 +8408,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52075-2025</t>
+          <t>A 52511-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45952.65550925926</v>
+        <v>45954.50719907408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8433,7 +8428,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8470,14 +8465,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 52108-2025</t>
+          <t>A 52939-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45952.6910300926</v>
+        <v>45957.63912037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8490,7 +8485,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8527,14 +8522,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 52077-2025</t>
+          <t>A 28158-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45952.65769675926</v>
+        <v>45476.93028935185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8547,7 +8542,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8584,14 +8579,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52513-2025</t>
+          <t>A 52943-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45954.50944444445</v>
+        <v>45957.64331018519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8604,7 +8599,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8641,14 +8636,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52371-2025</t>
+          <t>A 435-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45953.89262731482</v>
+        <v>45664.37454861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8661,7 +8656,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8698,14 +8693,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52511-2025</t>
+          <t>A 52942-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45954.50719907408</v>
+        <v>45957.64267361111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8718,7 +8713,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8755,14 +8750,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 38108-2025</t>
+          <t>A 52370-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45882.5039699074</v>
+        <v>45953.88924768518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8775,7 +8770,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8812,14 +8807,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52939-2025</t>
+          <t>A 59472-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45957.63912037037</v>
+        <v>45254</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8832,7 +8827,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8869,14 +8864,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52943-2025</t>
+          <t>A 9530-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45957.64331018519</v>
+        <v>44981</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8889,7 +8884,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8926,14 +8921,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10610-2025</t>
+          <t>A 36650-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45721.59978009259</v>
+        <v>45872.58658564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8946,7 +8941,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8983,14 +8978,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6064-2025</t>
+          <t>A 59493-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45696.28527777778</v>
+        <v>45989.60912037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9003,7 +8998,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9040,14 +9035,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52942-2025</t>
+          <t>A 54783-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45957.64267361111</v>
+        <v>45966.61938657407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9055,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9097,14 +9092,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52370-2025</t>
+          <t>A 60089-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45953.88924768518</v>
+        <v>45993.72018518519</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9117,7 +9112,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9154,14 +9149,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31546-2022</t>
+          <t>A 60093-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44775</v>
+        <v>45993.72949074074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9174,7 +9169,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9211,14 +9206,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 7546-2026</t>
+          <t>A 30628-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46059.67181712963</v>
+        <v>45112.44275462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9231,7 +9226,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9268,14 +9263,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 64003-2025</t>
+          <t>A 30643-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46021.40840277778</v>
+        <v>45112.47034722222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9283,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9325,14 +9320,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54783-2025</t>
+          <t>A 38108-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45966.61938657407</v>
+        <v>45882.5039699074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9340,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9382,14 +9377,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30628-2023</t>
+          <t>A 60091-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45112.44275462963</v>
+        <v>45993.72268518519</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9402,7 +9397,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9439,14 +9434,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30643-2023</t>
+          <t>A 60092-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45112.47034722222</v>
+        <v>45993.72543981481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9459,7 +9454,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9496,14 +9491,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 64005-2025</t>
+          <t>A 59871-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46021.41178240741</v>
+        <v>45992.92416666666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9516,7 +9511,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9560,7 +9555,7 @@
         <v>45448.57018518518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9617,7 +9612,7 @@
         <v>45561.54084490741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,14 +9662,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 67455-2021</t>
+          <t>A 59872-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44524.38003472222</v>
+        <v>45992.93340277778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9687,7 +9682,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9724,14 +9719,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56312-2025</t>
+          <t>A 67455-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45974.62810185185</v>
+        <v>44524.38003472222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9744,7 +9739,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9781,14 +9776,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 18305-2025</t>
+          <t>A 60380-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45762.43462962963</v>
+        <v>45995.36851851852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9801,7 +9796,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9838,14 +9833,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58093-2023</t>
+          <t>A 18305-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45248</v>
+        <v>45762.43462962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9858,7 +9853,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9895,14 +9890,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54144-2022</t>
+          <t>A 58093-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44881</v>
+        <v>45248</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9915,7 +9910,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9952,14 +9947,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56305-2025</t>
+          <t>A 54144-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45974.61175925926</v>
+        <v>44881</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9972,7 +9967,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10009,14 +10004,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58137-2025</t>
+          <t>A 31546-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45982.62140046297</v>
+        <v>44775</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10029,7 +10024,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10066,14 +10061,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50057-2023</t>
+          <t>A 2497-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45215</v>
+        <v>46037.40177083333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10086,7 +10081,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10123,14 +10118,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 46511-2023</t>
+          <t>A 60181-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45197</v>
+        <v>45994.46494212963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10143,7 +10138,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10180,14 +10175,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 58139-2025</t>
+          <t>A 60376-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45982.62479166667</v>
+        <v>45995.36325231481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10200,7 +10195,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10237,14 +10232,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12124-2024</t>
+          <t>A 60946-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45377</v>
+        <v>45999.64741898148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10256,13 +10251,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10299,14 +10289,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 28201-2021</t>
+          <t>A 50057-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44355.6369675926</v>
+        <v>45215</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10319,7 +10309,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>10.5</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10356,14 +10346,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 56452-2022</t>
+          <t>A 46511-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44893.2884375</v>
+        <v>45197</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10376,7 +10366,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10413,14 +10403,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 6653-2022</t>
+          <t>A 28201-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44602</v>
+        <v>44355.6369675926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10433,7 +10423,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10470,14 +10460,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 64207-2021</t>
+          <t>A 56452-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44510.61469907407</v>
+        <v>44893.2884375</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10490,7 +10480,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10527,14 +10517,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 2006-2024</t>
+          <t>A 6653-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45308</v>
+        <v>44602</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10547,7 +10537,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10584,14 +10574,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 24368-2022</t>
+          <t>A 64207-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44726.43189814815</v>
+        <v>44510.61469907407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10604,7 +10594,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10641,14 +10631,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 59493-2025</t>
+          <t>A 2006-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45989.60912037037</v>
+        <v>45308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10661,7 +10651,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10698,14 +10688,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 27103-2024</t>
+          <t>A 24368-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45471.4950462963</v>
+        <v>44726.43189814815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10718,7 +10708,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10755,14 +10745,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60089-2025</t>
+          <t>A 27103-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45993.72018518519</v>
+        <v>45471.4950462963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10775,7 +10765,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10812,14 +10802,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60093-2025</t>
+          <t>A 4119-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45993.72949074074</v>
+        <v>46044.6099537037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10831,8 +10821,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10876,7 +10871,7 @@
         <v>45621.50773148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10926,14 +10921,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60091-2025</t>
+          <t>A 4587-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45993.72268518519</v>
+        <v>46048.33873842593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10946,7 +10941,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10983,14 +10978,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60092-2025</t>
+          <t>A 38586-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45993.72543981481</v>
+        <v>45162.63375</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11003,7 +10998,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11040,14 +11035,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59871-2025</t>
+          <t>A 4588-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45992.92416666666</v>
+        <v>46048.34140046296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11060,7 +11055,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11097,14 +11092,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 38586-2023</t>
+          <t>A 9159-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45162.63375</v>
+        <v>45358.39443287037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11117,7 +11112,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11154,14 +11149,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 59872-2025</t>
+          <t>A 31746-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45992.93340277778</v>
+        <v>45117</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11174,7 +11169,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11211,14 +11206,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 9159-2024</t>
+          <t>A 63725-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45358.39443287037</v>
+        <v>45276</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11231,7 +11226,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11268,14 +11263,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60380-2025</t>
+          <t>A 59613-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45995.36851851852</v>
+        <v>45254.64126157408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11288,7 +11283,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11325,14 +11320,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 31746-2023</t>
+          <t>A 62986-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45117</v>
+        <v>45272</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11345,7 +11340,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11382,14 +11377,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2497-2026</t>
+          <t>A 59816-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46037.40177083333</v>
+        <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11402,7 +11397,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11439,14 +11434,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 60181-2025</t>
+          <t>A 6074-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45994.46494212963</v>
+        <v>46052.66378472222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11496,14 +11491,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 63725-2023</t>
+          <t>A 30650-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45276</v>
+        <v>45112.47785879629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11516,7 +11511,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11553,14 +11548,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60376-2025</t>
+          <t>A 6103-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45995.36325231481</v>
+        <v>46052.9485300926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11573,7 +11568,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11610,14 +11605,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59613-2023</t>
+          <t>A 6104-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45254.64126157408</v>
+        <v>46052.94945601852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11630,7 +11625,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11667,14 +11662,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 60946-2025</t>
+          <t>A 30637-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45999.64741898148</v>
+        <v>45112.46177083333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11687,7 +11682,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11724,14 +11719,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62986-2023</t>
+          <t>A 6071-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45272</v>
+        <v>46052.66287037037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11744,7 +11739,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>7.5</v>
+        <v>4.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11781,14 +11776,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59816-2021</t>
+          <t>A 7339-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44494</v>
+        <v>45703.51598379629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11801,7 +11796,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11838,14 +11833,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 30650-2023</t>
+          <t>A 10610-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45112.47785879629</v>
+        <v>45721.59978009259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11858,7 +11853,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11895,14 +11890,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 30637-2023</t>
+          <t>A 6064-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45112.46177083333</v>
+        <v>45696.28527777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11915,7 +11910,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11959,7 +11954,7 @@
         <v>45288</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12009,14 +12004,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 18613-2025</t>
+          <t>A 7546-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45763.49810185185</v>
+        <v>46059.67181712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12029,7 +12024,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12066,14 +12061,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 18614-2025</t>
+          <t>A 18613-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45763.50244212963</v>
+        <v>45763.49810185185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12086,7 +12081,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>9.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12123,14 +12118,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 54289-2022</t>
+          <t>A 18614-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44882</v>
+        <v>45763.50244212963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12143,7 +12138,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12180,14 +12175,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 32208-2023</t>
+          <t>A 64003-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45119</v>
+        <v>46021.40840277778</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12200,7 +12195,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12237,14 +12232,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 42250-2023</t>
+          <t>A 54289-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45180.36814814815</v>
+        <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12257,7 +12252,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12294,14 +12289,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 42256-2023</t>
+          <t>A 64005-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45180</v>
+        <v>46021.41178240741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12314,7 +12309,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12351,14 +12346,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 1921-2024</t>
+          <t>A 32208-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45308.43202546296</v>
+        <v>45119</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12371,7 +12366,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12408,14 +12403,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 27498-2021</t>
+          <t>A 42250-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44351</v>
+        <v>45180.36814814815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12428,7 +12423,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12465,14 +12460,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 11795-2023</t>
+          <t>A 42256-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44994</v>
+        <v>45180</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12485,7 +12480,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12522,14 +12517,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 31711-2023</t>
+          <t>A 1921-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45117.82019675926</v>
+        <v>45308.43202546296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12542,7 +12537,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12579,14 +12574,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 31727-2023</t>
+          <t>A 27498-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45117</v>
+        <v>44351</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12599,7 +12594,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12636,14 +12631,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 31728-2023</t>
+          <t>A 11795-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45117</v>
+        <v>44994</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12693,14 +12688,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 11605-2024</t>
+          <t>A 12124-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45373.39921296296</v>
+        <v>45377</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12712,8 +12707,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12750,14 +12750,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 53055-2024</t>
+          <t>A 31711-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45611.46429398148</v>
+        <v>45117.82019675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12807,14 +12807,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 30745-2023</t>
+          <t>A 31727-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45112</v>
+        <v>45117</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12864,14 +12864,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 29658-2022</t>
+          <t>A 31728-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44754.67859953704</v>
+        <v>45117</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12921,14 +12921,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 57036-2024</t>
+          <t>A 11605-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45629.2527662037</v>
+        <v>45373.39921296296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12978,14 +12978,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 16534-2024</t>
+          <t>A 53055-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45408.43065972222</v>
+        <v>45611.46429398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13035,14 +13035,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 36131-2024</t>
+          <t>A 30745-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45534.33863425926</v>
+        <v>45112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13092,14 +13092,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 54287-2022</t>
+          <t>A 29658-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44882.37096064815</v>
+        <v>44754.67859953704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13149,14 +13149,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 50011-2023</t>
+          <t>A 57036-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45215</v>
+        <v>45629.2527662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13206,14 +13206,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 15112-2022</t>
+          <t>A 16534-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44658</v>
+        <v>45408.43065972222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13263,14 +13263,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1922-2024</t>
+          <t>A 36131-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45308.43416666667</v>
+        <v>45534.33863425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13320,14 +13320,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 61334-2022</t>
+          <t>A 54287-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44915</v>
+        <v>44882.37096064815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13377,14 +13377,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 51564-2024</t>
+          <t>A 50011-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45604.62042824074</v>
+        <v>45215</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13434,319 +13434,319 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
+          <t>A 15112-2022</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" s="2" t="inlineStr"/>
+    </row>
+    <row r="217" ht="15" customHeight="1">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>A 1922-2024</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>45308.43416666667</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" s="2" t="inlineStr"/>
+    </row>
+    <row r="218" ht="15" customHeight="1">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>A 61334-2022</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" s="2" t="inlineStr"/>
+    </row>
+    <row r="219" ht="15" customHeight="1">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>A 51564-2024</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>45604.62042824074</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" s="2" t="inlineStr"/>
+    </row>
+    <row r="220" ht="15" customHeight="1">
+      <c r="A220" t="inlineStr">
+        <is>
           <t>A 35491-2023</t>
         </is>
       </c>
-      <c r="B216" s="1" t="n">
+      <c r="B220" s="1" t="n">
         <v>45146</v>
       </c>
-      <c r="C216" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
+      <c r="C220" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
         <v>3.5</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0</v>
-      </c>
-      <c r="L216" t="n">
-        <v>0</v>
-      </c>
-      <c r="M216" t="n">
-        <v>0</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0</v>
-      </c>
-      <c r="P216" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q216" t="n">
-        <v>0</v>
-      </c>
-      <c r="R216" s="2" t="inlineStr"/>
-      <c r="U216">
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" s="2" t="inlineStr"/>
+      <c r="U220">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
         <v/>
       </c>
-      <c r="V216">
+      <c r="V220">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
         <v/>
       </c>
-      <c r="W216">
+      <c r="W220">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
         <v/>
       </c>
-      <c r="X216">
+      <c r="X220">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
         <v/>
       </c>
-      <c r="Y216">
+      <c r="Y220">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="217" ht="15" customHeight="1">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>A 7046-2025</t>
-        </is>
-      </c>
-      <c r="B217" s="1" t="n">
-        <v>45701.6434375</v>
-      </c>
-      <c r="C217" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0</v>
-      </c>
-      <c r="L217" t="n">
-        <v>0</v>
-      </c>
-      <c r="M217" t="n">
-        <v>0</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0</v>
-      </c>
-      <c r="O217" t="n">
-        <v>0</v>
-      </c>
-      <c r="P217" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q217" t="n">
-        <v>0</v>
-      </c>
-      <c r="R217" s="2" t="inlineStr"/>
-    </row>
-    <row r="218" ht="15" customHeight="1">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>A 30760-2023</t>
-        </is>
-      </c>
-      <c r="B218" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C218" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0</v>
-      </c>
-      <c r="L218" t="n">
-        <v>0</v>
-      </c>
-      <c r="M218" t="n">
-        <v>0</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0</v>
-      </c>
-      <c r="O218" t="n">
-        <v>0</v>
-      </c>
-      <c r="P218" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q218" t="n">
-        <v>0</v>
-      </c>
-      <c r="R218" s="2" t="inlineStr"/>
-    </row>
-    <row r="219" ht="15" customHeight="1">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>A 30762-2023</t>
-        </is>
-      </c>
-      <c r="B219" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C219" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" t="n">
-        <v>0</v>
-      </c>
-      <c r="M219" t="n">
-        <v>0</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0</v>
-      </c>
-      <c r="P219" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q219" t="n">
-        <v>0</v>
-      </c>
-      <c r="R219" s="2" t="inlineStr"/>
-    </row>
-    <row r="220" ht="15" customHeight="1">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>A 56331-2024</t>
-        </is>
-      </c>
-      <c r="B220" s="1" t="n">
-        <v>45624.79915509259</v>
-      </c>
-      <c r="C220" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0</v>
-      </c>
-      <c r="L220" t="n">
-        <v>0</v>
-      </c>
-      <c r="M220" t="n">
-        <v>0</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0</v>
-      </c>
-      <c r="O220" t="n">
-        <v>0</v>
-      </c>
-      <c r="P220" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>0</v>
-      </c>
-      <c r="R220" s="2" t="inlineStr"/>
-    </row>
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 51314-2023</t>
+          <t>A 7046-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45219</v>
+        <v>45701.6434375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13796,14 +13796,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 3238-2023</t>
+          <t>A 30760-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44946.84815972222</v>
+        <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13853,14 +13853,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 12160-2024</t>
+          <t>A 30762-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45377.80496527778</v>
+        <v>45112</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13910,14 +13910,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 40202-2021</t>
+          <t>A 56331-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44418</v>
+        <v>45624.79915509259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13967,14 +13967,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 54659-2022</t>
+          <t>A 51314-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44883</v>
+        <v>45219</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14024,14 +14024,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 31718-2023</t>
+          <t>A 3238-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45117.88568287037</v>
+        <v>44946.84815972222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14081,14 +14081,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 36532-2024</t>
+          <t>A 12160-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45537.44701388889</v>
+        <v>45377.80496527778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14138,14 +14138,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 43398-2024</t>
+          <t>A 40202-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45568.61006944445</v>
+        <v>44418</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14195,14 +14195,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 54311-2022</t>
+          <t>A 54659-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44882.41185185185</v>
+        <v>44883</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14252,14 +14252,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 22443-2023</t>
+          <t>A 31718-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45070</v>
+        <v>45117.88568287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14309,14 +14309,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 60792-2022</t>
+          <t>A 36532-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44914.42209490741</v>
+        <v>45537.44701388889</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14366,14 +14366,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 15969-2025</t>
+          <t>A 43398-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45749.54825231482</v>
+        <v>45568.61006944445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14423,14 +14423,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61026-2022</t>
+          <t>A 54311-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44914.8635300926</v>
+        <v>44882.41185185185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14480,14 +14480,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 47264-2024</t>
+          <t>A 22443-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45586.8034837963</v>
+        <v>45070</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14537,14 +14537,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 22541-2023</t>
+          <t>A 60792-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45071</v>
+        <v>44914.42209490741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14594,14 +14594,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 21751-2022</t>
+          <t>A 15969-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44708.43361111111</v>
+        <v>45749.54825231482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14651,14 +14651,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 1395-2024</t>
+          <t>A 61026-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45303</v>
+        <v>44914.8635300926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14708,14 +14708,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 2398-2024</t>
+          <t>A 47264-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45310</v>
+        <v>45586.8034837963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14765,14 +14765,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 30793-2023</t>
+          <t>A 22541-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45112.74090277778</v>
+        <v>45071</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14822,14 +14822,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 30795-2023</t>
+          <t>A 21751-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45112.75636574074</v>
+        <v>44708.43361111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14879,14 +14879,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 30800-2023</t>
+          <t>A 1395-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45112.77375</v>
+        <v>45303</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14936,14 +14936,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 52100-2023</t>
+          <t>A 2398-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45223</v>
+        <v>45310</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14993,14 +14993,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 28040-2024</t>
+          <t>A 30793-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45476.50533564815</v>
+        <v>45112.74090277778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15050,14 +15050,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 48513-2021</t>
+          <t>A 30795-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44449</v>
+        <v>45112.75636574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15107,14 +15107,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 18337-2023</t>
+          <t>A 30800-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45041</v>
+        <v>45112.77375</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15164,14 +15164,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11021-2022</t>
+          <t>A 52100-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44628.55136574074</v>
+        <v>45223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15221,14 +15221,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 11239-2023</t>
+          <t>A 28040-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44992</v>
+        <v>45476.50533564815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15278,14 +15278,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 31717-2023</t>
+          <t>A 48513-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45117</v>
+        <v>44449</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15335,14 +15335,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 31719-2023</t>
+          <t>A 18337-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45117.8900462963</v>
+        <v>45041</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15392,14 +15392,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 31745-2023</t>
+          <t>A 11021-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45117</v>
+        <v>44628.55136574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15449,14 +15449,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 56335-2024</t>
+          <t>A 11239-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45624.80724537037</v>
+        <v>44992</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15506,14 +15506,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 30801-2023</t>
+          <t>A 31717-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45112.78192129629</v>
+        <v>45117</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15563,14 +15563,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 70708-2021</t>
+          <t>A 31719-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44537</v>
+        <v>45117.8900462963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15620,14 +15620,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 31712-2023</t>
+          <t>A 31745-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45117.8322337963</v>
+        <v>45117</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15677,14 +15677,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 31715-2023</t>
+          <t>A 56335-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45117.84797453704</v>
+        <v>45624.80724537037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>12.4</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15734,14 +15734,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 58010-2022</t>
+          <t>A 30801-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44900</v>
+        <v>45112.78192129629</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15791,14 +15791,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 58011-2022</t>
+          <t>A 70708-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44900</v>
+        <v>44537</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15848,14 +15848,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 59517-2023</t>
+          <t>A 31712-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45254</v>
+        <v>45117.8322337963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15905,14 +15905,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 30724-2023</t>
+          <t>A 31715-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45112</v>
+        <v>45117.84797453704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>12.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15962,14 +15962,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 48354-2024</t>
+          <t>A 58010-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45590.56171296296</v>
+        <v>44900</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16019,14 +16019,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 30792-2023</t>
+          <t>A 58011-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45112.72848379629</v>
+        <v>44900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16076,14 +16076,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 57443-2024</t>
+          <t>A 59517-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45629.8953587963</v>
+        <v>45254</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16133,14 +16133,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 23330-2024</t>
+          <t>A 30724-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45453.46866898148</v>
+        <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16152,13 +16152,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16195,14 +16190,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 21573-2025</t>
+          <t>A 48354-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45782.82457175926</v>
+        <v>45590.56171296296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16215,7 +16210,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16252,14 +16247,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 21575-2025</t>
+          <t>A 30792-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45782.8308912037</v>
+        <v>45112.72848379629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16272,7 +16267,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16309,14 +16304,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 21574-2025</t>
+          <t>A 57443-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45782.82858796296</v>
+        <v>45629.8953587963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16329,7 +16324,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16366,14 +16361,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 23906-2024</t>
+          <t>A 23330-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45455.80586805556</v>
+        <v>45453.46866898148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,8 +16380,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16423,14 +16423,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 23907-2024</t>
+          <t>A 21573-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45455.80972222222</v>
+        <v>45782.82457175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16480,14 +16480,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 21878-2025</t>
+          <t>A 21575-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45784.40392361111</v>
+        <v>45782.8308912037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16537,14 +16537,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 43938-2024</t>
+          <t>A 21574-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45572.46334490741</v>
+        <v>45782.82858796296</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16594,14 +16594,14 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 22424-2025</t>
+          <t>A 23906-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45786.56738425926</v>
+        <v>45455.80586805556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z271"/>
+  <dimension ref="A1:Z272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 30777-2023</t>
+          <t>A 31843-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45112</v>
+        <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -907,136 +907,136 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 30777-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Vågbandad barkbock
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31843-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44370</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 9930-2024</t>
+          <t>A 30754-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45363.57760416667</v>
+        <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1083,1256 +1083,1256 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Havstulpanlav</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 30666-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 30671-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 32859-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45839.58148148148</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 32503-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45838.46440972222</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 47239-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45930.42038194444</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 30653-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 61244-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45645.68797453704</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Grönhjon</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 9930-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45363.57760416667</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 30662-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 31714-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45117.83711805556</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 47239-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45930.42038194444</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H9" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 30763-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30763-2023 artfynd.xlsx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30763-2023 karta.png", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30763-2023 FSC-klagomål.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30763-2023 FSC-klagomål mail.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30763-2023 tillsynsbegäran.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30763-2023 tillsynsbegäran mail.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30763-2023 prioriterade fågelarter.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 31742-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 30655-2023</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45112.49369212963</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Trädporella</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 30785-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 32503-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45838.46440972222</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 32859-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45839.58148148148</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30785-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 61244-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45645.68797453704</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Grönhjon</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 30653-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Tjäder</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 30662-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 30754-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Havstulpanlav</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 30666-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 30671-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 30655-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45112.49369212963</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Trädporella</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 31742-2023</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 30763-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30763-2023 artfynd.xlsx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30763-2023 karta.png", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30763-2023 FSC-klagomål.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30763-2023 FSC-klagomål mail.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30763-2023 tillsynsbegäran.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30763-2023 tillsynsbegäran mail.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30763-2023 prioriterade fågelarter.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3662,14 +3662,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12160-2024</t>
+          <t>A 30633-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45377.80496527778</v>
+        <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50011-2023</t>
+          <t>A 30772-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45215</v>
+        <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46511-2023</t>
+          <t>A 4782-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45197</v>
+        <v>45328</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 47934-2025</t>
+          <t>A 51229-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45932.55678240741</v>
+        <v>44868</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 27103-2024</t>
+          <t>A 30769-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45471.4950462963</v>
+        <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57443-2024</t>
+          <t>A 30794-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45629.8953587963</v>
+        <v>45112.75039351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50057-2023</t>
+          <t>A 50647-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45215</v>
+        <v>44459</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 29658-2022</t>
+          <t>A 6745-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44754.67859953704</v>
+        <v>44966</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4118,14 +4118,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47723-2025</t>
+          <t>A 18615-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45931.62960648148</v>
+        <v>45763.50521990741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 27498-2021</t>
+          <t>A 31889-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44351</v>
+        <v>45118</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48212-2025</t>
+          <t>A 38074-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45933.49399305556</v>
+        <v>45160.78711805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4289,14 +4289,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39188-2025</t>
+          <t>A 4783-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45888.67532407407</v>
+        <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4346,14 +4346,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21573-2025</t>
+          <t>A 35526-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45782.82457175926</v>
+        <v>45147</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4403,14 +4403,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 21575-2025</t>
+          <t>A 31617-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45782.8308912037</v>
+        <v>44369.58694444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4460,14 +4460,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 21878-2025</t>
+          <t>A 3237-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45784.40392361111</v>
+        <v>44946.84690972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23906-2024</t>
+          <t>A 31724-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45455.80586805556</v>
+        <v>45117.91390046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4574,14 +4574,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21574-2025</t>
+          <t>A 31726-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45782.82858796296</v>
+        <v>45117.92457175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 23907-2024</t>
+          <t>A 61671-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45455.80972222222</v>
+        <v>44917.3327662037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4688,14 +4688,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47522-2024</t>
+          <t>A 56334-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45587.63065972222</v>
+        <v>45624.80081018519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4707,13 +4707,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4750,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31617-2021</t>
+          <t>A 61318-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44369.58694444445</v>
+        <v>45264</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4770,7 +4765,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4807,14 +4802,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52102-2023</t>
+          <t>A 42483-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45223</v>
+        <v>45180.82547453704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4864,14 +4859,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 65143-2023</t>
+          <t>A 8570-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45288</v>
+        <v>45709.64003472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4884,7 +4879,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4921,14 +4916,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22424-2025</t>
+          <t>A 47265-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45786.56738425926</v>
+        <v>45586.80979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4941,7 +4936,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4978,14 +4973,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49277-2025</t>
+          <t>A 28073-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45938.50756944445</v>
+        <v>45476.58127314815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4998,7 +4993,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>7.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5035,14 +5030,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40276-2025</t>
+          <t>A 25928-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45895.35997685185</v>
+        <v>45090.67364583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5054,13 +5049,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5097,14 +5087,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60792-2022</t>
+          <t>A 5072-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44914.42209490741</v>
+        <v>44958.60896990741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5117,7 +5107,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5154,14 +5144,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49269-2025</t>
+          <t>A 17925-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45938.50247685185</v>
+        <v>44683.57416666667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5174,7 +5164,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5211,14 +5201,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9401-2024</t>
+          <t>A 54295-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45359.42094907408</v>
+        <v>45232</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5231,7 +5221,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5268,14 +5258,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43938-2024</t>
+          <t>A 29794-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45572.46334490741</v>
+        <v>45825.66684027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5288,7 +5278,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5325,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40774-2025</t>
+          <t>A 39188-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45897.42164351852</v>
+        <v>45888.67532407407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5345,7 +5335,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5382,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 54287-2022</t>
+          <t>A 25938-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44882.37096064815</v>
+        <v>44344</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5402,7 +5392,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5439,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23311-2025</t>
+          <t>A 47980-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45791.60857638889</v>
+        <v>45204</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5459,7 +5449,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5496,14 +5486,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30769-2023</t>
+          <t>A 29306-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45112</v>
+        <v>45824.45997685185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5516,7 +5506,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5553,14 +5543,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54659-2022</t>
+          <t>A 9401-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44883</v>
+        <v>45359.42094907408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5573,7 +5563,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5610,14 +5600,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30794-2023</t>
+          <t>A 47522-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45112.75039351852</v>
+        <v>45587.63065972222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5629,8 +5619,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5667,14 +5662,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31718-2023</t>
+          <t>A 10918-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45117.88568287037</v>
+        <v>45722.77650462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5687,7 +5682,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5724,14 +5719,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49460-2025</t>
+          <t>A 65143-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45939.31943287037</v>
+        <v>45288</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5744,7 +5739,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5781,14 +5776,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35526-2023</t>
+          <t>A 40276-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45147</v>
+        <v>45895.35997685185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5800,8 +5795,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5838,14 +5838,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28040-2024</t>
+          <t>A 9471-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45476.50533564815</v>
+        <v>45715.47013888889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5895,14 +5895,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 22834-2024</t>
+          <t>A 14032-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45448.57018518518</v>
+        <v>45740.35876157408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5952,14 +5952,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4782-2024</t>
+          <t>A 31594-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45328</v>
+        <v>45833.70512731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6009,14 +6009,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4783-2024</t>
+          <t>A 40774-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45328</v>
+        <v>45897.42164351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6066,14 +6066,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52075-2025</t>
+          <t>A 9527-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45952.65550925926</v>
+        <v>44981</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6123,14 +6123,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52108-2025</t>
+          <t>A 31804-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45952.6910300926</v>
+        <v>45834.55309027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6180,14 +6180,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52077-2025</t>
+          <t>A 32509-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45952.65769675926</v>
+        <v>45838.4722800926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6237,14 +6237,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3237-2023</t>
+          <t>A 32862-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44946.84690972222</v>
+        <v>45839.5834837963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6294,14 +6294,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51613-2025</t>
+          <t>A 3080-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45951.39907407408</v>
+        <v>45316</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,14 +6351,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32208-2023</t>
+          <t>A 50981-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45119</v>
+        <v>45218.52822916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6370,8 +6370,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6408,14 +6413,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52370-2025</t>
+          <t>A 32320-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45953.88924768518</v>
+        <v>45836.4041087963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6428,7 +6433,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>11.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6465,14 +6470,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52511-2025</t>
+          <t>A 32506-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45954.50719907408</v>
+        <v>45838.4687037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6485,7 +6490,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6522,14 +6527,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52371-2025</t>
+          <t>A 52102-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45953.89262731482</v>
+        <v>45223</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6542,7 +6547,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6579,14 +6584,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52513-2025</t>
+          <t>A 50302-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45954.50944444445</v>
+        <v>45216</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6599,7 +6604,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6636,14 +6641,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52943-2025</t>
+          <t>A 35491-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45957.64331018519</v>
+        <v>45855.87664351852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6656,7 +6661,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6693,14 +6698,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52939-2025</t>
+          <t>A 43292-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45957.63912037037</v>
+        <v>45910.61802083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6713,7 +6718,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6750,14 +6755,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52942-2025</t>
+          <t>A 11981-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45957.64267361111</v>
+        <v>45728</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6770,7 +6775,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6807,14 +6812,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43292-2025</t>
+          <t>A 45185-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45910.61802083333</v>
+        <v>45919.54019675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6827,7 +6832,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6864,14 +6869,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11605-2024</t>
+          <t>A 59472-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45373.39921296296</v>
+        <v>45254</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6884,7 +6889,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6921,14 +6926,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 70708-2021</t>
+          <t>A 9530-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44537</v>
+        <v>44981</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6941,7 +6946,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6978,14 +6983,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35491-2025</t>
+          <t>A 28158-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45855.87664351852</v>
+        <v>45476.93028935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6998,7 +7003,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7035,14 +7040,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25089-2025</t>
+          <t>A 435-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45800.31393518519</v>
+        <v>45664.37454861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7055,7 +7060,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7092,14 +7097,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25694-2025</t>
+          <t>A 36650-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45803.66457175926</v>
+        <v>45872.58658564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7112,7 +7117,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7149,14 +7154,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1395-2024</t>
+          <t>A 47279-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45303</v>
+        <v>45930.47650462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7169,7 +7174,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7206,14 +7211,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 54783-2025</t>
+          <t>A 47258-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45966.61938657407</v>
+        <v>45930.44646990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7226,7 +7231,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7263,14 +7268,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25698-2025</t>
+          <t>A 47723-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45803.66721064815</v>
+        <v>45931.62960648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7283,7 +7288,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7320,14 +7325,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3080-2024</t>
+          <t>A 30628-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45316</v>
+        <v>45112.44275462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7340,7 +7345,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7377,14 +7382,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30633-2023</t>
+          <t>A 30643-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45112</v>
+        <v>45112.47034722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7397,7 +7402,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7434,14 +7439,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 23330-2024</t>
+          <t>A 48212-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45453.46866898148</v>
+        <v>45933.49399305556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7453,13 +7458,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45185-2025</t>
+          <t>A 22834-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45919.54019675926</v>
+        <v>45448.57018518518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9086-2025</t>
+          <t>A 41910-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45713.67104166667</v>
+        <v>45561.54084490741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57036-2024</t>
+          <t>A 47934-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45629.2527662037</v>
+        <v>45932.55678240741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36532-2024</t>
+          <t>A 67455-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45537.44701388889</v>
+        <v>44524.38003472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9159-2024</t>
+          <t>A 49460-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45358.39443287037</v>
+        <v>45939.31943287037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 11021-2022</t>
+          <t>A 49269-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44628.55136574074</v>
+        <v>45938.50247685185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50302-2023</t>
+          <t>A 18305-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45216</v>
+        <v>45762.43462962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7895,14 +7895,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56305-2025</t>
+          <t>A 58093-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45974.61175925926</v>
+        <v>45248</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7952,14 +7952,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 53055-2024</t>
+          <t>A 38108-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45611.46429398148</v>
+        <v>45882.5039699074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8009,14 +8009,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47279-2025</t>
+          <t>A 54144-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45930.47650462963</v>
+        <v>44881</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47258-2025</t>
+          <t>A 49277-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45930.44646990741</v>
+        <v>45938.50756944445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8123,14 +8123,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28073-2024</t>
+          <t>A 31546-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45476.58127314815</v>
+        <v>44775</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56312-2025</t>
+          <t>A 50057-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45974.62810185185</v>
+        <v>45215</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 31889-2023</t>
+          <t>A 46511-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45118</v>
+        <v>45197</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29306-2025</t>
+          <t>A 28201-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45824.45997685185</v>
+        <v>44355.6369675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.2</v>
+        <v>10.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29794-2025</t>
+          <t>A 56452-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45825.66684027778</v>
+        <v>44893.2884375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 14032-2025</t>
+          <t>A 6653-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45740.35876157408</v>
+        <v>44602</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15112-2022</t>
+          <t>A 51613-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44658</v>
+        <v>45951.39907407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8522,14 +8522,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 3238-2023</t>
+          <t>A 64207-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44946.84815972222</v>
+        <v>44510.61469907407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8579,14 +8579,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10918-2025</t>
+          <t>A 2006-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45722.77650462963</v>
+        <v>45308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8636,14 +8636,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9471-2025</t>
+          <t>A 52075-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45715.47013888889</v>
+        <v>45952.65550925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8693,14 +8693,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59472-2023</t>
+          <t>A 52108-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45254</v>
+        <v>45952.6910300926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8750,14 +8750,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58139-2025</t>
+          <t>A 24368-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45982.62479166667</v>
+        <v>44726.43189814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8807,14 +8807,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31804-2025</t>
+          <t>A 52077-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45834.55309027778</v>
+        <v>45952.65769675926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8864,14 +8864,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58137-2025</t>
+          <t>A 52513-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45982.62140046297</v>
+        <v>45954.50944444445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8921,14 +8921,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 9530-2023</t>
+          <t>A 52371-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44981</v>
+        <v>45953.89262731482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8978,14 +8978,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31594-2025</t>
+          <t>A 52511-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45833.70512731482</v>
+        <v>45954.50719907408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9035,14 +9035,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 32509-2025</t>
+          <t>A 27103-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45838.4722800926</v>
+        <v>45471.4950462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22443-2023</t>
+          <t>A 52939-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45070</v>
+        <v>45957.63912037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9149,14 +9149,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 32506-2025</t>
+          <t>A 52943-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45838.4687037037</v>
+        <v>45957.64331018519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9206,14 +9206,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 32320-2025</t>
+          <t>A 55159-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45836.4041087963</v>
+        <v>45621.50773148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>11.7</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9263,14 +9263,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54295-2023</t>
+          <t>A 52942-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45232</v>
+        <v>45957.64267361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9320,14 +9320,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32862-2025</t>
+          <t>A 52370-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45839.5834837963</v>
+        <v>45953.88924768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9377,14 +9377,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30745-2023</t>
+          <t>A 38586-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45112</v>
+        <v>45162.63375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9434,14 +9434,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30801-2023</t>
+          <t>A 9159-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45112.78192129629</v>
+        <v>45358.39443287037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9491,14 +9491,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56331-2024</t>
+          <t>A 31746-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45624.79915509259</v>
+        <v>45117</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9548,14 +9548,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59493-2025</t>
+          <t>A 63725-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45989.60912037037</v>
+        <v>45276</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9605,14 +9605,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 11981-2025</t>
+          <t>A 59613-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45728</v>
+        <v>45254.64126157408</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9662,14 +9662,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 59871-2025</t>
+          <t>A 54783-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45992.92416666666</v>
+        <v>45966.61938657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9719,14 +9719,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60091-2025</t>
+          <t>A 62986-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45993.72268518519</v>
+        <v>45272</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>7.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9776,14 +9776,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60092-2025</t>
+          <t>A 59816-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45993.72543981481</v>
+        <v>44494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9833,14 +9833,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60089-2025</t>
+          <t>A 30650-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45993.72018518519</v>
+        <v>45112.47785879629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9890,14 +9890,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60093-2025</t>
+          <t>A 30637-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45993.72949074074</v>
+        <v>45112.46177083333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9947,14 +9947,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 435-2025</t>
+          <t>A 56312-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45664.37454861111</v>
+        <v>45974.62810185185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10004,14 +10004,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 59872-2025</t>
+          <t>A 56305-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45992.93340277778</v>
+        <v>45974.61175925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10061,14 +10061,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28158-2024</t>
+          <t>A 65118-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45476.93028935185</v>
+        <v>45288</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10118,14 +10118,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60181-2025</t>
+          <t>A 58137-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45994.46494212963</v>
+        <v>45982.62140046297</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10175,14 +10175,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 30637-2023</t>
+          <t>A 18613-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45112.46177083333</v>
+        <v>45763.49810185185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10232,14 +10232,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60376-2025</t>
+          <t>A 18614-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45995.36325231481</v>
+        <v>45763.50244212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10289,14 +10289,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60380-2025</t>
+          <t>A 58139-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45995.36851851852</v>
+        <v>45982.62479166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10346,14 +10346,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36650-2025</t>
+          <t>A 54289-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45872.58658564815</v>
+        <v>44882</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10403,14 +10403,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 51564-2024</t>
+          <t>A 59493-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45604.62042824074</v>
+        <v>45989.60912037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10460,14 +10460,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 2497-2026</t>
+          <t>A 32208-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46037.40177083333</v>
+        <v>45119</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10517,14 +10517,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38108-2025</t>
+          <t>A 42250-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45882.5039699074</v>
+        <v>45180.36814814815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10574,14 +10574,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 25938-2021</t>
+          <t>A 42256-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44344</v>
+        <v>45180</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10631,14 +10631,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60946-2025</t>
+          <t>A 1921-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45999.64741898148</v>
+        <v>45308.43202546296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10688,14 +10688,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 31546-2022</t>
+          <t>A 60089-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44775</v>
+        <v>45993.72018518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10745,14 +10745,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 31746-2023</t>
+          <t>A 60093-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45117</v>
+        <v>45993.72949074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10802,14 +10802,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 31711-2023</t>
+          <t>A 60091-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45117.82019675926</v>
+        <v>45993.72268518519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10859,14 +10859,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 31727-2023</t>
+          <t>A 60092-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45117</v>
+        <v>45993.72543981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10916,14 +10916,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 31728-2023</t>
+          <t>A 59871-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45117</v>
+        <v>45992.92416666666</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10973,14 +10973,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 25928-2023</t>
+          <t>A 27498-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45090.67364583333</v>
+        <v>44351</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11030,14 +11030,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51314-2023</t>
+          <t>A 59872-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45219</v>
+        <v>45992.93340277778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11087,14 +11087,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 50647-2021</t>
+          <t>A 11795-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44459</v>
+        <v>44994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11144,14 +11144,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4119-2026</t>
+          <t>A 60380-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46044.6099537037</v>
+        <v>45995.36851851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11163,13 +11163,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11206,14 +11201,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 47980-2023</t>
+          <t>A 2497-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45204</v>
+        <v>46037.40177083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11226,7 +11221,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11263,14 +11258,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 8570-2025</t>
+          <t>A 60181-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45709.64003472222</v>
+        <v>45994.46494212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11283,7 +11278,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11320,14 +11315,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 4588-2026</t>
+          <t>A 60376-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46048.34140046296</v>
+        <v>45995.36325231481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11340,7 +11335,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11377,14 +11372,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 18337-2023</t>
+          <t>A 60946-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45041</v>
+        <v>45999.64741898148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11397,7 +11392,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11434,14 +11429,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 4587-2026</t>
+          <t>A 31711-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46048.33873842593</v>
+        <v>45117.82019675926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11454,7 +11449,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11491,14 +11486,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 22541-2023</t>
+          <t>A 31727-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45071</v>
+        <v>45117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11511,7 +11506,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11548,14 +11543,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 40202-2021</t>
+          <t>A 31728-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44418</v>
+        <v>45117</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11568,7 +11563,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11605,14 +11600,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 67455-2021</t>
+          <t>A 11605-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44524.38003472222</v>
+        <v>45373.39921296296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11625,7 +11620,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11662,14 +11657,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6071-2026</t>
+          <t>A 53055-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46052.66287037037</v>
+        <v>45611.46429398148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11682,7 +11677,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11719,14 +11714,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6074-2026</t>
+          <t>A 30745-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46052.66378472222</v>
+        <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11739,7 +11734,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11776,14 +11771,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 30628-2023</t>
+          <t>A 4119-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45112.44275462963</v>
+        <v>46044.6099537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11795,8 +11790,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11833,14 +11833,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 30643-2023</t>
+          <t>A 4587-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45112.47034722222</v>
+        <v>46048.33873842593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11890,14 +11890,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 6103-2026</t>
+          <t>A 4588-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46052.9485300926</v>
+        <v>46048.34140046296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11947,14 +11947,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 10610-2025</t>
+          <t>A 29658-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45721.59978009259</v>
+        <v>44754.67859953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12004,14 +12004,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6064-2025</t>
+          <t>A 57036-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45696.28527777778</v>
+        <v>45629.2527662037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12061,14 +12061,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 7339-2025</t>
+          <t>A 16534-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45703.51598379629</v>
+        <v>45408.43065972222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12118,14 +12118,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6104-2026</t>
+          <t>A 6074-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46052.94945601852</v>
+        <v>46052.66378472222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12175,14 +12175,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 18615-2025</t>
+          <t>A 6103-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45763.50521990741</v>
+        <v>46052.9485300926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12232,14 +12232,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31717-2023</t>
+          <t>A 6104-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45117</v>
+        <v>46052.94945601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12289,14 +12289,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31719-2023</t>
+          <t>A 6071-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45117.8900462963</v>
+        <v>46052.66287037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12346,14 +12346,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 30800-2023</t>
+          <t>A 36131-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45112.77375</v>
+        <v>45534.33863425926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12403,14 +12403,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 24368-2022</t>
+          <t>A 7339-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44726.43189814815</v>
+        <v>45703.51598379629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12460,14 +12460,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 30650-2023</t>
+          <t>A 54287-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45112.47785879629</v>
+        <v>44882.37096064815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12517,14 +12517,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 7546-2026</t>
+          <t>A 50011-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46059.67181712963</v>
+        <v>45215</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12574,14 +12574,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 54289-2022</t>
+          <t>A 15112-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44882</v>
+        <v>44658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12631,14 +12631,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 1922-2024</t>
+          <t>A 10610-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45308.43416666667</v>
+        <v>45721.59978009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12688,14 +12688,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 64003-2025</t>
+          <t>A 6064-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46021.40840277778</v>
+        <v>45696.28527777778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12745,14 +12745,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 64005-2025</t>
+          <t>A 7546-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46021.41178240741</v>
+        <v>46059.67181712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12802,14 +12802,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 5072-2023</t>
+          <t>A 1922-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44958.60896990741</v>
+        <v>45308.43416666667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12859,14 +12859,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 65118-2023</t>
+          <t>A 64003-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45288</v>
+        <v>46021.40840277778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12916,14 +12916,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 56335-2024</t>
+          <t>A 64005-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45624.80724537037</v>
+        <v>46021.41178240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12973,14 +12973,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 43398-2024</t>
+          <t>A 61334-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45568.61006944445</v>
+        <v>44915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13030,14 +13030,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59517-2023</t>
+          <t>A 51564-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45254</v>
+        <v>45604.62042824074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13087,14 +13087,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 59816-2021</t>
+          <t>A 35491-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44494</v>
+        <v>45146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13140,18 +13140,38 @@
         <v>0</v>
       </c>
       <c r="R210" s="2" t="inlineStr"/>
+      <c r="U210">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="V210">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="W210">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="X210">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="Y210">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 6745-2023</t>
+          <t>A 7046-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44966</v>
+        <v>45701.6434375</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13164,7 +13184,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13201,14 +13221,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 12124-2024</t>
+          <t>A 30760-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45377</v>
+        <v>45112</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13220,13 +13240,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13263,14 +13278,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1921-2024</t>
+          <t>A 30762-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45308.43202546296</v>
+        <v>45112</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13283,7 +13298,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13320,14 +13335,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 42250-2023</t>
+          <t>A 56331-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45180.36814814815</v>
+        <v>45624.79915509259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13377,14 +13392,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 11239-2023</t>
+          <t>A 51314-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44992</v>
+        <v>45219</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13397,7 +13412,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13434,14 +13449,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 18613-2025</t>
+          <t>A 3238-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45763.49810185185</v>
+        <v>44946.84815972222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13454,7 +13469,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13491,14 +13506,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 18614-2025</t>
+          <t>A 12124-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45763.50244212963</v>
+        <v>45377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13510,8 +13525,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13548,14 +13568,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 36131-2024</t>
+          <t>A 12160-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45534.33863425926</v>
+        <v>45377.80496527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13568,7 +13588,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13605,14 +13625,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 31712-2023</t>
+          <t>A 40202-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45117.8322337963</v>
+        <v>44418</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13625,7 +13645,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13662,14 +13682,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 31715-2023</t>
+          <t>A 9920-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45117.84797453704</v>
+        <v>46073.44409722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13681,8 +13701,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>12.4</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13719,14 +13744,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 31745-2023</t>
+          <t>A 54659-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45117</v>
+        <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13739,7 +13764,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13776,14 +13801,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 47264-2024</t>
+          <t>A 31718-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45586.8034837963</v>
+        <v>45117.88568287037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13796,7 +13821,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13833,14 +13858,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 47265-2024</t>
+          <t>A 36532-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45586.80979166667</v>
+        <v>45537.44701388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13853,7 +13878,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13890,14 +13915,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 48354-2024</t>
+          <t>A 43398-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45590.56171296296</v>
+        <v>45568.61006944445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13910,7 +13935,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13947,14 +13972,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 42483-2023</t>
+          <t>A 54311-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45180.82547453704</v>
+        <v>44882.41185185185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13967,7 +13992,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14004,14 +14029,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 6653-2022</t>
+          <t>A 22443-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44602</v>
+        <v>45070</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14024,7 +14049,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14061,14 +14086,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 16534-2024</t>
+          <t>A 60792-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45408.43065972222</v>
+        <v>44914.42209490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14081,7 +14106,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14118,14 +14143,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 31724-2023</t>
+          <t>A 15969-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45117.91390046296</v>
+        <v>45749.54825231482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14138,7 +14163,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14175,14 +14200,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 31726-2023</t>
+          <t>A 61026-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45117.92457175926</v>
+        <v>44914.8635300926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14195,7 +14220,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14232,14 +14257,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 17925-2022</t>
+          <t>A 47264-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44683.57416666667</v>
+        <v>45586.8034837963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14252,7 +14277,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14289,14 +14314,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 21751-2022</t>
+          <t>A 22541-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44708.43361111111</v>
+        <v>45071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14309,7 +14334,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14346,14 +14371,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 30792-2023</t>
+          <t>A 21751-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45112.72848379629</v>
+        <v>44708.43361111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14366,7 +14391,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14403,14 +14428,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 7046-2025</t>
+          <t>A 1395-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45701.6434375</v>
+        <v>45303</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14423,7 +14448,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14460,14 +14485,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 42256-2023</t>
+          <t>A 2398-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45180</v>
+        <v>45310</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14480,7 +14505,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14517,14 +14542,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 41910-2024</t>
+          <t>A 30793-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45561.54084490741</v>
+        <v>45112.74090277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14574,14 +14599,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 62986-2023</t>
+          <t>A 30795-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45272</v>
+        <v>45112.75636574074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14594,7 +14619,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14631,14 +14656,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 28201-2021</t>
+          <t>A 30800-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44355.6369675926</v>
+        <v>45112.77375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14651,7 +14676,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>10.5</v>
+        <v>0.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14688,14 +14713,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 15969-2025</t>
+          <t>A 52100-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45749.54825231482</v>
+        <v>45223</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14745,14 +14770,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 59613-2023</t>
+          <t>A 28040-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45254.64126157408</v>
+        <v>45476.50533564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14765,7 +14790,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14802,14 +14827,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 61318-2023</t>
+          <t>A 48513-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45264</v>
+        <v>44449</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14822,7 +14847,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14859,14 +14884,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 55159-2024</t>
+          <t>A 18337-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45621.50773148148</v>
+        <v>45041</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14879,7 +14904,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14916,14 +14941,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 48513-2021</t>
+          <t>A 11021-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44449</v>
+        <v>44628.55136574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14936,7 +14961,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14973,14 +14998,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 54144-2022</t>
+          <t>A 11239-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44881</v>
+        <v>44992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14993,7 +15018,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15030,14 +15055,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 2006-2024</t>
+          <t>A 31717-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45308</v>
+        <v>45117</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15050,7 +15075,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15087,14 +15112,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 61671-2022</t>
+          <t>A 31719-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44917.3327662037</v>
+        <v>45117.8900462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15107,7 +15132,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15144,14 +15169,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 51229-2022</t>
+          <t>A 31745-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44868</v>
+        <v>45117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15164,7 +15189,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15201,14 +15226,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 61334-2022</t>
+          <t>A 56335-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44915</v>
+        <v>45624.80724537037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15221,7 +15246,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15258,14 +15283,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 30793-2023</t>
+          <t>A 30801-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45112.74090277778</v>
+        <v>45112.78192129629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15278,7 +15303,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15315,14 +15340,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 30795-2023</t>
+          <t>A 70708-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45112.75636574074</v>
+        <v>44537</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15335,7 +15360,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15372,14 +15397,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 30724-2023</t>
+          <t>A 31712-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45112</v>
+        <v>45117.8322337963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15392,7 +15417,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15429,14 +15454,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 54311-2022</t>
+          <t>A 31715-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44882.41185185185</v>
+        <v>45117.84797453704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15449,7 +15474,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>12.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15493,7 +15518,7 @@
         <v>44900</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15550,7 +15575,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15600,14 +15625,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 56334-2024</t>
+          <t>A 59517-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45624.80081018519</v>
+        <v>45254</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15620,7 +15645,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15657,14 +15682,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 61026-2022</t>
+          <t>A 30724-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44914.8635300926</v>
+        <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15677,7 +15702,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15714,14 +15739,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 63725-2023</t>
+          <t>A 48354-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45276</v>
+        <v>45590.56171296296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15734,7 +15759,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15771,14 +15796,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 9527-2023</t>
+          <t>A 30792-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44981</v>
+        <v>45112.72848379629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,7 +15816,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15828,14 +15853,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 30760-2023</t>
+          <t>A 57443-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45112</v>
+        <v>45629.8953587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15848,7 +15873,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15885,14 +15910,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 30762-2023</t>
+          <t>A 23330-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45112</v>
+        <v>45453.46866898148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15904,8 +15929,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15942,14 +15972,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 38586-2023</t>
+          <t>A 21573-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45162.63375</v>
+        <v>45782.82457175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15962,7 +15992,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15999,14 +16029,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 30772-2023</t>
+          <t>A 21575-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45112</v>
+        <v>45782.8308912037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16019,7 +16049,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16056,14 +16086,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 11795-2023</t>
+          <t>A 21574-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44994</v>
+        <v>45782.82858796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16076,7 +16106,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16113,14 +16143,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 35491-2023</t>
+          <t>A 23906-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45146</v>
+        <v>45455.80586805556</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16133,7 +16163,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16166,38 +16196,18 @@
         <v>0</v>
       </c>
       <c r="R263" s="2" t="inlineStr"/>
-      <c r="U263">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="V263">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="W263">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="X263">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="Y263">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 18305-2025</t>
+          <t>A 23907-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45762.43462962963</v>
+        <v>45455.80972222222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16210,7 +16220,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16247,14 +16257,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 52100-2023</t>
+          <t>A 21878-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45223</v>
+        <v>45784.40392361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16267,7 +16277,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16304,14 +16314,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 2398-2024</t>
+          <t>A 43938-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45310</v>
+        <v>45572.46334490741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16324,7 +16334,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16361,14 +16371,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 38074-2023</t>
+          <t>A 22424-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45160.78711805555</v>
+        <v>45786.56738425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,7 +16391,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16418,14 +16428,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 50981-2023</t>
+          <t>A 23311-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45218.52822916667</v>
+        <v>45791.60857638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16437,13 +16447,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16480,14 +16485,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 56452-2022</t>
+          <t>A 25698-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44893.2884375</v>
+        <v>45803.66721064815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16500,7 +16505,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16537,14 +16542,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 58093-2023</t>
+          <t>A 25694-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45248</v>
+        <v>45803.66457175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16557,7 +16562,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16591,17 +16596,17 @@
       </c>
       <c r="R270" s="2" t="inlineStr"/>
     </row>
-    <row r="271">
+    <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 64207-2021</t>
+          <t>A 25089-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44510.61469907407</v>
+        <v>45800.31393518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16614,7 +16619,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16647,6 +16652,63 @@
         <v>0</v>
       </c>
       <c r="R271" s="2" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>A 9086-2025</t>
+        </is>
+      </c>
+      <c r="B272" s="1" t="n">
+        <v>45713.67104166667</v>
+      </c>
+      <c r="C272" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45839.58148148148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45838.46440972222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45930.42038194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45645.68797453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45363.57760416667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45117.83711805556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112.49369212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45328</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>44868</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45112.75039351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44459</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44966</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45763.50521990741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45118</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>45160.78711805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45147</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44369.58694444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>44946.84690972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45117.91390046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45117.92457175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>44917.3327662037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45624.80081018519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>45264</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45180.82547453704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45709.64003472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45586.80979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45476.58127314815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45090.67364583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44958.60896990741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44683.57416666667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45232</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>45825.66684027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45888.67532407407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44344</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45204</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>45824.45997685185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45359.42094907408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45587.63065972222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>45722.77650462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>45288</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45895.35997685185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>45715.47013888889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45740.35876157408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45833.70512731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45897.42164351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44981</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45834.55309027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45838.4722800926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45839.5834837963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45316</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45218.52822916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45836.4041087963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>45838.4687037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>45223</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>45216</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45855.87664351852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45910.61802083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>45728</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45919.54019675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45254</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44981</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45476.93028935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45664.37454861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45872.58658564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45930.47650462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45930.44646990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45931.62960648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45112.44275462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45112.47034722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45933.49399305556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45448.57018518518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45561.54084490741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45932.55678240741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44524.38003472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45939.31943287037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45938.50247685185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45762.43462962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45248</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45882.5039699074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44881</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45938.50756944445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44775</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45215</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45197</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44355.6369675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44893.2884375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>44602</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45951.39907407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>44510.61469907407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45952.65550925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45952.6910300926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44726.43189814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45952.65769675926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45954.50944444445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45953.89262731482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45954.50719907408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45471.4950462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45957.63912037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45957.64331018519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45621.50773148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45957.64267361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45953.88924768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45162.63375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45358.39443287037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45117</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45276</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45254.64126157408</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>45966.61938657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45272</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>44494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>45112.47785879629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>45112.46177083333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>45974.62810185185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>45974.61175925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>45288</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>45982.62140046297</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45763.49810185185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45763.50244212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45982.62479166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44882</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>45989.60912037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45119</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45180.36814814815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45180</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>45308.43202546296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45993.72949074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>45993.72268518519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>45993.72543981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>45992.92416666666</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44351</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>45992.93340277778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>44994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>45995.36851851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>46037.40177083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45994.46494212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45995.36325231481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45999.64741898148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45117.82019675926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45117</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45373.39921296296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45611.46429398148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>46044.6099537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>46048.33873842593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>46048.34140046296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44754.67859953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45629.2527662037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>45408.43065972222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>46052.66378472222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>46052.9485300926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>46052.94945601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>46052.66287037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45534.33863425926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45703.51598379629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44882.37096064815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>45215</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>45721.59978009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>45696.28527777778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>46059.67181712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>45308.43416666667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>46021.40840277778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>46021.41178240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>45604.62042824074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>45146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>45701.6434375</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>45112</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>45112</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45624.79915509259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>45219</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>44946.84815972222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45377.80496527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44418</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>46073.44409722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45117.88568287037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45537.44701388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45568.61006944445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44882.41185185185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45070</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44914.42209490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45749.54825231482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44914.8635300926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45586.8034837963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44708.43361111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45303</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45310</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45112.74090277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45112.75636574074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45112.77375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>45223</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45476.50533564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44449</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45041</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44628.55136574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45117</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>45117.8900462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45624.80724537037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45112.78192129629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44537</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>45117.8322337963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>45117.84797453704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44900</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45254</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45590.56171296296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45112.72848379629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45629.8953587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45453.46866898148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45782.82457175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45782.8308912037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45782.82858796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45455.80586805556</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45455.80972222222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45784.40392361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45572.46334490741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45786.56738425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45791.60857638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45803.66721064815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45803.66457175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45800.31393518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45713.67104166667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44370</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45839.58148148148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45838.46440972222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45930.42038194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45645.68797453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45363.57760416667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45117.83711805556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112.49369212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45328</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>44868</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45112.75039351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44459</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44966</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45763.50521990741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45118</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>45160.78711805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45147</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44369.58694444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>44946.84690972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45117.91390046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45117.92457175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>44917.3327662037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45624.80081018519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>45264</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45180.82547453704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45709.64003472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45586.80979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45476.58127314815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45090.67364583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44958.60896990741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44683.57416666667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45232</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>45825.66684027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45888.67532407407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44344</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45204</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>45824.45997685185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45359.42094907408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45587.63065972222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>45722.77650462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>45288</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45895.35997685185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>45715.47013888889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45740.35876157408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45833.70512731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45897.42164351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44981</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45834.55309027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45838.4722800926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45839.5834837963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45316</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45218.52822916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45836.4041087963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>45838.4687037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>45223</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>45216</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45855.87664351852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45910.61802083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>45728</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45919.54019675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45254</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44981</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45476.93028935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45664.37454861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45872.58658564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45930.47650462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45930.44646990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45931.62960648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45112.44275462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45112.47034722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45933.49399305556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45448.57018518518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45561.54084490741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45932.55678240741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44524.38003472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45939.31943287037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45938.50247685185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45762.43462962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45248</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45882.5039699074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44881</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45938.50756944445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44775</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45215</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45197</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44355.6369675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44893.2884375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>44602</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45951.39907407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>44510.61469907407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45952.65550925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45952.6910300926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44726.43189814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45952.65769675926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45954.50944444445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45953.89262731482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45954.50719907408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45471.4950462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45957.63912037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45957.64331018519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45621.50773148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45957.64267361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45953.88924768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45162.63375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45358.39443287037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45117</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45276</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45254.64126157408</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>45966.61938657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45272</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>44494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>45112.47785879629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>45112.46177083333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>45974.62810185185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>45974.61175925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>45288</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>45982.62140046297</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45763.49810185185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45763.50244212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45982.62479166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44882</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>45989.60912037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45119</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45180.36814814815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45180</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>45308.43202546296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45993.72949074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>45993.72268518519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>45993.72543981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>45992.92416666666</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44351</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>45992.93340277778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>44994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>45995.36851851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>46037.40177083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45994.46494212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45995.36325231481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45999.64741898148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45117.82019675926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45117</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45373.39921296296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45611.46429398148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>46044.6099537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>46048.33873842593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>46048.34140046296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44754.67859953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45629.2527662037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>45408.43065972222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>46052.66378472222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>46052.9485300926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>46052.94945601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>46052.66287037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45534.33863425926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45703.51598379629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44882.37096064815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>45215</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>45721.59978009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>45696.28527777778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>46059.67181712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>45308.43416666667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>46021.40840277778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>46021.41178240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>45604.62042824074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>45146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>45701.6434375</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>45112</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>45112</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45624.79915509259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>45219</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>44946.84815972222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45377.80496527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44418</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>46073.44409722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45117.88568287037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45537.44701388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45568.61006944445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44882.41185185185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45070</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44914.42209490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45749.54825231482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44914.8635300926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45586.8034837963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44708.43361111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45303</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45310</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45112.74090277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45112.75636574074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45112.77375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>45223</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45476.50533564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44449</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45041</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44628.55136574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45117</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>45117.8900462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45624.80724537037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45112.78192129629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44537</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>45117.8322337963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>45117.84797453704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44900</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44900</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45254</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45590.56171296296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45112.72848379629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45629.8953587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45453.46866898148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45782.82457175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45782.8308912037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45782.82858796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45455.80586805556</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45455.80972222222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45784.40392361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45572.46334490741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45786.56738425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45791.60857638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45803.66721064815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45803.66457175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45800.31393518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45713.67104166667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31843-2021</t>
+          <t>A 30777-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44370</v>
+        <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -907,136 +907,136 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Vågbandad barkbock
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31843-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44370</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 30777-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Vågbandad barkbock
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 30754-2023</t>
+          <t>A 61244-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45112</v>
+        <v>45645.68797453704</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,17 +1049,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1083,741 +1083,749 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Grönhjon</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 9930-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45363.57760416667</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 30785-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 30754-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Havstulpanlav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 31714-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45117.83711805556</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30653-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 30662-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 30666-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>1.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 30671-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45112</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>4.9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 32859-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45839.58148148148</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 32503-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45838.46440972222</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 47239-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45930.42038194444</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 30653-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Tjäder</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 61244-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45645.68797453704</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Grönhjon</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 9930-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45363.57760416667</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 30662-2023</t>
+          <t>A 30655-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45112</v>
+        <v>45112.49369212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1830,16 +1838,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1854,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1864,49 +1872,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Trädporella</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 31714-2023</t>
+          <t>A 31742-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45117.83711805556</v>
+        <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1919,7 +1923,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1957,31 +1961,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
         <v/>
       </c>
     </row>
@@ -1995,7 +1999,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,14 +2081,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 31742-2023</t>
+          <t>A 47239-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45117</v>
+        <v>45930.42038194444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2097,7 +2101,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2106,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2121,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2131,49 +2135,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 30655-2023</t>
+          <t>A 32503-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45112.49369212963</v>
+        <v>45838.46440972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2220,45 +2220,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Trädporella</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 30785-2023</t>
+          <t>A 32859-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45112</v>
+        <v>45839.58148148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2309,27 +2309,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
         <v/>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,14 +2859,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 61943-2021</t>
+          <t>A 22114-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44502.41795138889</v>
+        <v>44323.72275462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2916,14 +2916,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35089-2021</t>
+          <t>A 61943-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44383</v>
+        <v>44502.41795138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2973,14 +2973,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 10302-2021</t>
+          <t>A 35089-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44257</v>
+        <v>44383</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3030,14 +3030,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22114-2021</t>
+          <t>A 10302-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44323.72275462963</v>
+        <v>44257</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,14 +3201,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30177-2021</t>
+          <t>A 32014-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44363</v>
+        <v>44370.63486111111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,13 +3220,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3263,14 +3258,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32014-2021</t>
+          <t>A 30177-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44370.63486111111</v>
+        <v>44363</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3282,8 +3277,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3605,14 +3605,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39556-2022</t>
+          <t>A 36532-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44818.56305555555</v>
+        <v>45537.44701388889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30633-2023</t>
+          <t>A 9159-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45112</v>
+        <v>45358.39443287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30772-2023</t>
+          <t>A 50011-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45112</v>
+        <v>45215</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 4782-2024</t>
+          <t>A 11021-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45328</v>
+        <v>44628.55136574074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51229-2022</t>
+          <t>A 46511-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44868</v>
+        <v>45197</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30769-2023</t>
+          <t>A 50302-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45112</v>
+        <v>45216</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30794-2023</t>
+          <t>A 39556-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45112.75039351852</v>
+        <v>44818.56305555555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50647-2021</t>
+          <t>A 12160-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44459</v>
+        <v>45377.80496527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6745-2023</t>
+          <t>A 53055-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44966</v>
+        <v>45611.46429398148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4118,14 +4118,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18615-2025</t>
+          <t>A 31617-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45763.50521990741</v>
+        <v>44369.58694444445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 31889-2023</t>
+          <t>A 52102-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45118</v>
+        <v>45223</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38074-2023</t>
+          <t>A 30637-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45160.78711805555</v>
+        <v>45112.46177083333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4289,14 +4289,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4783-2024</t>
+          <t>A 50057-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45328</v>
+        <v>45215</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4346,14 +4346,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35526-2023</t>
+          <t>A 29658-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45147</v>
+        <v>44754.67859953704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4403,14 +4403,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31617-2021</t>
+          <t>A 31889-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44369.58694444445</v>
+        <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4460,14 +4460,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3237-2023</t>
+          <t>A 51564-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44946.84690972222</v>
+        <v>45604.62042824074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31724-2023</t>
+          <t>A 27498-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45117.91390046296</v>
+        <v>44351</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4574,14 +4574,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31726-2023</t>
+          <t>A 15112-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45117.92457175926</v>
+        <v>44658</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61671-2022</t>
+          <t>A 3238-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44917.3327662037</v>
+        <v>44946.84815972222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,14 +4688,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56334-2024</t>
+          <t>A 59472-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45624.80081018519</v>
+        <v>45254</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4745,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61318-2023</t>
+          <t>A 25938-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45264</v>
+        <v>44344</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.2</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4802,14 +4802,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42483-2023</t>
+          <t>A 31746-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45180.82547453704</v>
+        <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4859,14 +4859,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8570-2025</t>
+          <t>A 22541-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45709.64003472222</v>
+        <v>45071</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4916,14 +4916,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47265-2024</t>
+          <t>A 40202-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45586.80979166667</v>
+        <v>44418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4973,14 +4973,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28073-2024</t>
+          <t>A 31711-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45476.58127314815</v>
+        <v>45117.82019675926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5030,14 +5030,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25928-2023</t>
+          <t>A 31727-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45090.67364583333</v>
+        <v>45117</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5087,14 +5087,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5072-2023</t>
+          <t>A 31728-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44958.60896990741</v>
+        <v>45117</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5144,14 +5144,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17925-2022</t>
+          <t>A 9530-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44683.57416666667</v>
+        <v>44981</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5201,14 +5201,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54295-2023</t>
+          <t>A 22443-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45232</v>
+        <v>45070</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5258,14 +5258,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29794-2025</t>
+          <t>A 67455-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45825.66684027778</v>
+        <v>44524.38003472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5315,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39188-2025</t>
+          <t>A 51314-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45888.67532407407</v>
+        <v>45219</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5372,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25938-2021</t>
+          <t>A 50647-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44344</v>
+        <v>44459</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5429,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47980-2023</t>
+          <t>A 54295-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45204</v>
+        <v>45232</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5486,14 +5486,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29306-2025</t>
+          <t>A 30628-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45824.45997685185</v>
+        <v>45112.44275462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9401-2024</t>
+          <t>A 30643-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45359.42094907408</v>
+        <v>45112.47034722222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5600,14 +5600,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47522-2024</t>
+          <t>A 47980-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45587.63065972222</v>
+        <v>45204</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5619,13 +5619,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5662,14 +5657,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10918-2025</t>
+          <t>A 8570-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45722.77650462963</v>
+        <v>45709.64003472222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5719,14 +5714,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 65143-2023</t>
+          <t>A 60792-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45288</v>
+        <v>44914.42209490741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5739,7 +5734,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5776,14 +5771,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40276-2025</t>
+          <t>A 18615-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45895.35997685185</v>
+        <v>45763.50521990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5795,13 +5790,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5838,14 +5828,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9471-2025</t>
+          <t>A 9401-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45715.47013888889</v>
+        <v>45359.42094907408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5858,7 +5848,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5895,14 +5885,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14032-2025</t>
+          <t>A 31717-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45740.35876157408</v>
+        <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5905,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5952,14 +5942,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31594-2025</t>
+          <t>A 31719-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45833.70512731482</v>
+        <v>45117.8900462963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5972,7 +5962,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6009,14 +5999,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40774-2025</t>
+          <t>A 18337-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45897.42164351852</v>
+        <v>45041</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6029,7 +6019,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6066,14 +6056,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9527-2023</t>
+          <t>A 30800-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44981</v>
+        <v>45112.77375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,14 +6113,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31804-2025</t>
+          <t>A 30745-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45834.55309027778</v>
+        <v>45112</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6143,7 +6133,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6180,14 +6170,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32509-2025</t>
+          <t>A 30801-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45838.4722800926</v>
+        <v>45112.78192129629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6200,7 +6190,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6237,14 +6227,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32862-2025</t>
+          <t>A 24368-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45839.5834837963</v>
+        <v>44726.43189814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6257,7 +6247,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6294,14 +6284,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3080-2024</t>
+          <t>A 56331-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45316</v>
+        <v>45624.79915509259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6314,7 +6304,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6351,14 +6341,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50981-2023</t>
+          <t>A 30650-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45218.52822916667</v>
+        <v>45112.47785879629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6370,13 +6360,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6413,14 +6398,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32320-2025</t>
+          <t>A 1921-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45836.4041087963</v>
+        <v>45308.43202546296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6433,7 +6418,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>11.7</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6470,14 +6455,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32506-2025</t>
+          <t>A 42250-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45838.4687037037</v>
+        <v>45180.36814814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6527,14 +6512,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52102-2023</t>
+          <t>A 54289-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45223</v>
+        <v>44882</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6547,7 +6532,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6584,14 +6569,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50302-2023</t>
+          <t>A 54287-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45216</v>
+        <v>44882.37096064815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6641,14 +6626,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35491-2025</t>
+          <t>A 1922-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45855.87664351852</v>
+        <v>45308.43416666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6661,7 +6646,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6698,14 +6683,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43292-2025</t>
+          <t>A 11239-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45910.61802083333</v>
+        <v>44992</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6718,7 +6703,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6755,14 +6740,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11981-2025</t>
+          <t>A 5072-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45728</v>
+        <v>44958.60896990741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6775,7 +6760,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6812,14 +6797,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45185-2025</t>
+          <t>A 18613-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45919.54019675926</v>
+        <v>45763.49810185185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6832,7 +6817,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6869,14 +6854,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 59472-2023</t>
+          <t>A 18614-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45254</v>
+        <v>45763.50244212963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6889,7 +6874,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6926,14 +6911,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9530-2023</t>
+          <t>A 65118-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44981</v>
+        <v>45288</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6983,14 +6968,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28158-2024</t>
+          <t>A 36131-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45476.93028935185</v>
+        <v>45534.33863425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7003,7 +6988,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,14 +7025,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 435-2025</t>
+          <t>A 31712-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45664.37454861111</v>
+        <v>45117.8322337963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7060,7 +7045,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7097,14 +7082,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36650-2025</t>
+          <t>A 31715-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45872.58658564815</v>
+        <v>45117.84797453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7117,7 +7102,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.1</v>
+        <v>12.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7154,14 +7139,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47279-2025</t>
+          <t>A 31745-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45930.47650462963</v>
+        <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7174,7 +7159,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7211,14 +7196,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47258-2025</t>
+          <t>A 56335-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45930.44646990741</v>
+        <v>45624.80724537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7216,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7268,14 +7253,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47723-2025</t>
+          <t>A 30769-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45931.62960648148</v>
+        <v>45112</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7288,7 +7273,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7325,14 +7310,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30628-2023</t>
+          <t>A 54659-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45112.44275462963</v>
+        <v>44883</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7330,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7382,14 +7367,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30643-2023</t>
+          <t>A 30794-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45112.47034722222</v>
+        <v>45112.75039351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7387,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7439,14 +7424,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48212-2025</t>
+          <t>A 31718-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45933.49399305556</v>
+        <v>45117.88568287037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7444,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7481,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 22834-2024</t>
+          <t>A 43398-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45448.57018518518</v>
+        <v>45568.61006944445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7501,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7538,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41910-2024</t>
+          <t>A 59517-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45561.54084490741</v>
+        <v>45254</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7558,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7595,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47934-2025</t>
+          <t>A 28201-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45932.55678240741</v>
+        <v>44355.6369675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7615,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>10.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7667,14 +7652,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 67455-2021</t>
+          <t>A 47264-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44524.38003472222</v>
+        <v>45586.8034837963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7672,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7724,14 +7709,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49460-2025</t>
+          <t>A 59816-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45939.31943287037</v>
+        <v>44494</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7729,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7781,14 +7766,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 49269-2025</t>
+          <t>A 15969-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45938.50247685185</v>
+        <v>45749.54825231482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7786,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7838,14 +7823,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 18305-2025</t>
+          <t>A 35526-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45762.43462962963</v>
+        <v>45147</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7858,7 +7843,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7895,14 +7880,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58093-2023</t>
+          <t>A 47265-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45248</v>
+        <v>45586.80979166667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7900,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7952,14 +7937,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38108-2025</t>
+          <t>A 28040-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45882.5039699074</v>
+        <v>45476.50533564815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7972,7 +7957,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8009,14 +7994,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 54144-2022</t>
+          <t>A 59613-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44881</v>
+        <v>45254.64126157408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +8014,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8066,14 +8051,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49277-2025</t>
+          <t>A 48354-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45938.50756944445</v>
+        <v>45590.56171296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8071,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8123,14 +8108,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 31546-2022</t>
+          <t>A 22834-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44775</v>
+        <v>45448.57018518518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8128,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8180,14 +8165,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 50057-2023</t>
+          <t>A 6745-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45215</v>
+        <v>44966</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8185,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8237,14 +8222,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46511-2023</t>
+          <t>A 42483-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45197</v>
+        <v>45180.82547453704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8242,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8294,14 +8279,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28201-2021</t>
+          <t>A 4782-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44355.6369675926</v>
+        <v>45328</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8299,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.5</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8351,14 +8336,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56452-2022</t>
+          <t>A 4783-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44893.2884375</v>
+        <v>45328</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8356,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8415,7 +8400,7 @@
         <v>44602</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8465,14 +8450,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 51613-2025</t>
+          <t>A 25928-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45951.39907407408</v>
+        <v>45090.67364583333</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8485,7 +8470,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8522,14 +8507,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 64207-2021</t>
+          <t>A 3237-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44510.61469907407</v>
+        <v>44946.84690972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8542,7 +8527,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8579,14 +8564,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 2006-2024</t>
+          <t>A 32208-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45308</v>
+        <v>45119</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8599,7 +8584,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8636,14 +8621,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52075-2025</t>
+          <t>A 61318-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45952.65550925926</v>
+        <v>45264</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8656,7 +8641,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8693,14 +8678,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52108-2025</t>
+          <t>A 16534-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45952.6910300926</v>
+        <v>45408.43065972222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8713,7 +8698,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8750,14 +8735,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 24368-2022</t>
+          <t>A 11605-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44726.43189814815</v>
+        <v>45373.39921296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8770,7 +8755,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8807,14 +8792,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52077-2025</t>
+          <t>A 70708-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45952.65769675926</v>
+        <v>44537</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8827,7 +8812,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8864,14 +8849,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52513-2025</t>
+          <t>A 1395-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45954.50944444445</v>
+        <v>45303</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8884,7 +8869,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8921,14 +8906,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52371-2025</t>
+          <t>A 39188-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45953.89262731482</v>
+        <v>45888.67532407407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8941,7 +8926,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8978,14 +8963,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52511-2025</t>
+          <t>A 3080-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45954.50719907408</v>
+        <v>45316</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8983,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9035,14 +9020,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27103-2024</t>
+          <t>A 31724-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45471.4950462963</v>
+        <v>45117.91390046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9055,7 +9040,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9092,14 +9077,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52939-2025</t>
+          <t>A 31726-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45957.63912037037</v>
+        <v>45117.92457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9112,7 +9097,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9149,14 +9134,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52943-2025</t>
+          <t>A 17925-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45957.64331018519</v>
+        <v>44683.57416666667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9169,7 +9154,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9213,7 +9198,7 @@
         <v>45621.50773148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9263,14 +9248,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52942-2025</t>
+          <t>A 21751-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45957.64267361111</v>
+        <v>44708.43361111111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9283,7 +9268,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9320,14 +9305,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52370-2025</t>
+          <t>A 47522-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45953.88924768518</v>
+        <v>45587.63065972222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9339,8 +9324,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9377,14 +9367,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 38586-2023</t>
+          <t>A 30792-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45162.63375</v>
+        <v>45112.72848379629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9397,7 +9387,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9434,14 +9424,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9159-2024</t>
+          <t>A 7046-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45358.39443287037</v>
+        <v>45701.6434375</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9454,7 +9444,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9491,14 +9481,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31746-2023</t>
+          <t>A 65143-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45117</v>
+        <v>45288</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9511,7 +9501,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9548,14 +9538,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63725-2023</t>
+          <t>A 42256-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45276</v>
+        <v>45180</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9568,7 +9558,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9605,14 +9595,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59613-2023</t>
+          <t>A 41910-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45254.64126157408</v>
+        <v>45561.54084490741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9625,7 +9615,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9662,14 +9652,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54783-2025</t>
+          <t>A 62986-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45966.61938657407</v>
+        <v>45272</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9682,7 +9672,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9719,14 +9709,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62986-2023</t>
+          <t>A 30633-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45272</v>
+        <v>45112</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9739,7 +9729,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9776,14 +9766,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 59816-2021</t>
+          <t>A 40276-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44494</v>
+        <v>45895.35997685185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9795,8 +9785,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>3.5</v>
+        <v>7.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9833,14 +9828,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 30650-2023</t>
+          <t>A 23330-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45112.47785879629</v>
+        <v>45453.46866898148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9852,8 +9847,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9890,14 +9890,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 30637-2023</t>
+          <t>A 40774-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45112.46177083333</v>
+        <v>45897.42164351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9947,14 +9947,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56312-2025</t>
+          <t>A 57036-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45974.62810185185</v>
+        <v>45629.2527662037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10004,14 +10004,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56305-2025</t>
+          <t>A 48513-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45974.61175925926</v>
+        <v>44449</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10061,14 +10061,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 65118-2023</t>
+          <t>A 54144-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45288</v>
+        <v>44881</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10118,14 +10118,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58137-2025</t>
+          <t>A 43292-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45982.62140046297</v>
+        <v>45910.61802083333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10175,14 +10175,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18613-2025</t>
+          <t>A 2006-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45763.49810185185</v>
+        <v>45308</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10232,14 +10232,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 18614-2025</t>
+          <t>A 35491-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45763.50244212963</v>
+        <v>45855.87664351852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10289,14 +10289,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 58139-2025</t>
+          <t>A 61671-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45982.62479166667</v>
+        <v>44917.3327662037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10346,14 +10346,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 54289-2022</t>
+          <t>A 51229-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44882</v>
+        <v>44868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10403,14 +10403,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59493-2025</t>
+          <t>A 61334-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45989.60912037037</v>
+        <v>44915</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10460,14 +10460,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 32208-2023</t>
+          <t>A 45185-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45119</v>
+        <v>45919.54019675926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10517,14 +10517,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 42250-2023</t>
+          <t>A 30793-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45180.36814814815</v>
+        <v>45112.74090277778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10574,14 +10574,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 42256-2023</t>
+          <t>A 30795-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45180</v>
+        <v>45112.75636574074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10631,14 +10631,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1921-2024</t>
+          <t>A 30724-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45308.43202546296</v>
+        <v>45112</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10688,14 +10688,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60089-2025</t>
+          <t>A 47279-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45993.72018518519</v>
+        <v>45930.47650462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10745,14 +10745,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60093-2025</t>
+          <t>A 47258-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45993.72949074074</v>
+        <v>45930.44646990741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10802,14 +10802,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60091-2025</t>
+          <t>A 47934-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45993.72268518519</v>
+        <v>45932.55678240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10859,14 +10859,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60092-2025</t>
+          <t>A 54311-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45993.72543981481</v>
+        <v>44882.41185185185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10916,14 +10916,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 59871-2025</t>
+          <t>A 58010-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45992.92416666666</v>
+        <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10973,14 +10973,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 27498-2021</t>
+          <t>A 58011-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44351</v>
+        <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11030,14 +11030,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59872-2025</t>
+          <t>A 47723-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45992.93340277778</v>
+        <v>45931.62960648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11087,14 +11087,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 11795-2023</t>
+          <t>A 56334-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44994</v>
+        <v>45624.80081018519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11144,14 +11144,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 60380-2025</t>
+          <t>A 61026-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45995.36851851852</v>
+        <v>44914.8635300926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11201,14 +11201,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2497-2026</t>
+          <t>A 63725-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46037.40177083333</v>
+        <v>45276</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11258,14 +11258,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60181-2025</t>
+          <t>A 9527-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45994.46494212963</v>
+        <v>44981</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11315,14 +11315,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 60376-2025</t>
+          <t>A 48212-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45995.36325231481</v>
+        <v>45933.49399305556</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11372,14 +11372,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 60946-2025</t>
+          <t>A 30760-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45999.64741898148</v>
+        <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11429,14 +11429,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 31711-2023</t>
+          <t>A 30762-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45117.82019675926</v>
+        <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11486,14 +11486,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 31727-2023</t>
+          <t>A 49277-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45117</v>
+        <v>45938.50756944445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11543,14 +11543,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 31728-2023</t>
+          <t>A 49269-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45117</v>
+        <v>45938.50247685185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11600,14 +11600,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 11605-2024</t>
+          <t>A 49460-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45373.39921296296</v>
+        <v>45939.31943287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11657,14 +11657,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53055-2024</t>
+          <t>A 38586-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45611.46429398148</v>
+        <v>45162.63375</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11714,14 +11714,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 30745-2023</t>
+          <t>A 30772-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11771,14 +11771,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4119-2026</t>
+          <t>A 11795-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46044.6099537037</v>
+        <v>44994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11790,13 +11790,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11833,14 +11828,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4587-2026</t>
+          <t>A 35491-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46048.33873842593</v>
+        <v>45146</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11853,7 +11848,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11886,18 +11881,38 @@
         <v>0</v>
       </c>
       <c r="R188" s="2" t="inlineStr"/>
+      <c r="U188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="V188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="W188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="X188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="Y188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4588-2026</t>
+          <t>A 52075-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46048.34140046296</v>
+        <v>45952.65550925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11947,14 +11962,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 29658-2022</t>
+          <t>A 52108-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44754.67859953704</v>
+        <v>45952.6910300926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11967,7 +11982,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12004,14 +12019,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 57036-2024</t>
+          <t>A 52077-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45629.2527662037</v>
+        <v>45952.65769675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12024,7 +12039,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12061,14 +12076,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 16534-2024</t>
+          <t>A 51613-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45408.43065972222</v>
+        <v>45951.39907407408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12081,7 +12096,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12118,14 +12133,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6074-2026</t>
+          <t>A 52370-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46052.66378472222</v>
+        <v>45953.88924768518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12138,7 +12153,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12175,14 +12190,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 6103-2026</t>
+          <t>A 18305-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46052.9485300926</v>
+        <v>45762.43462962963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12195,7 +12210,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12232,14 +12247,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6104-2026</t>
+          <t>A 52511-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46052.94945601852</v>
+        <v>45954.50719907408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12252,7 +12267,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12289,14 +12304,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 6071-2026</t>
+          <t>A 52371-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46052.66287037037</v>
+        <v>45953.89262731482</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12309,7 +12324,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12346,14 +12361,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36131-2024</t>
+          <t>A 52513-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45534.33863425926</v>
+        <v>45954.50944444445</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12366,7 +12381,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12403,14 +12418,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 7339-2025</t>
+          <t>A 52943-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45703.51598379629</v>
+        <v>45957.64331018519</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12423,7 +12438,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12460,14 +12475,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 54287-2022</t>
+          <t>A 52939-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44882.37096064815</v>
+        <v>45957.63912037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12480,7 +12495,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12517,14 +12532,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 50011-2023</t>
+          <t>A 52942-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45215</v>
+        <v>45957.64267361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12537,7 +12552,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12574,14 +12589,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 15112-2022</t>
+          <t>A 52100-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44658</v>
+        <v>45223</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12594,7 +12609,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12631,14 +12646,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 10610-2025</t>
+          <t>A 2398-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45721.59978009259</v>
+        <v>45310</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12651,7 +12666,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12688,14 +12703,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6064-2025</t>
+          <t>A 38074-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45696.28527777778</v>
+        <v>45160.78711805555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12708,7 +12723,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12745,14 +12760,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7546-2026</t>
+          <t>A 54783-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46059.67181712963</v>
+        <v>45966.61938657407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12765,7 +12780,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12802,14 +12817,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1922-2024</t>
+          <t>A 50981-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45308.43416666667</v>
+        <v>45218.52822916667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12821,8 +12836,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12859,14 +12879,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 64003-2025</t>
+          <t>A 56452-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46021.40840277778</v>
+        <v>44893.2884375</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12879,7 +12899,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12916,14 +12936,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 64005-2025</t>
+          <t>A 58093-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46021.41178240741</v>
+        <v>45248</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12936,7 +12956,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12973,14 +12993,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61334-2022</t>
+          <t>A 64207-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44915</v>
+        <v>44510.61469907407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12993,7 +13013,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13030,14 +13050,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 51564-2024</t>
+          <t>A 56305-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45604.62042824074</v>
+        <v>45974.61175925926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13050,7 +13070,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13087,14 +13107,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 35491-2023</t>
+          <t>A 56312-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45146</v>
+        <v>45974.62810185185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13107,7 +13127,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13140,38 +13160,18 @@
         <v>0</v>
       </c>
       <c r="R210" s="2" t="inlineStr"/>
-      <c r="U210">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="V210">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="W210">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="X210">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="Y210">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 7046-2025</t>
+          <t>A 27103-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45701.6434375</v>
+        <v>45471.4950462963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13221,14 +13221,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 30760-2023</t>
+          <t>A 57443-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45112</v>
+        <v>45629.8953587963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13278,14 +13278,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 30762-2023</t>
+          <t>A 58139-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45112</v>
+        <v>45982.62479166667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13335,14 +13335,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56331-2024</t>
+          <t>A 58137-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45624.79915509259</v>
+        <v>45982.62140046297</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13392,14 +13392,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 51314-2023</t>
+          <t>A 21573-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45219</v>
+        <v>45782.82457175926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13449,14 +13449,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 3238-2023</t>
+          <t>A 21575-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44946.84815972222</v>
+        <v>45782.8308912037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13506,14 +13506,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 12124-2024</t>
+          <t>A 21878-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45377</v>
+        <v>45784.40392361111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13525,13 +13525,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13568,14 +13563,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 12160-2024</t>
+          <t>A 23906-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45377.80496527778</v>
+        <v>45455.80586805556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13588,7 +13583,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13625,14 +13620,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 40202-2021</t>
+          <t>A 21574-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44418</v>
+        <v>45782.82858796296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13645,7 +13640,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13682,14 +13677,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9920-2026</t>
+          <t>A 23907-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46073.44409722222</v>
+        <v>45455.80972222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13701,13 +13696,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13744,14 +13734,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54659-2022</t>
+          <t>A 59493-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44883</v>
+        <v>45989.60912037037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13764,7 +13754,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13801,14 +13791,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 31718-2023</t>
+          <t>A 59871-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45117.88568287037</v>
+        <v>45992.92416666666</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13821,7 +13811,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13858,14 +13848,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 36532-2024</t>
+          <t>A 60091-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45537.44701388889</v>
+        <v>45993.72268518519</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13878,7 +13868,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13915,14 +13905,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 43398-2024</t>
+          <t>A 60092-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45568.61006944445</v>
+        <v>45993.72543981481</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13935,7 +13925,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13972,14 +13962,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 54311-2022</t>
+          <t>A 22424-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44882.41185185185</v>
+        <v>45786.56738425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13992,7 +13982,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14029,14 +14019,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 22443-2023</t>
+          <t>A 60089-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45070</v>
+        <v>45993.72018518519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14049,7 +14039,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14086,14 +14076,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 60792-2022</t>
+          <t>A 60093-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44914.42209490741</v>
+        <v>45993.72949074074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14106,7 +14096,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14143,14 +14133,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 15969-2025</t>
+          <t>A 59872-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45749.54825231482</v>
+        <v>45992.93340277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14163,7 +14153,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14200,14 +14190,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 61026-2022</t>
+          <t>A 60181-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44914.8635300926</v>
+        <v>45994.46494212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14220,7 +14210,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14257,14 +14247,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 47264-2024</t>
+          <t>A 43938-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45586.8034837963</v>
+        <v>45572.46334490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14277,7 +14267,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14314,14 +14304,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 22541-2023</t>
+          <t>A 60376-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45071</v>
+        <v>45995.36325231481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14334,7 +14324,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14371,14 +14361,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 21751-2022</t>
+          <t>A 60380-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44708.43361111111</v>
+        <v>45995.36851851852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14391,7 +14381,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14428,14 +14418,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 1395-2024</t>
+          <t>A 2497-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45303</v>
+        <v>46037.40177083333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14448,7 +14438,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14485,14 +14475,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 2398-2024</t>
+          <t>A 23311-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45310</v>
+        <v>45791.60857638889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14505,7 +14495,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14542,14 +14532,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 30793-2023</t>
+          <t>A 60946-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45112.74090277778</v>
+        <v>45999.64741898148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14562,7 +14552,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14599,14 +14589,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 30795-2023</t>
+          <t>A 4119-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45112.75636574074</v>
+        <v>46044.6099537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14618,8 +14608,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14656,14 +14651,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 30800-2023</t>
+          <t>A 4588-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45112.77375</v>
+        <v>46048.34140046296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14676,7 +14671,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14713,14 +14708,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 52100-2023</t>
+          <t>A 25089-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45223</v>
+        <v>45800.31393518519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14733,7 +14728,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14770,14 +14765,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 28040-2024</t>
+          <t>A 25694-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45476.50533564815</v>
+        <v>45803.66457175926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14790,7 +14785,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14827,14 +14822,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 48513-2021</t>
+          <t>A 4587-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44449</v>
+        <v>46048.33873842593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14847,7 +14842,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14884,14 +14879,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 18337-2023</t>
+          <t>A 25698-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45041</v>
+        <v>45803.66721064815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14904,7 +14899,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14941,14 +14936,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 11021-2022</t>
+          <t>A 6071-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44628.55136574074</v>
+        <v>46052.66287037037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14961,7 +14956,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14998,14 +14993,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 11239-2023</t>
+          <t>A 6074-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44992</v>
+        <v>46052.66378472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15018,7 +15013,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15055,14 +15050,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 31717-2023</t>
+          <t>A 9086-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45117</v>
+        <v>45713.67104166667</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15075,7 +15070,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15112,14 +15107,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 31719-2023</t>
+          <t>A 6103-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45117.8900462963</v>
+        <v>46052.9485300926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15132,7 +15127,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15169,14 +15164,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 31745-2023</t>
+          <t>A 10610-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45117</v>
+        <v>45721.59978009259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15189,7 +15184,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15226,14 +15221,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 56335-2024</t>
+          <t>A 6064-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45624.80724537037</v>
+        <v>45696.28527777778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15283,14 +15278,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 30801-2023</t>
+          <t>A 7339-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45112.78192129629</v>
+        <v>45703.51598379629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15303,7 +15298,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15340,14 +15335,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 70708-2021</t>
+          <t>A 6104-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44537</v>
+        <v>46052.94945601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15360,7 +15355,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15397,14 +15392,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 31712-2023</t>
+          <t>A 28073-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45117.8322337963</v>
+        <v>45476.58127314815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15417,7 +15412,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15454,14 +15449,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 31715-2023</t>
+          <t>A 7546-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45117.84797453704</v>
+        <v>46059.67181712963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15474,7 +15469,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>12.4</v>
+        <v>1.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15511,14 +15506,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 58010-2022</t>
+          <t>A 29306-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44900</v>
+        <v>45824.45997685185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15531,7 +15526,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15568,14 +15563,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 58011-2022</t>
+          <t>A 64003-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44900</v>
+        <v>46021.40840277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15588,7 +15583,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15625,14 +15620,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 59517-2023</t>
+          <t>A 64005-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45254</v>
+        <v>46021.41178240741</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15645,7 +15640,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15682,14 +15677,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 30724-2023</t>
+          <t>A 29794-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45112</v>
+        <v>45825.66684027778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15702,7 +15697,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15739,14 +15734,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 48354-2024</t>
+          <t>A 14032-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45590.56171296296</v>
+        <v>45740.35876157408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15759,7 +15754,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15796,14 +15791,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 30792-2023</t>
+          <t>A 10918-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45112.72848379629</v>
+        <v>45722.77650462963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15816,7 +15811,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15853,14 +15848,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 57443-2024</t>
+          <t>A 9471-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45629.8953587963</v>
+        <v>45715.47013888889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15873,7 +15868,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15910,14 +15905,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 23330-2024</t>
+          <t>A 31804-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45453.46866898148</v>
+        <v>45834.55309027778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,13 +15924,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15972,14 +15962,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 21573-2025</t>
+          <t>A 31594-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45782.82457175926</v>
+        <v>45833.70512731482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15992,7 +15982,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16029,14 +16019,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 21575-2025</t>
+          <t>A 32509-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45782.8308912037</v>
+        <v>45838.4722800926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16049,7 +16039,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16086,14 +16076,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 21574-2025</t>
+          <t>A 32506-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45782.82858796296</v>
+        <v>45838.4687037037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16106,7 +16096,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16143,14 +16133,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 23906-2024</t>
+          <t>A 32320-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45455.80586805556</v>
+        <v>45836.4041087963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16163,7 +16153,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4</v>
+        <v>11.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16200,14 +16190,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 23907-2024</t>
+          <t>A 32862-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45455.80972222222</v>
+        <v>45839.5834837963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16220,7 +16210,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16257,14 +16247,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 21878-2025</t>
+          <t>A 9920-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45784.40392361111</v>
+        <v>46073.44409722222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16276,8 +16266,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16314,14 +16309,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 43938-2024</t>
+          <t>A 12124-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45572.46334490741</v>
+        <v>45377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16333,8 +16328,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16371,14 +16371,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 22424-2025</t>
+          <t>A 11981-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45786.56738425926</v>
+        <v>45728</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16428,14 +16428,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 23311-2025</t>
+          <t>A 435-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45791.60857638889</v>
+        <v>45664.37454861111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16485,14 +16485,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 25698-2025</t>
+          <t>A 28158-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45803.66721064815</v>
+        <v>45476.93028935185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16542,14 +16542,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 25694-2025</t>
+          <t>A 36650-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45803.66457175926</v>
+        <v>45872.58658564815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16599,14 +16599,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 25089-2025</t>
+          <t>A 38108-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45800.31393518519</v>
+        <v>45882.5039699074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16656,14 +16656,14 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 9086-2025</t>
+          <t>A 31546-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45713.67104166667</v>
+        <v>44775</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z272"/>
+  <dimension ref="A1:Z273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31843-2021</t>
+          <t>A 30777-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44370</v>
+        <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -907,136 +907,136 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Vågbandad barkbock
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31843-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44370</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31843-2021 artfynd.xlsx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31843-2021 karta.png", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31843-2021 FSC-klagomål.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31843-2021 FSC-klagomål mail.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31843-2021 tillsynsbegäran.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31843-2021 tillsynsbegäran mail.docx", "A 31843-2021")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31843-2021 prioriterade fågelarter.docx", "A 31843-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 30777-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Vågbandad barkbock
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30777-2023 artfynd.xlsx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30777-2023 karta.png", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30777-2023 FSC-klagomål.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30777-2023 FSC-klagomål mail.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30777-2023 tillsynsbegäran.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30777-2023 tillsynsbegäran mail.docx", "A 30777-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 30754-2023</t>
+          <t>A 31742-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45112</v>
+        <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,17 +1049,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1083,1256 +1083,1256 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 30763-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30763-2023 artfynd.xlsx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30763-2023 karta.png", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30763-2023 FSC-klagomål.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30763-2023 FSC-klagomål mail.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30763-2023 tillsynsbegäran.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30763-2023 tillsynsbegäran mail.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30763-2023 prioriterade fågelarter.docx", "A 30763-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 30785-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 9930-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45363.57760416667</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 31714-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45117.83711805556</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 61244-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45645.68797453704</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Grönhjon</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 30754-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Havstulpanlav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30754-2023 artfynd.xlsx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30754-2023 karta.png", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30754-2023 FSC-klagomål.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30754-2023 FSC-klagomål mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30754-2023 tillsynsbegäran.docx", "A 30754-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30754-2023 tillsynsbegäran mail.docx", "A 30754-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 30666-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 30671-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 30653-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 30662-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 47239-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45930.42038194444</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>1.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 47239-2025 artfynd.xlsx", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 47239-2025 karta.png", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 47239-2025 FSC-klagomål.docx", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 47239-2025 FSC-klagomål mail.docx", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 47239-2025 tillsynsbegäran.docx", "A 47239-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 47239-2025 tillsynsbegäran mail.docx", "A 47239-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 30666-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H9" t="n">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 32503-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45838.46440972222</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 32859-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45839.58148148148</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30666-2023 artfynd.xlsx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30666-2023 karta.png", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30666-2023 FSC-klagomål.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30666-2023 FSC-klagomål mail.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30666-2023 tillsynsbegäran.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30666-2023 tillsynsbegäran mail.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30666-2023 prioriterade fågelarter.docx", "A 30666-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 30671-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30671-2023 artfynd.xlsx", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30671-2023 karta.png", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 30671-2023 karta knärot.png", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30671-2023 FSC-klagomål.docx", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30671-2023 FSC-klagomål mail.docx", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30671-2023 tillsynsbegäran.docx", "A 30671-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30671-2023 tillsynsbegäran mail.docx", "A 30671-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 32859-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45839.58148148148</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32859-2025 artfynd.xlsx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32859-2025 karta.png", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32859-2025 FSC-klagomål.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32859-2025 FSC-klagomål mail.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32859-2025 tillsynsbegäran.docx", "A 32859-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32859-2025 tillsynsbegäran mail.docx", "A 32859-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 32503-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45838.46440972222</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 30655-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45112.49369212963</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 32503-2025 artfynd.xlsx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 32503-2025 karta.png", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 32503-2025 FSC-klagomål.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 32503-2025 FSC-klagomål mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 32503-2025 tillsynsbegäran.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 32503-2025 tillsynsbegäran mail.docx", "A 32503-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 30653-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Tjäder</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30653-2023 artfynd.xlsx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30653-2023 karta.png", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30653-2023 FSC-klagomål.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30653-2023 FSC-klagomål mail.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30653-2023 tillsynsbegäran.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30653-2023 tillsynsbegäran mail.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30653-2023 prioriterade fågelarter.docx", "A 30653-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 61244-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45645.68797453704</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Grönhjon</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 61244-2024 artfynd.xlsx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 61244-2024 karta.png", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 61244-2024 FSC-klagomål.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 61244-2024 FSC-klagomål mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 61244-2024 tillsynsbegäran.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 61244-2024 tillsynsbegäran mail.docx", "A 61244-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 9930-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45363.57760416667</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 9930-2024 artfynd.xlsx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 9930-2024 karta.png", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 9930-2024 FSC-klagomål.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 9930-2024 FSC-klagomål mail.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 9930-2024 tillsynsbegäran.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 9930-2024 tillsynsbegäran mail.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 9930-2024 prioriterade fågelarter.docx", "A 9930-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 30662-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30662-2023 artfynd.xlsx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30662-2023 karta.png", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30662-2023 FSC-klagomål.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30662-2023 FSC-klagomål mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30662-2023 tillsynsbegäran.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30662-2023 tillsynsbegäran mail.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30662-2023 prioriterade fågelarter.docx", "A 30662-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 31714-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45117.83711805556</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31714-2023 artfynd.xlsx", "A 31714-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31714-2023 karta.png", "A 31714-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31714-2023 FSC-klagomål.docx", "A 31714-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31714-2023 FSC-klagomål mail.docx", "A 31714-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31714-2023 tillsynsbegäran.docx", "A 31714-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31714-2023 tillsynsbegäran mail.docx", "A 31714-2023")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31714-2023 prioriterade fågelarter.docx", "A 31714-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 30763-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30763-2023 artfynd.xlsx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30763-2023 karta.png", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30763-2023 FSC-klagomål.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30763-2023 FSC-klagomål mail.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30763-2023 tillsynsbegäran.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30763-2023 tillsynsbegäran mail.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 30763-2023 prioriterade fågelarter.docx", "A 30763-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 31742-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 31742-2023 artfynd.xlsx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 31742-2023 karta.png", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 31742-2023 FSC-klagomål.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 31742-2023 FSC-klagomål mail.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 31742-2023 tillsynsbegäran.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 31742-2023 tillsynsbegäran mail.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/fåglar/A 31742-2023 prioriterade fågelarter.docx", "A 31742-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 30655-2023</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45112.49369212963</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Trädporella</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30655-2023 artfynd.xlsx", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30655-2023 karta.png", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30655-2023 FSC-klagomål.docx", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30655-2023 FSC-klagomål mail.docx", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30655-2023 tillsynsbegäran.docx", "A 30655-2023")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30655-2023 tillsynsbegäran mail.docx", "A 30655-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 30785-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BOLLEBYGD</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/artfynd/A 30785-2023 artfynd.xlsx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/kartor/A 30785-2023 karta.png", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 30785-2023 FSC-klagomål.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 30785-2023 FSC-klagomål mail.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 30785-2023 tillsynsbegäran.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 30785-2023 tillsynsbegäran mail.docx", "A 30785-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2678,14 +2678,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 789-2022</t>
+          <t>A 10302-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44570.89018518518</v>
+        <v>44257</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24637-2022</t>
+          <t>A 789-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44727</v>
+        <v>44570.89018518518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,13 +2754,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2797,14 +2792,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30179-2021</t>
+          <t>A 22114-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44363</v>
+        <v>44323.72275462963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2816,13 +2811,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2859,14 +2849,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 61943-2021</t>
+          <t>A 24637-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44502.41795138889</v>
+        <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,8 +2868,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2916,14 +2911,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35089-2021</t>
+          <t>A 61943-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44383</v>
+        <v>44502.41795138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2936,7 +2931,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2973,14 +2968,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 10302-2021</t>
+          <t>A 30179-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44257</v>
+        <v>44363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,8 +2987,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3030,14 +3030,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22114-2021</t>
+          <t>A 68882-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44323.72275462963</v>
+        <v>44530.44055555556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,14 +3087,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 68882-2021</t>
+          <t>A 35089-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44530.44055555556</v>
+        <v>44383</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,14 +3201,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30177-2021</t>
+          <t>A 32014-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44363</v>
+        <v>44370.63486111111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,13 +3220,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3263,14 +3258,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32014-2021</t>
+          <t>A 22724-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44370.63486111111</v>
+        <v>44327</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3283,7 +3278,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3320,14 +3315,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3360-2022</t>
+          <t>A 32017-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44585</v>
+        <v>44370.63815972222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3340,7 +3335,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3377,14 +3372,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22724-2021</t>
+          <t>A 3360-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44327</v>
+        <v>44585</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3397,7 +3392,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3434,14 +3429,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32017-2021</t>
+          <t>A 69413-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44370.63815972222</v>
+        <v>44531.61189814815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3454,7 +3449,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3491,14 +3486,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 69413-2021</t>
+          <t>A 39556-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44531.61189814815</v>
+        <v>44818.56305555555</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3511,7 +3506,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3548,14 +3543,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 48285-2021</t>
+          <t>A 30177-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44449.77408564815</v>
+        <v>44363</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3567,8 +3562,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39556-2022</t>
+          <t>A 15112-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44818.56305555555</v>
+        <v>44658</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30633-2023</t>
+          <t>A 3238-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45112</v>
+        <v>44946.84815972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30772-2023</t>
+          <t>A 50011-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45112</v>
+        <v>45215</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 4782-2024</t>
+          <t>A 46511-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45328</v>
+        <v>45197</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51229-2022</t>
+          <t>A 59472-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44868</v>
+        <v>45254</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50647-2021</t>
+          <t>A 48285-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44459</v>
+        <v>44449.77408564815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30769-2023</t>
+          <t>A 12160-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45112</v>
+        <v>45377.80496527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30794-2023</t>
+          <t>A 51229-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45112.75039351852</v>
+        <v>44868</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6745-2023</t>
+          <t>A 61334-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44966</v>
+        <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4118,14 +4118,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31889-2023</t>
+          <t>A 9530-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45118</v>
+        <v>44981</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57443-2024</t>
+          <t>A 22443-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45629.8953587963</v>
+        <v>45070</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23330-2024</t>
+          <t>A 50057-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45453.46866898148</v>
+        <v>45215</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4251,13 +4251,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4294,14 +4289,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 18615-2025</t>
+          <t>A 29658-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45763.50521990741</v>
+        <v>44754.67859953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4314,7 +4309,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4351,14 +4346,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 25928-2023</t>
+          <t>A 54295-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45090.67364583333</v>
+        <v>45232</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4371,7 +4366,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4408,14 +4403,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48212-2025</t>
+          <t>A 27498-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45933.49399305556</v>
+        <v>44351</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4428,7 +4423,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4465,14 +4460,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38074-2023</t>
+          <t>A 30793-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45160.78711805555</v>
+        <v>45112.74090277778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4485,7 +4480,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4522,14 +4517,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47934-2025</t>
+          <t>A 30795-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45932.55678240741</v>
+        <v>45112.75636574074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4542,7 +4537,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4579,14 +4574,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21573-2025</t>
+          <t>A 30724-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45782.82457175926</v>
+        <v>45112</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4599,7 +4594,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4636,14 +4631,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 21575-2025</t>
+          <t>A 30745-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45782.8308912037</v>
+        <v>45112</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4656,7 +4651,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4693,14 +4688,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4783-2024</t>
+          <t>A 30801-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45328</v>
+        <v>45112.78192129629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4713,7 +4708,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4750,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21574-2025</t>
+          <t>A 54311-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45782.82858796296</v>
+        <v>44882.41185185185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4770,7 +4765,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4807,14 +4802,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23906-2024</t>
+          <t>A 56331-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45455.80586805556</v>
+        <v>45624.79915509259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4827,7 +4822,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4864,14 +4859,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39188-2025</t>
+          <t>A 58010-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45888.67532407407</v>
+        <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4884,7 +4879,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4921,14 +4916,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23907-2024</t>
+          <t>A 58011-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45455.80972222222</v>
+        <v>44900</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4941,7 +4936,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4978,14 +4973,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21878-2025</t>
+          <t>A 56334-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45784.40392361111</v>
+        <v>45624.80081018519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4998,7 +4993,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5035,14 +5030,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47522-2024</t>
+          <t>A 61026-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45587.63065972222</v>
+        <v>44914.8635300926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5054,13 +5049,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5097,14 +5087,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 65143-2023</t>
+          <t>A 63725-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45288</v>
+        <v>45276</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5117,7 +5107,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5154,14 +5144,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43938-2024</t>
+          <t>A 31617-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45572.46334490741</v>
+        <v>44369.58694444445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5174,7 +5164,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5211,14 +5201,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40276-2025</t>
+          <t>A 52102-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45895.35997685185</v>
+        <v>45223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5230,13 +5220,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5273,14 +5258,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22424-2025</t>
+          <t>A 9527-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45786.56738425926</v>
+        <v>44981</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5293,7 +5278,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5330,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31617-2021</t>
+          <t>A 30760-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44369.58694444445</v>
+        <v>45112</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5350,7 +5335,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5387,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35526-2023</t>
+          <t>A 30762-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45147</v>
+        <v>45112</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5407,7 +5392,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5444,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40774-2025</t>
+          <t>A 60792-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45897.42164351852</v>
+        <v>44914.42209490741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5464,7 +5449,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.7</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5501,14 +5486,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23311-2025</t>
+          <t>A 9401-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45791.60857638889</v>
+        <v>45359.42094907408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5521,7 +5506,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5558,14 +5543,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 49460-2025</t>
+          <t>A 54287-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45939.31943287037</v>
+        <v>44882.37096064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5578,7 +5563,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5615,14 +5600,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3237-2023</t>
+          <t>A 30637-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44946.84690972222</v>
+        <v>45112.46177083333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5635,7 +5620,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5672,14 +5657,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31724-2023</t>
+          <t>A 38586-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45117.91390046296</v>
+        <v>45162.63375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5692,7 +5677,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5729,14 +5714,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31726-2023</t>
+          <t>A 51564-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45117.92457175926</v>
+        <v>45604.62042824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5749,7 +5734,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5786,14 +5771,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49269-2025</t>
+          <t>A 30769-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45938.50247685185</v>
+        <v>45112</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5806,7 +5791,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5843,14 +5828,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 61671-2022</t>
+          <t>A 54659-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44917.3327662037</v>
+        <v>44883</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5863,7 +5848,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5900,14 +5885,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25698-2025</t>
+          <t>A 30794-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45803.66721064815</v>
+        <v>45112.75039351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5920,7 +5905,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5957,14 +5942,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35491-2025</t>
+          <t>A 31718-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45855.87664351852</v>
+        <v>45117.88568287037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5962,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6014,14 +5999,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25694-2025</t>
+          <t>A 35526-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45803.66457175926</v>
+        <v>45147</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6019,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6071,14 +6056,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56334-2024</t>
+          <t>A 28040-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45624.80081018519</v>
+        <v>45476.50533564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6076,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6128,14 +6113,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43292-2025</t>
+          <t>A 22834-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45910.61802083333</v>
+        <v>45448.57018518518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6133,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6185,14 +6170,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25089-2025</t>
+          <t>A 4782-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45800.31393518519</v>
+        <v>45328</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6190,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6242,14 +6227,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45185-2025</t>
+          <t>A 4783-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45919.54019675926</v>
+        <v>45328</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6247,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6299,14 +6284,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49277-2025</t>
+          <t>A 3237-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45938.50756944445</v>
+        <v>44946.84690972222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6319,7 +6304,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6356,14 +6341,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61318-2023</t>
+          <t>A 32208-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45264</v>
+        <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6376,7 +6361,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6413,14 +6398,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9086-2025</t>
+          <t>A 30772-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45713.67104166667</v>
+        <v>45112</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6433,7 +6418,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6470,14 +6455,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42483-2023</t>
+          <t>A 1921-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45180.82547453704</v>
+        <v>45308.43202546296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6490,7 +6475,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6527,14 +6512,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47265-2024</t>
+          <t>A 42250-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45586.80979166667</v>
+        <v>45180.36814814815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6547,7 +6532,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6584,14 +6569,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28073-2024</t>
+          <t>A 25938-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45476.58127314815</v>
+        <v>44344</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6604,7 +6589,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.4</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6641,14 +6626,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8570-2025</t>
+          <t>A 11795-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45709.64003472222</v>
+        <v>44994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6661,7 +6646,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6698,14 +6683,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47279-2025</t>
+          <t>A 35491-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45930.47650462963</v>
+        <v>45146</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6718,7 +6703,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6751,18 +6736,38 @@
         <v>0</v>
       </c>
       <c r="R98" s="2" t="inlineStr"/>
+      <c r="U98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="V98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="W98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="X98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
+      <c r="Y98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5072-2023</t>
+          <t>A 31746-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44958.60896990741</v>
+        <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6775,7 +6780,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6812,14 +6817,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47258-2025</t>
+          <t>A 11605-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45930.44646990741</v>
+        <v>45373.39921296296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6832,7 +6837,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6869,14 +6874,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47723-2025</t>
+          <t>A 70708-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45931.62960648148</v>
+        <v>44537</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6889,7 +6894,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6926,14 +6931,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 29794-2025</t>
+          <t>A 18305-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45825.66684027778</v>
+        <v>45762.43462962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6946,7 +6951,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6983,14 +6988,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 17925-2022</t>
+          <t>A 31711-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44683.57416666667</v>
+        <v>45117.82019675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7003,7 +7008,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,14 +7045,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 54295-2023</t>
+          <t>A 31727-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45232</v>
+        <v>45117</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7060,7 +7065,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7097,14 +7102,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29306-2025</t>
+          <t>A 31728-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45824.45997685185</v>
+        <v>45117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7117,7 +7122,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7154,14 +7159,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10918-2025</t>
+          <t>A 1395-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45722.77650462963</v>
+        <v>45303</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7174,7 +7179,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7211,14 +7216,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25938-2021</t>
+          <t>A 3080-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44344</v>
+        <v>45316</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7236,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7268,14 +7273,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9471-2025</t>
+          <t>A 51314-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45715.47013888889</v>
+        <v>45219</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7288,7 +7293,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7325,14 +7330,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47980-2023</t>
+          <t>A 30633-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45204</v>
+        <v>45112</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7350,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7382,14 +7387,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14032-2025</t>
+          <t>A 50647-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45740.35876157408</v>
+        <v>44459</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7407,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7439,14 +7444,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9401-2024</t>
+          <t>A 23330-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45359.42094907408</v>
+        <v>45453.46866898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,8 +7463,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7506,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31594-2025</t>
+          <t>A 52100-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45833.70512731482</v>
+        <v>45223</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7526,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7563,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9527-2023</t>
+          <t>A 2398-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44981</v>
+        <v>45310</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7583,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7620,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31804-2025</t>
+          <t>A 47980-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45834.55309027778</v>
+        <v>45204</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7640,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7667,14 +7677,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32509-2025</t>
+          <t>A 57036-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45838.4722800926</v>
+        <v>45629.2527662037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7697,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7724,14 +7734,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32862-2025</t>
+          <t>A 36532-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45839.5834837963</v>
+        <v>45537.44701388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7754,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7781,14 +7791,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32320-2025</t>
+          <t>A 38074-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45836.4041087963</v>
+        <v>45160.78711805555</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7811,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>11.7</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7838,14 +7848,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32506-2025</t>
+          <t>A 9159-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45838.4687037037</v>
+        <v>45358.39443287037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,14 +7905,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3080-2024</t>
+          <t>A 8570-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45316</v>
+        <v>45709.64003472222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7925,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7952,14 +7962,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50981-2023</t>
+          <t>A 11021-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45218.52822916667</v>
+        <v>44628.55136574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7971,13 +7981,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8014,14 +8019,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 52102-2023</t>
+          <t>A 50981-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45223</v>
+        <v>45218.52822916667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,8 +8038,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8078,7 +8088,7 @@
         <v>45216</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8128,14 +8138,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51613-2025</t>
+          <t>A 56452-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45951.39907407408</v>
+        <v>44893.2884375</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8148,7 +8158,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8185,14 +8195,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11981-2025</t>
+          <t>A 58093-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45728</v>
+        <v>45248</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8205,7 +8215,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8242,14 +8252,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52075-2025</t>
+          <t>A 53055-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45952.65550925926</v>
+        <v>45611.46429398148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8262,7 +8272,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8299,14 +8309,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52108-2025</t>
+          <t>A 18337-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45952.6910300926</v>
+        <v>45041</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8319,7 +8329,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8356,14 +8366,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59472-2023</t>
+          <t>A 64207-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45254</v>
+        <v>44510.61469907407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8376,7 +8386,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8413,14 +8423,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52077-2025</t>
+          <t>A 22541-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45952.65769675926</v>
+        <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8433,7 +8443,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8470,14 +8480,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 9530-2023</t>
+          <t>A 40202-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44981</v>
+        <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8490,7 +8500,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8527,14 +8537,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28158-2024</t>
+          <t>A 31889-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45476.93028935185</v>
+        <v>45118</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8547,7 +8557,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8584,14 +8594,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 435-2025</t>
+          <t>A 11239-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45664.37454861111</v>
+        <v>44992</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8604,7 +8614,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8641,14 +8651,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52513-2025</t>
+          <t>A 27103-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45954.50944444445</v>
+        <v>45471.4950462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8661,7 +8671,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8698,14 +8708,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52371-2025</t>
+          <t>A 57443-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45953.89262731482</v>
+        <v>45629.8953587963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8718,7 +8728,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8755,14 +8765,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52511-2025</t>
+          <t>A 67455-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45954.50719907408</v>
+        <v>44524.38003472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8775,7 +8785,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8812,14 +8822,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 36650-2025</t>
+          <t>A 18613-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45872.58658564815</v>
+        <v>45763.49810185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8832,7 +8842,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8869,14 +8879,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52939-2025</t>
+          <t>A 18614-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45957.63912037037</v>
+        <v>45763.50244212963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8889,7 +8899,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8926,14 +8936,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52943-2025</t>
+          <t>A 30628-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45957.64331018519</v>
+        <v>45112.44275462963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8946,7 +8956,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8983,14 +8993,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52942-2025</t>
+          <t>A 30643-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45957.64267361111</v>
+        <v>45112.47034722222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9003,7 +9013,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9040,14 +9050,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52370-2025</t>
+          <t>A 36131-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45953.88924768518</v>
+        <v>45534.33863425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9070,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9097,14 +9107,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30628-2023</t>
+          <t>A 25928-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45112.44275462963</v>
+        <v>45090.67364583333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9117,7 +9127,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9154,14 +9164,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30643-2023</t>
+          <t>A 31712-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45112.47034722222</v>
+        <v>45117.8322337963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9174,7 +9184,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9211,14 +9221,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 22834-2024</t>
+          <t>A 31715-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45448.57018518518</v>
+        <v>45117.84797453704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9231,7 +9241,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>12.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9268,14 +9278,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 41910-2024</t>
+          <t>A 31745-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45561.54084490741</v>
+        <v>45117</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9298,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9325,14 +9335,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 38108-2025</t>
+          <t>A 47264-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45882.5039699074</v>
+        <v>45586.8034837963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9355,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9382,14 +9392,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 67455-2021</t>
+          <t>A 18615-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44524.38003472222</v>
+        <v>45763.50521990741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9402,7 +9412,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9439,14 +9449,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 18305-2025</t>
+          <t>A 21573-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45762.43462962963</v>
+        <v>45782.82457175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9459,7 +9469,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9496,14 +9506,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58093-2023</t>
+          <t>A 21575-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45248</v>
+        <v>45782.8308912037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9516,7 +9526,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9553,14 +9563,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 54144-2022</t>
+          <t>A 31717-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44881</v>
+        <v>45117</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9573,7 +9583,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9610,14 +9620,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54783-2025</t>
+          <t>A 31719-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45966.61938657407</v>
+        <v>45117.8900462963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9630,7 +9640,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9667,14 +9677,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 31546-2022</t>
+          <t>A 47265-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44775</v>
+        <v>45586.80979166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9687,7 +9697,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9724,14 +9734,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 50057-2023</t>
+          <t>A 21878-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45215</v>
+        <v>45784.40392361111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9744,7 +9754,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9781,14 +9791,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46511-2023</t>
+          <t>A 30800-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45197</v>
+        <v>45112.77375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9801,7 +9811,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9838,14 +9848,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 28201-2021</t>
+          <t>A 23906-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44355.6369675926</v>
+        <v>45455.80586805556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9858,7 +9868,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9895,14 +9905,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56452-2022</t>
+          <t>A 21574-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44893.2884375</v>
+        <v>45782.82858796296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9915,7 +9925,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9952,14 +9962,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6653-2022</t>
+          <t>A 48354-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44602</v>
+        <v>45590.56171296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9972,7 +9982,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10009,14 +10019,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56312-2025</t>
+          <t>A 42483-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45974.62810185185</v>
+        <v>45180.82547453704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10029,7 +10039,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10066,14 +10076,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 64207-2021</t>
+          <t>A 24368-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44510.61469907407</v>
+        <v>44726.43189814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10086,7 +10096,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10123,14 +10133,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56305-2025</t>
+          <t>A 6653-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45974.61175925926</v>
+        <v>44602</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10143,7 +10153,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10180,14 +10190,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2006-2024</t>
+          <t>A 39188-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45308</v>
+        <v>45888.67532407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10200,7 +10210,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10237,14 +10247,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 24368-2022</t>
+          <t>A 30650-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44726.43189814815</v>
+        <v>45112.47785879629</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10257,7 +10267,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10294,14 +10304,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 27103-2024</t>
+          <t>A 47522-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45471.4950462963</v>
+        <v>45587.63065972222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10313,8 +10323,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10351,14 +10366,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 55159-2024</t>
+          <t>A 16534-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45621.50773148148</v>
+        <v>45408.43065972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10371,7 +10386,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10408,14 +10423,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 38586-2023</t>
+          <t>A 23907-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45162.63375</v>
+        <v>45455.80972222222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10428,7 +10443,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10465,14 +10480,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 9159-2024</t>
+          <t>A 65143-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45358.39443287037</v>
+        <v>45288</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10485,7 +10500,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10522,14 +10537,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 58137-2025</t>
+          <t>A 54289-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45982.62140046297</v>
+        <v>44882</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10579,14 +10594,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 31746-2023</t>
+          <t>A 1922-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45117</v>
+        <v>45308.43416666667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10599,7 +10614,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10636,14 +10651,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58139-2025</t>
+          <t>A 22424-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45982.62479166667</v>
+        <v>45786.56738425926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10656,7 +10671,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10693,14 +10708,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 63725-2023</t>
+          <t>A 40276-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45276</v>
+        <v>45895.35997685185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10712,8 +10727,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10750,14 +10770,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 59613-2023</t>
+          <t>A 40774-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45254.64126157408</v>
+        <v>45897.42164351852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10770,7 +10790,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10807,14 +10827,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 59493-2025</t>
+          <t>A 5072-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45989.60912037037</v>
+        <v>44958.60896990741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10827,7 +10847,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10864,14 +10884,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62986-2023</t>
+          <t>A 43938-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45272</v>
+        <v>45572.46334490741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10884,7 +10904,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.5</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10921,14 +10941,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60089-2025</t>
+          <t>A 65118-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45993.72018518519</v>
+        <v>45288</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10978,14 +10998,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60093-2025</t>
+          <t>A 56335-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45993.72949074074</v>
+        <v>45624.80724537037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10998,7 +11018,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11035,14 +11055,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59816-2021</t>
+          <t>A 43398-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44494</v>
+        <v>45568.61006944445</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11055,7 +11075,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11092,14 +11112,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 60091-2025</t>
+          <t>A 23311-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45993.72268518519</v>
+        <v>45791.60857638889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11112,7 +11132,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11149,14 +11169,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 60092-2025</t>
+          <t>A 59517-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45993.72543981481</v>
+        <v>45254</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11169,7 +11189,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11206,14 +11226,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 59871-2025</t>
+          <t>A 59816-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45992.92416666666</v>
+        <v>44494</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11226,7 +11246,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11263,14 +11283,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 30650-2023</t>
+          <t>A 6745-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45112.47785879629</v>
+        <v>44966</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11283,7 +11303,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11320,14 +11340,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 59872-2025</t>
+          <t>A 43292-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45992.93340277778</v>
+        <v>45910.61802083333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11340,7 +11360,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11377,14 +11397,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 30637-2023</t>
+          <t>A 35491-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45112.46177083333</v>
+        <v>45855.87664351852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11397,7 +11417,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11434,14 +11454,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 60380-2025</t>
+          <t>A 25089-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45995.36851851852</v>
+        <v>45800.31393518519</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11454,7 +11474,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11491,14 +11511,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 2497-2026</t>
+          <t>A 25694-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46037.40177083333</v>
+        <v>45803.66457175926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11511,7 +11531,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11548,14 +11568,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60181-2025</t>
+          <t>A 31724-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45994.46494212963</v>
+        <v>45117.91390046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11568,7 +11588,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11605,14 +11625,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 60376-2025</t>
+          <t>A 31726-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45995.36325231481</v>
+        <v>45117.92457175926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11625,7 +11645,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11662,14 +11682,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 65118-2023</t>
+          <t>A 17925-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45288</v>
+        <v>44683.57416666667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11682,7 +11702,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11719,14 +11739,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 60946-2025</t>
+          <t>A 25698-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45999.64741898148</v>
+        <v>45803.66721064815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11739,7 +11759,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11776,14 +11796,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 18613-2025</t>
+          <t>A 45185-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45763.49810185185</v>
+        <v>45919.54019675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11796,7 +11816,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11833,14 +11853,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 18614-2025</t>
+          <t>A 21751-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45763.50244212963</v>
+        <v>44708.43361111111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11853,7 +11873,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>9.699999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11890,14 +11910,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 54289-2022</t>
+          <t>A 30792-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44882</v>
+        <v>45112.72848379629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11910,7 +11930,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11947,14 +11967,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 32208-2023</t>
+          <t>A 7046-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45119</v>
+        <v>45701.6434375</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11967,7 +11987,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12004,14 +12024,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 42250-2023</t>
+          <t>A 9086-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45180.36814814815</v>
+        <v>45713.67104166667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12024,7 +12044,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12061,14 +12081,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42256-2023</t>
+          <t>A 47279-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45180</v>
+        <v>45930.47650462963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12081,7 +12101,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12118,14 +12138,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1921-2024</t>
+          <t>A 47258-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45308.43202546296</v>
+        <v>45930.44646990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12138,7 +12158,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12175,14 +12195,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 27498-2021</t>
+          <t>A 42256-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44351</v>
+        <v>45180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12195,7 +12215,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12232,14 +12252,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11795-2023</t>
+          <t>A 41910-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44994</v>
+        <v>45561.54084490741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12252,7 +12272,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12289,14 +12309,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 4119-2026</t>
+          <t>A 47934-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46044.6099537037</v>
+        <v>45932.55678240741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12308,13 +12328,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12351,14 +12366,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 4587-2026</t>
+          <t>A 62986-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46048.33873842593</v>
+        <v>45272</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12371,7 +12386,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12408,14 +12423,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4588-2026</t>
+          <t>A 47723-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46048.34140046296</v>
+        <v>45931.62960648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12428,7 +12443,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12465,14 +12480,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 31711-2023</t>
+          <t>A 28073-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45117.82019675926</v>
+        <v>45476.58127314815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12485,7 +12500,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12522,14 +12537,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 31727-2023</t>
+          <t>A 48212-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45117</v>
+        <v>45933.49399305556</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12542,7 +12557,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12579,14 +12594,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 31728-2023</t>
+          <t>A 49277-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45117</v>
+        <v>45938.50756944445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12599,7 +12614,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12636,14 +12651,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 11605-2024</t>
+          <t>A 49269-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45373.39921296296</v>
+        <v>45938.50247685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12656,7 +12671,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12693,14 +12708,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53055-2024</t>
+          <t>A 29306-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45611.46429398148</v>
+        <v>45824.45997685185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12713,7 +12728,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12750,14 +12765,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6074-2026</t>
+          <t>A 49460-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46052.66378472222</v>
+        <v>45939.31943287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12770,7 +12785,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12807,14 +12822,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6103-2026</t>
+          <t>A 29794-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46052.9485300926</v>
+        <v>45825.66684027778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12827,7 +12842,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12864,14 +12879,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 6104-2026</t>
+          <t>A 14032-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46052.94945601852</v>
+        <v>45740.35876157408</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12884,7 +12899,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12921,14 +12936,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 6071-2026</t>
+          <t>A 28201-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46052.66287037037</v>
+        <v>44355.6369675926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12941,7 +12956,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.3</v>
+        <v>10.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12978,14 +12993,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 30745-2023</t>
+          <t>A 15969-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45112</v>
+        <v>45749.54825231482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12998,7 +13013,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13035,14 +13050,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7339-2025</t>
+          <t>A 10918-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45703.51598379629</v>
+        <v>45722.77650462963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13055,7 +13070,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13092,14 +13107,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 29658-2022</t>
+          <t>A 9471-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44754.67859953704</v>
+        <v>45715.47013888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13112,7 +13127,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13149,14 +13164,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 10610-2025</t>
+          <t>A 59613-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45721.59978009259</v>
+        <v>45254.64126157408</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13169,7 +13184,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13206,14 +13221,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6064-2025</t>
+          <t>A 31804-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45696.28527777778</v>
+        <v>45834.55309027778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13226,7 +13241,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13263,14 +13278,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 57036-2024</t>
+          <t>A 52075-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45629.2527662037</v>
+        <v>45952.65550925926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13283,7 +13298,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13320,14 +13335,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16534-2024</t>
+          <t>A 52108-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45408.43065972222</v>
+        <v>45952.6910300926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13340,7 +13355,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13377,14 +13392,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 7546-2026</t>
+          <t>A 52077-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46059.67181712963</v>
+        <v>45952.65769675926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13397,7 +13412,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13434,14 +13449,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 64003-2025</t>
+          <t>A 51613-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46021.40840277778</v>
+        <v>45951.39907407408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13454,7 +13469,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13491,14 +13506,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 64005-2025</t>
+          <t>A 31594-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46021.41178240741</v>
+        <v>45833.70512731482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13511,7 +13526,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13548,14 +13563,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 36131-2024</t>
+          <t>A 32509-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45534.33863425926</v>
+        <v>45838.4722800926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13568,7 +13583,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13605,14 +13620,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 54287-2022</t>
+          <t>A 52370-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44882.37096064815</v>
+        <v>45953.88924768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13625,7 +13640,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13662,14 +13677,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 50011-2023</t>
+          <t>A 52511-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45215</v>
+        <v>45954.50719907408</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13682,7 +13697,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13719,14 +13734,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15112-2022</t>
+          <t>A 32506-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44658</v>
+        <v>45838.4687037037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13739,7 +13754,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13776,14 +13791,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 1922-2024</t>
+          <t>A 52371-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45308.43416666667</v>
+        <v>45953.89262731482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13796,7 +13811,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13833,14 +13848,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 61334-2022</t>
+          <t>A 61318-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44915</v>
+        <v>45264</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13853,7 +13868,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13890,14 +13905,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 51564-2024</t>
+          <t>A 52513-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45604.62042824074</v>
+        <v>45954.50944444445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13910,7 +13925,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13947,14 +13962,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35491-2023</t>
+          <t>A 32320-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45146</v>
+        <v>45836.4041087963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13967,7 +13982,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.5</v>
+        <v>11.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14000,38 +14015,18 @@
         <v>0</v>
       </c>
       <c r="R225" s="2" t="inlineStr"/>
-      <c r="U225">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/knärot/A 35491-2023 karta knärot.png", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="V225">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomål/A 35491-2023 FSC-klagomål.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="W225">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/klagomålsmail/A 35491-2023 FSC-klagomål mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="X225">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsyn/A 35491-2023 tillsynsbegäran.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
-      <c r="Y225">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1443/tillsynsmail/A 35491-2023 tillsynsbegäran mail.docx", "A 35491-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 7046-2025</t>
+          <t>A 52943-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45701.6434375</v>
+        <v>45957.64331018519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14044,7 +14039,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14081,14 +14076,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 9920-2026</t>
+          <t>A 32862-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46073.44409722222</v>
+        <v>45839.5834837963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14100,13 +14095,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14143,14 +14133,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 30760-2023</t>
+          <t>A 52939-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45112</v>
+        <v>45957.63912037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14163,7 +14153,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14200,14 +14190,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 30762-2023</t>
+          <t>A 52942-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45112</v>
+        <v>45957.64267361111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14220,7 +14210,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14257,14 +14247,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 56331-2024</t>
+          <t>A 54783-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45624.79915509259</v>
+        <v>45966.61938657407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14277,7 +14267,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14314,14 +14304,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 12124-2024</t>
+          <t>A 55159-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45377</v>
+        <v>45621.50773148148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14333,13 +14323,8 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14376,14 +14361,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 51314-2023</t>
+          <t>A 11981-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45219</v>
+        <v>45728</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14396,7 +14381,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14433,14 +14418,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 3238-2023</t>
+          <t>A 56305-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44946.84815972222</v>
+        <v>45974.61175925926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14453,7 +14438,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14490,14 +14475,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12160-2024</t>
+          <t>A 56312-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45377.80496527778</v>
+        <v>45974.62810185185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14510,7 +14495,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14547,14 +14532,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 40202-2021</t>
+          <t>A 435-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44418</v>
+        <v>45664.37454861111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14567,7 +14552,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14604,14 +14589,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 54659-2022</t>
+          <t>A 58139-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44883</v>
+        <v>45982.62479166667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14624,7 +14609,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14661,14 +14646,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 31718-2023</t>
+          <t>A 28158-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45117.88568287037</v>
+        <v>45476.93028935185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14681,7 +14666,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14718,14 +14703,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 36532-2024</t>
+          <t>A 58137-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45537.44701388889</v>
+        <v>45982.62140046297</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14738,7 +14723,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14775,14 +14760,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 43398-2024</t>
+          <t>A 36650-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45568.61006944445</v>
+        <v>45872.58658564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14795,7 +14780,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14832,14 +14817,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 54311-2022</t>
+          <t>A 48513-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44882.41185185185</v>
+        <v>44449</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14852,7 +14837,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14889,14 +14874,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22443-2023</t>
+          <t>A 59493-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45070</v>
+        <v>45989.60912037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14909,7 +14894,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14946,14 +14931,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 60792-2022</t>
+          <t>A 59871-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44914.42209490741</v>
+        <v>45992.92416666666</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14966,7 +14951,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15003,14 +14988,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 15969-2025</t>
+          <t>A 60091-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45749.54825231482</v>
+        <v>45993.72268518519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,14 +15045,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 61026-2022</t>
+          <t>A 60092-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44914.8635300926</v>
+        <v>45993.72543981481</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15080,7 +15065,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15117,14 +15102,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 47264-2024</t>
+          <t>A 38108-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45586.8034837963</v>
+        <v>45882.5039699074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15137,7 +15122,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15174,14 +15159,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 22541-2023</t>
+          <t>A 60089-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45071</v>
+        <v>45993.72018518519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15194,7 +15179,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15231,14 +15216,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 21751-2022</t>
+          <t>A 60093-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44708.43361111111</v>
+        <v>45993.72949074074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15251,7 +15236,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15288,14 +15273,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 1395-2024</t>
+          <t>A 59872-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45303</v>
+        <v>45992.93340277778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15308,7 +15293,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15345,14 +15330,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 2398-2024</t>
+          <t>A 60181-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45310</v>
+        <v>45994.46494212963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15365,7 +15350,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15402,14 +15387,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 30793-2023</t>
+          <t>A 60376-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45112.74090277778</v>
+        <v>45995.36325231481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15422,7 +15407,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15459,14 +15444,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 30795-2023</t>
+          <t>A 31546-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45112.75636574074</v>
+        <v>44775</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15516,14 +15501,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 30800-2023</t>
+          <t>A 60380-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45112.77375</v>
+        <v>45995.36851851852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15536,7 +15521,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15573,14 +15558,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 52100-2023</t>
+          <t>A 2497-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45223</v>
+        <v>46037.40177083333</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15593,7 +15578,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15630,14 +15615,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 28040-2024</t>
+          <t>A 60946-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45476.50533564815</v>
+        <v>45999.64741898148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15650,7 +15635,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15687,14 +15672,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 48513-2021</t>
+          <t>A 54144-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44449</v>
+        <v>44881</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15707,7 +15692,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15744,14 +15729,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 18337-2023</t>
+          <t>A 2006-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45041</v>
+        <v>45308</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15764,7 +15749,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15801,14 +15786,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 11021-2022</t>
+          <t>A 61671-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44628.55136574074</v>
+        <v>44917.3327662037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15821,7 +15806,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15858,14 +15843,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 11239-2023</t>
+          <t>A 4119-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44992</v>
+        <v>46044.6099537037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15877,8 +15862,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15915,14 +15905,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 31717-2023</t>
+          <t>A 4588-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45117</v>
+        <v>46048.34140046296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15935,7 +15925,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15972,14 +15962,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 31719-2023</t>
+          <t>A 4587-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45117.8900462963</v>
+        <v>46048.33873842593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15992,7 +15982,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16029,14 +16019,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 31745-2023</t>
+          <t>A 6071-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45117</v>
+        <v>46052.66287037037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16049,7 +16039,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16086,14 +16076,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 56335-2024</t>
+          <t>A 6074-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45624.80724537037</v>
+        <v>46052.66378472222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16106,7 +16096,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16143,14 +16133,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 30801-2023</t>
+          <t>A 6103-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45112.78192129629</v>
+        <v>46052.9485300926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16163,7 +16153,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16200,14 +16190,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 70708-2021</t>
+          <t>A 10610-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44537</v>
+        <v>45721.59978009259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16220,7 +16210,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16257,14 +16247,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 31712-2023</t>
+          <t>A 6064-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45117.8322337963</v>
+        <v>45696.28527777778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16277,7 +16267,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16314,14 +16304,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 31715-2023</t>
+          <t>A 7339-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45117.84797453704</v>
+        <v>45703.51598379629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16334,7 +16324,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>12.4</v>
+        <v>3.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16371,14 +16361,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 58010-2022</t>
+          <t>A 6104-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44900</v>
+        <v>46052.94945601852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16391,7 +16381,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16428,14 +16418,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 58011-2022</t>
+          <t>A 7546-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44900</v>
+        <v>46059.67181712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16448,7 +16438,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16485,14 +16475,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 59517-2023</t>
+          <t>A 64003-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45254</v>
+        <v>46021.40840277778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16505,7 +16495,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16542,14 +16532,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 30724-2023</t>
+          <t>A 64005-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45112</v>
+        <v>46021.41178240741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16562,7 +16552,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16599,14 +16589,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 48354-2024</t>
+          <t>A 9920-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45590.56171296296</v>
+        <v>46073.44409722222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16618,8 +16608,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16653,17 +16648,17 @@
       </c>
       <c r="R271" s="2" t="inlineStr"/>
     </row>
-    <row r="272">
+    <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 30792-2023</t>
+          <t>A 12124-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45112.72848379629</v>
+        <v>45377</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16675,8 +16670,13 @@
           <t>BOLLEBYGD</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16709,6 +16709,63 @@
         <v>0</v>
       </c>
       <c r="R272" s="2" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>A 10802-2026</t>
+        </is>
+      </c>
+      <c r="B273" s="1" t="n">
+        <v>46078.59950231481</v>
+      </c>
+      <c r="C273" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -575,7 +575,7 @@
         <v>45952.67300925926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45943.47586805555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>44370</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45363.57760416667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45117.83711805556</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45838.46440972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45839.58148148148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45645.68797453704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45930.42038194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45112.49369212963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44431</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44426.66753472222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44637</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44764</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44570.89018518518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44502.41795138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44383</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44323.72275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44530.44055555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44683</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44363</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44370.63486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44327</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44370.63815972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44531.61189814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44449.77408564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44818.56305555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45377.80496527778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45215</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44351</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>44754.67859953704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44369.58694444445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45223</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45215</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44914.42209490741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45197</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45359.42094907408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44882.37096064815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45112</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44883</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45112.75039351852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>45117.88568287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45328</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45328</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45147</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45476.50533564815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>45448.57018518518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>44946.84690972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45303</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45373.39921296296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>44537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>45316</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>45112</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45453.46866898148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45803.66721064815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>45629.2527662037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45537.44701388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>45358.39443287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>44628.55136574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>45888.67532407407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>45216</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>45611.46429398148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>45713.67104166667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45587.63065972222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>45118</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45288</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45476.58127314815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44658</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44946.84815972222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45254</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45824.45997685185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45895.35997685185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45825.66684027778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45897.42164351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44981</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>45740.35876157408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>45070</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>45722.77650462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45715.47013888889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45232</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>45834.55309027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45833.70512731482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45838.4722800926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>45112</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45112.78192129629</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45624.79915509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45838.4687037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45836.4041087963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45839.5834837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45910.61802083333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45855.87664351852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45112.46177083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45604.62042824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45919.54019675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45664.37454861111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45476.93028935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44344</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45930.47650462963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45930.44646990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45117.82019675926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45117</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45117</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45932.55678240741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45872.58658564815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45219</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44459</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45931.62960648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45204</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45882.5039699074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45709.64003472222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45933.49399305556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45041</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45071</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44418</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45938.50756944445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45938.50247685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45090.67364583333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44524.38003472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45939.31943287037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45112.44275462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45112.47034722222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45763.50521990741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45117</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45117.8900462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45112.77375</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44726.43189814815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45112.47785879629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45952.65550925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>45952.6910300926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45952.65769675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>45951.39907407408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>45953.88924768518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>45954.50719907408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>44882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>45953.89262731482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>45954.50944444445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>45308.43416666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45957.64331018519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45957.63912037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45957.64267361111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44958.60896990741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>45288</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45624.80724537037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45568.61006944445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45254</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>45966.61938657407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44494</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>44966</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>45974.61175925926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>45974.62810185185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>45308.43202546296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>45180.36814814815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>45982.62479166667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>45982.62140046297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44992</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45763.49810185185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45763.50244212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45534.33863425926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45117.8322337963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45117.84797453704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45586.8034837963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45989.60912037037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45586.80979166667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45590.56171296296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45180.82547453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45992.92416666666</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45993.72268518519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45993.72543981481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44602</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>45993.72949074074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45992.93340277778</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>45994.46494212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>45995.36325231481</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>45995.36851851852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>45408.43065972222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>45999.64741898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>46044.6099537037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>45117.91390046296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>45117.92457175926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44683.57416666667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>46048.34140046296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44708.43361111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>45112.72848379629</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>46048.33873842593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>45701.6434375</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>45180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>45561.54084490741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>45272</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>46052.66287037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>46052.66378472222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>46052.9485300926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45721.59978009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>45696.28527777778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>45703.51598379629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>46052.94945601852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44355.6369675926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45749.54825231482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>46059.67181712963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>45254.64126157408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>46021.40840277778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>46021.41178240741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>45264</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>45621.50773148148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>46073.44409722222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>45377</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>46078.59950231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44449</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>45308</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>46037.40177083333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44917.3327662037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44868</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44915</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>45112.74090277778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>45112.75636574074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>45112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44882.41185185185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44900</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>45624.80081018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44914.8635300926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>45276</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44981</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>45112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45112</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45162.63375</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45112</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44994</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45146</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45762.43462962963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45223</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>45310</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45160.78711805555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45218.52822916667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44893.2884375</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45248</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44510.61469907407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45471.4950462963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45629.8953587963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45782.82457175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45782.8308912037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45784.40392361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45455.80586805556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45782.82858796296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45455.80972222222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45786.56738425926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45572.46334490741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45791.60857638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45800.31393518519</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45803.66457175926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
